--- a/Dashboard/PROD-PRODT.xlsx
+++ b/Dashboard/PROD-PRODT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5214F3-70D0-4AB7-9291-1002A5149438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D43699-00E8-4682-8263-5C66FE087D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2150E450-B528-47B5-8CCB-BB82D3D11557}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2150E450-B528-47B5-8CCB-BB82D3D11557}"/>
   </bookViews>
   <sheets>
     <sheet name="LANC." sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="\0">#REF!</definedName>
@@ -39,11 +38,11 @@
     <definedName name="_A">#REF!</definedName>
     <definedName name="_Abr1">#REF!</definedName>
     <definedName name="_Ago1">#REF!</definedName>
-    <definedName name="_Brz1">[2]Feriados!$B$4:$B$14</definedName>
-    <definedName name="_Brz2">[2]Feriados!$B$17:$B$24</definedName>
+    <definedName name="_Brz1">[1]Feriados!$B$4:$B$14</definedName>
+    <definedName name="_Brz2">[1]Feriados!$B$17:$B$24</definedName>
     <definedName name="_Dez1">#REF!</definedName>
     <definedName name="_Fev1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANC.!$A$1:$K$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANC.!$A$1:$K$52</definedName>
     <definedName name="_Jan1">#REF!</definedName>
     <definedName name="_Jul1">#REF!</definedName>
     <definedName name="_Jun1">#REF!</definedName>
@@ -59,7 +58,7 @@
     <definedName name="AREA">#REF!</definedName>
     <definedName name="AZUL">#REF!</definedName>
     <definedName name="BIBI">#REF!</definedName>
-    <definedName name="Cargos">INDIRECT('[3]Dados out'!$C$26)</definedName>
+    <definedName name="Cargos">INDIRECT('[2]Dados out'!$C$26)</definedName>
     <definedName name="cbu1a">#REF!</definedName>
     <definedName name="cbu1b">#REF!</definedName>
     <definedName name="cbu2a">#REF!</definedName>
@@ -78,7 +77,7 @@
     <definedName name="cbugeB">#REF!</definedName>
     <definedName name="CONS">#REF!</definedName>
     <definedName name="CONS.">#REF!</definedName>
-    <definedName name="ConseSeg">INDIRECT('[4]PA-CONS$SEG'!$H$7)</definedName>
+    <definedName name="ConseSeg">INDIRECT('[3]PA-CONS$SEG'!$H$7)</definedName>
     <definedName name="DADO2">#REF!</definedName>
     <definedName name="dados">#REF!</definedName>
     <definedName name="DIA">#REF!</definedName>
@@ -92,8 +91,8 @@
     <definedName name="Exibir_Fer_Nac">#REF!</definedName>
     <definedName name="FERRAMENTA">INDIRECT(#REF!)</definedName>
     <definedName name="FRR">#REF!</definedName>
-    <definedName name="hist.inox">'[5]4'!$N$21:$S$33</definedName>
-    <definedName name="hist.manual">'[5]4'!$H$21:$M$33</definedName>
+    <definedName name="hist.inox">'[4]4'!$N$21:$S$33</definedName>
+    <definedName name="hist.manual">'[4]4'!$H$21:$M$33</definedName>
     <definedName name="IMPRESSÃO">#REF!</definedName>
     <definedName name="KPI">#REF!</definedName>
     <definedName name="KPP">#REF!</definedName>
@@ -106,37 +105,37 @@
     <definedName name="linha8">#REF!</definedName>
     <definedName name="linhaanap">#REF!</definedName>
     <definedName name="linhage">#REF!</definedName>
-    <definedName name="Linhas">[6]Dados!$G$2:$G$19</definedName>
+    <definedName name="Linhas">[5]Dados!$G$2:$G$19</definedName>
     <definedName name="lista">#REF!</definedName>
     <definedName name="MAN">#REF!</definedName>
     <definedName name="MÁQUINA">INDIRECT(#REF!)</definedName>
     <definedName name="MARÇO">#REF!</definedName>
-    <definedName name="Menu2">[7]calc!$J$2:$J$4</definedName>
+    <definedName name="Menu2">[6]calc!$J$2:$J$4</definedName>
     <definedName name="MÊS">#REF!</definedName>
     <definedName name="Meses">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
-    <definedName name="NOME1">INDIRECT('[8]3+'!$F$6)</definedName>
-    <definedName name="NOME2">INDIRECT('[8]3+'!$F$8)</definedName>
-    <definedName name="NOME3">INDIRECT('[8]3+'!$F$10)</definedName>
+    <definedName name="NOME1">INDIRECT('[7]3+'!$F$6)</definedName>
+    <definedName name="NOME2">INDIRECT('[7]3+'!$F$8)</definedName>
+    <definedName name="NOME3">INDIRECT('[7]3+'!$F$10)</definedName>
     <definedName name="P">#REF!</definedName>
-    <definedName name="PA">INDIRECT('[4]PA-TODOS'!$L$7)</definedName>
+    <definedName name="PA">INDIRECT('[3]PA-TODOS'!$L$7)</definedName>
     <definedName name="PAE">#REF!</definedName>
     <definedName name="PARAD.">#REF!</definedName>
-    <definedName name="Páscoa">[2]Feriados!$B$6</definedName>
+    <definedName name="Páscoa">[1]Feriados!$B$6</definedName>
     <definedName name="PC">#REF!</definedName>
-    <definedName name="Pilares">INDIRECT('[4]14 (5)'!$J$7)</definedName>
+    <definedName name="Pilares">INDIRECT('[3]14 (5)'!$J$7)</definedName>
     <definedName name="PROD.">#REF!</definedName>
     <definedName name="QUAL.">#REF!</definedName>
     <definedName name="QUALIDADE">#REF!</definedName>
     <definedName name="S">INDIRECT(#REF!)</definedName>
     <definedName name="SEG">#REF!</definedName>
-    <definedName name="SETORESMAQUINA">'[9]Dados Progressiva'!$M$2:$M$4</definedName>
+    <definedName name="SETORESMAQUINA">'[8]Dados Progressiva'!$M$2:$M$4</definedName>
     <definedName name="SUC">#REF!</definedName>
     <definedName name="SUC.">#REF!</definedName>
     <definedName name="tab.geral">#REF!</definedName>
     <definedName name="Tab.meta">#REF!</definedName>
     <definedName name="TMETA">#REF!</definedName>
     <definedName name="TURMA">#REF!</definedName>
-    <definedName name="USA">[2]Feriados!$B$27:$B$34</definedName>
+    <definedName name="USA">[1]Feriados!$B$27:$B$34</definedName>
     <definedName name="Z_13679B02_FCB5_441B_89A1_2FF1BF786835_.wvu.Cols" localSheetId="0" hidden="1">LANC.!#REF!</definedName>
     <definedName name="Z_13679B02_FCB5_441B_89A1_2FF1BF786835_.wvu.FilterData" localSheetId="0" hidden="1">LANC.!$A$1:$I$1</definedName>
   </definedNames>
@@ -159,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="15">
   <si>
     <t>DATA</t>
   </si>
@@ -210,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +340,15 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -803,26 +811,6 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="LANC."/>
-      <sheetName val="IPROD"/>
-      <sheetName val="IPRDT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Anual"/>
       <sheetName val="Feriados"/>
@@ -973,7 +961,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1024,7 +1012,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1163,7 +1151,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1645,7 +1633,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1813,7 +1801,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1846,7 +1834,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2003,7 +1991,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2051,8 +2039,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3AF037B-0FF0-476E-90B8-47EE3B2C6636}" name="T_PROD" displayName="T_PROD" ref="A1:K46" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:K46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3AF037B-0FF0-476E-90B8-47EE3B2C6636}" name="T_PROD" displayName="T_PROD" ref="A1:K52" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:K52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{C0D563D9-D6A0-4A47-9C01-DAA664E47EDF}" name="DATA" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{2C01904C-439A-41B7-BC4C-24448F0C3FD1}" name="MÊS" dataDxfId="9">
@@ -2382,11 +2370,11 @@
   <dimension ref="A1:K1006"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
@@ -2402,7 +2390,7 @@
     <col min="12" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="58.5" customHeight="1">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2437,7 +2425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>46027</v>
       </c>
@@ -2475,7 +2463,7 @@
         <v>19.615384615384617</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>46027</v>
       </c>
@@ -2514,7 +2502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>46028</v>
       </c>
@@ -2552,7 +2540,7 @@
         <v>18.620689655172413</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1">
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>46028</v>
       </c>
@@ -2591,7 +2579,7 @@
         <v>10.555555555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1">
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>46029</v>
       </c>
@@ -2629,7 +2617,7 @@
         <v>18.392857142857142</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1">
+    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>46029</v>
       </c>
@@ -2668,7 +2656,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="6" customFormat="1">
+    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>46030</v>
       </c>
@@ -2706,7 +2694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="6" customFormat="1">
+    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>46030</v>
       </c>
@@ -2745,7 +2733,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1">
+    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>46030</v>
       </c>
@@ -2783,7 +2771,7 @@
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="6" customFormat="1">
+    <row r="11" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>46029</v>
       </c>
@@ -2821,7 +2809,7 @@
         <v>7.9367088607594933</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1">
+    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>46028</v>
       </c>
@@ -2859,7 +2847,7 @@
         <v>8.037974683544304</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="6" customFormat="1">
+    <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>46027</v>
       </c>
@@ -2897,7 +2885,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="6" customFormat="1">
+    <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>46031</v>
       </c>
@@ -2935,7 +2923,7 @@
         <v>5.9740259740259738</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="6" customFormat="1">
+    <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>46031</v>
       </c>
@@ -2973,7 +2961,7 @@
         <v>13.214285714285714</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="6" customFormat="1">
+    <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>46031</v>
       </c>
@@ -3011,7 +2999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="6" customFormat="1">
+    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>46034</v>
       </c>
@@ -3049,7 +3037,7 @@
         <v>18.928571428571427</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1">
+    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>46034</v>
       </c>
@@ -3087,7 +3075,7 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1">
+    <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>46034</v>
       </c>
@@ -3125,7 +3113,7 @@
         <v>8.4415584415584419</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1">
+    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>46035</v>
       </c>
@@ -3163,7 +3151,7 @@
         <v>18.962962962962962</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="6" customFormat="1">
+    <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>46035</v>
       </c>
@@ -3201,7 +3189,7 @@
         <v>14.444444444444445</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1">
+    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>46035</v>
       </c>
@@ -3239,7 +3227,7 @@
         <v>8.4473684210526319</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1">
+    <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>46036</v>
       </c>
@@ -3277,7 +3265,7 @@
         <v>15.714285714285714</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1">
+    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>46036</v>
       </c>
@@ -3316,7 +3304,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="6" customFormat="1">
+    <row r="25" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>46036</v>
       </c>
@@ -3354,7 +3342,7 @@
         <v>7.1756756756756754</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="6" customFormat="1">
+    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>46037</v>
       </c>
@@ -3392,7 +3380,7 @@
         <v>16.071428571428573</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1">
+    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>46037</v>
       </c>
@@ -3431,7 +3419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1">
+    <row r="28" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>46037</v>
       </c>
@@ -3469,7 +3457,7 @@
         <v>7.5641025641025639</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1">
+    <row r="29" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>46038</v>
       </c>
@@ -3507,7 +3495,7 @@
         <v>11.923076923076923</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1">
+    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>46038</v>
       </c>
@@ -3545,7 +3533,7 @@
         <v>11.875</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="6" customFormat="1">
+    <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>46038</v>
       </c>
@@ -3583,7 +3571,7 @@
         <v>5.5479452054794525</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1">
+    <row r="32" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>46041</v>
       </c>
@@ -3621,7 +3609,7 @@
         <v>21.379310344827587</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1">
+    <row r="33" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>46041</v>
       </c>
@@ -3660,7 +3648,7 @@
         <v>14.888888888888889</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="6" customFormat="1">
+    <row r="34" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>46041</v>
       </c>
@@ -3698,7 +3686,7 @@
         <v>9.1951219512195124</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="6" customFormat="1">
+    <row r="35" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>46042</v>
       </c>
@@ -3736,7 +3724,7 @@
         <v>20.689655172413794</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="6" customFormat="1">
+    <row r="36" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>46042</v>
       </c>
@@ -3775,7 +3763,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="6" customFormat="1">
+    <row r="37" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>46042</v>
       </c>
@@ -3813,7 +3801,7 @@
         <v>9.3874999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="6" customFormat="1">
+    <row r="38" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>46043</v>
       </c>
@@ -3851,7 +3839,7 @@
         <v>21.206896551724139</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="6" customFormat="1">
+    <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>46043</v>
       </c>
@@ -3890,7 +3878,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1">
+    <row r="40" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>46043</v>
       </c>
@@ -3929,7 +3917,7 @@
         <v>9.7721518987341778</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="6" customFormat="1">
+    <row r="41" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>46044</v>
       </c>
@@ -3967,7 +3955,7 @@
         <v>20.357142857142858</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="6" customFormat="1">
+    <row r="42" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>46044</v>
       </c>
@@ -4006,7 +3994,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="6" customFormat="1">
+    <row r="43" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>46044</v>
       </c>
@@ -4044,7 +4032,7 @@
         <v>9.2307692307692299</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1">
+    <row r="44" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>46045</v>
       </c>
@@ -4082,7 +4070,7 @@
         <v>16.111111111111111</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="6" customFormat="1">
+    <row r="45" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>46045</v>
       </c>
@@ -4120,7 +4108,7 @@
         <v>11.555555555555555</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="6" customFormat="1">
+    <row r="46" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>46045</v>
       </c>
@@ -4158,85 +4146,237 @@
         <v>7.0921052631578947</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="6" customFormat="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-    </row>
-    <row r="48" spans="1:11" s="6" customFormat="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="1:11" s="6" customFormat="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" spans="1:11" s="6" customFormat="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="1:11" s="6" customFormat="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="1:11" s="6" customFormat="1">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-    </row>
-    <row r="53" spans="1:11" s="6" customFormat="1">
+    <row r="47" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="26">
+        <v>46048</v>
+      </c>
+      <c r="B47" s="27" t="str">
+        <f>UPPER(TEXT(A47,"MMMM"))</f>
+        <v>JANEIRO</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="13">
+        <v>550</v>
+      </c>
+      <c r="F47" s="8">
+        <v>550</v>
+      </c>
+      <c r="G47" s="6">
+        <v>33</v>
+      </c>
+      <c r="H47" s="9">
+        <v>28</v>
+      </c>
+      <c r="I47" s="27">
+        <f>IFERROR(IF(T_PROD[[#This Row],[PREVISTO]]-T_PROD[[#This Row],[EFETIVO]]&lt; 0,0,T_PROD[[#This Row],[PREVISTO]]-T_PROD[[#This Row],[EFETIVO]] ),"")</f>
+        <v>5</v>
+      </c>
+      <c r="J47" s="15">
+        <v>18</v>
+      </c>
+      <c r="K47" s="15">
+        <f>IFERROR(IF(T_PROD[[#This Row],[PRODUÇÃO]]&gt;0,(T_PROD[[#This Row],[PRODUÇÃO]]/T_PROD[[#This Row],[EFETIVO]]),""),"")</f>
+        <v>19.642857142857142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26">
+        <v>46048</v>
+      </c>
+      <c r="B48" s="27" t="str">
+        <f>UPPER(TEXT(A48,"MMMM"))</f>
+        <v>JANEIRO</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="13">
+        <v>150</v>
+      </c>
+      <c r="F48" s="8">
+        <v>132</v>
+      </c>
+      <c r="G48" s="6">
+        <v>10</v>
+      </c>
+      <c r="H48" s="9">
+        <v>9</v>
+      </c>
+      <c r="I48" s="27">
+        <f>IFERROR(IF(T_PROD[[#This Row],[PREVISTO]]-T_PROD[[#This Row],[EFETIVO]]&lt; 0,0,T_PROD[[#This Row],[PREVISTO]]-T_PROD[[#This Row],[EFETIVO]] ),"")</f>
+        <v>1</v>
+      </c>
+      <c r="J48" s="15">
+        <f>IFERROR(IF(T_PROD[[#This Row],[META]]&gt;0,(T_PROD[[#This Row],[META]]/T_PROD[[#This Row],[PREVISTO]]),""),"")</f>
+        <v>15</v>
+      </c>
+      <c r="K48" s="15">
+        <f>IFERROR(IF(T_PROD[[#This Row],[PRODUÇÃO]]&gt;0,(T_PROD[[#This Row],[PRODUÇÃO]]/T_PROD[[#This Row],[EFETIVO]]),""),"")</f>
+        <v>14.666666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26">
+        <v>46048</v>
+      </c>
+      <c r="B49" s="27" t="str">
+        <f>UPPER(TEXT(A49,"MMMM"))</f>
+        <v>JANEIRO</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="13">
+        <v>700</v>
+      </c>
+      <c r="F49" s="8">
+        <v>682</v>
+      </c>
+      <c r="G49" s="6">
+        <v>91</v>
+      </c>
+      <c r="H49" s="9">
+        <v>82</v>
+      </c>
+      <c r="I49" s="27">
+        <f>IFERROR(IF(T_PROD[[#This Row],[PREVISTO]]-T_PROD[[#This Row],[EFETIVO]]&lt; 0,0,T_PROD[[#This Row],[PREVISTO]]-T_PROD[[#This Row],[EFETIVO]] ),"")</f>
+        <v>9</v>
+      </c>
+      <c r="J49" s="15">
+        <v>8.1</v>
+      </c>
+      <c r="K49" s="15">
+        <f>IFERROR(IF(T_PROD[[#This Row],[PRODUÇÃO]]&gt;0,(T_PROD[[#This Row],[PRODUÇÃO]]/T_PROD[[#This Row],[EFETIVO]]),""),"")</f>
+        <v>8.3170731707317067</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="26">
+        <v>46049</v>
+      </c>
+      <c r="B50" s="27" t="str">
+        <f>UPPER(TEXT(A50,"MMMM"))</f>
+        <v>JANEIRO</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="28">
+        <v>600</v>
+      </c>
+      <c r="F50" s="8">
+        <v>625</v>
+      </c>
+      <c r="G50" s="6">
+        <v>33</v>
+      </c>
+      <c r="H50" s="9">
+        <v>28</v>
+      </c>
+      <c r="I50" s="27">
+        <f>IFERROR(IF(T_PROD[[#This Row],[PREVISTO]]-T_PROD[[#This Row],[EFETIVO]]&lt; 0,0,T_PROD[[#This Row],[PREVISTO]]-T_PROD[[#This Row],[EFETIVO]] ),"")</f>
+        <v>5</v>
+      </c>
+      <c r="J50" s="15">
+        <v>18</v>
+      </c>
+      <c r="K50" s="15">
+        <f>IFERROR(IF(T_PROD[[#This Row],[PRODUÇÃO]]&gt;0,(T_PROD[[#This Row],[PRODUÇÃO]]/T_PROD[[#This Row],[EFETIVO]]),""),"")</f>
+        <v>22.321428571428573</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="26">
+        <v>46049</v>
+      </c>
+      <c r="B51" s="27" t="str">
+        <f>UPPER(TEXT(A51,"MMMM"))</f>
+        <v>JANEIRO</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="28">
+        <v>150</v>
+      </c>
+      <c r="F51" s="8">
+        <v>160</v>
+      </c>
+      <c r="G51" s="6">
+        <v>10</v>
+      </c>
+      <c r="H51" s="9">
+        <v>10</v>
+      </c>
+      <c r="I51" s="27">
+        <f>IFERROR(IF(T_PROD[[#This Row],[PREVISTO]]-T_PROD[[#This Row],[EFETIVO]]&lt; 0,0,T_PROD[[#This Row],[PREVISTO]]-T_PROD[[#This Row],[EFETIVO]] ),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <f>IFERROR(IF(T_PROD[[#This Row],[META]]&gt;0,(T_PROD[[#This Row],[META]]/T_PROD[[#This Row],[PREVISTO]]),""),"")</f>
+        <v>15</v>
+      </c>
+      <c r="K51" s="15">
+        <f>IFERROR(IF(T_PROD[[#This Row],[PRODUÇÃO]]&gt;0,(T_PROD[[#This Row],[PRODUÇÃO]]/T_PROD[[#This Row],[EFETIVO]]),""),"")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="26">
+        <v>46049</v>
+      </c>
+      <c r="B52" s="27" t="str">
+        <f>UPPER(TEXT(A52,"MMMM"))</f>
+        <v>JANEIRO</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="28">
+        <v>750</v>
+      </c>
+      <c r="F52" s="8">
+        <v>785</v>
+      </c>
+      <c r="G52" s="6">
+        <v>91</v>
+      </c>
+      <c r="H52" s="9">
+        <v>84</v>
+      </c>
+      <c r="I52" s="27">
+        <f>IFERROR(IF(T_PROD[[#This Row],[PREVISTO]]-T_PROD[[#This Row],[EFETIVO]]&lt; 0,0,T_PROD[[#This Row],[PREVISTO]]-T_PROD[[#This Row],[EFETIVO]] ),"")</f>
+        <v>7</v>
+      </c>
+      <c r="J52" s="15">
+        <v>8.1</v>
+      </c>
+      <c r="K52" s="15">
+        <f>IFERROR(IF(T_PROD[[#This Row],[PRODUÇÃO]]&gt;0,(T_PROD[[#This Row],[PRODUÇÃO]]/T_PROD[[#This Row],[EFETIVO]]),""),"")</f>
+        <v>9.3452380952380949</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -4249,7 +4389,7 @@
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" s="6" customFormat="1">
+    <row r="54" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -4262,7 +4402,7 @@
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" s="6" customFormat="1">
+    <row r="55" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -4275,7 +4415,7 @@
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" s="6" customFormat="1">
+    <row r="56" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -4288,7 +4428,7 @@
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" s="6" customFormat="1">
+    <row r="57" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -4301,7 +4441,7 @@
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" s="6" customFormat="1">
+    <row r="58" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -4314,7 +4454,7 @@
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" s="6" customFormat="1">
+    <row r="59" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -4327,7 +4467,7 @@
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" s="6" customFormat="1">
+    <row r="60" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -4340,7 +4480,7 @@
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" s="6" customFormat="1">
+    <row r="61" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -4353,7 +4493,7 @@
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" s="6" customFormat="1">
+    <row r="62" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -4366,7 +4506,7 @@
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" s="6" customFormat="1">
+    <row r="63" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -4379,7 +4519,7 @@
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" s="6" customFormat="1">
+    <row r="64" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -4392,7 +4532,7 @@
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" s="6" customFormat="1">
+    <row r="65" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -4405,7 +4545,7 @@
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" s="6" customFormat="1">
+    <row r="66" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -4418,7 +4558,7 @@
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" s="6" customFormat="1">
+    <row r="67" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -4431,7 +4571,7 @@
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" s="6" customFormat="1">
+    <row r="68" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -4444,7 +4584,7 @@
       <c r="J68" s="20"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" s="6" customFormat="1">
+    <row r="69" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -4457,7 +4597,7 @@
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" s="6" customFormat="1">
+    <row r="70" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -4470,7 +4610,7 @@
       <c r="J70" s="20"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" s="6" customFormat="1">
+    <row r="71" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -4483,7 +4623,7 @@
       <c r="J71" s="20"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" s="6" customFormat="1">
+    <row r="72" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -4496,7 +4636,7 @@
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" s="6" customFormat="1">
+    <row r="73" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -4509,7 +4649,7 @@
       <c r="J73" s="20"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" s="6" customFormat="1">
+    <row r="74" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -4522,7 +4662,7 @@
       <c r="J74" s="20"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" s="6" customFormat="1">
+    <row r="75" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -4535,7 +4675,7 @@
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" s="6" customFormat="1">
+    <row r="76" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -4548,7 +4688,7 @@
       <c r="J76" s="20"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" s="6" customFormat="1">
+    <row r="77" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -4561,7 +4701,7 @@
       <c r="J77" s="20"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" s="6" customFormat="1">
+    <row r="78" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -4574,7 +4714,7 @@
       <c r="J78" s="20"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" s="6" customFormat="1">
+    <row r="79" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -4587,7 +4727,7 @@
       <c r="J79" s="20"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" s="6" customFormat="1">
+    <row r="80" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -4600,7 +4740,7 @@
       <c r="J80" s="20"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" s="6" customFormat="1">
+    <row r="81" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -4613,7 +4753,7 @@
       <c r="J81" s="20"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" s="6" customFormat="1">
+    <row r="82" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -4626,7 +4766,7 @@
       <c r="J82" s="20"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" s="6" customFormat="1">
+    <row r="83" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -4639,7 +4779,7 @@
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" s="6" customFormat="1">
+    <row r="84" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -4652,7 +4792,7 @@
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" s="6" customFormat="1">
+    <row r="85" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -4665,7 +4805,7 @@
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" s="6" customFormat="1">
+    <row r="86" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -4678,7 +4818,7 @@
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" s="6" customFormat="1">
+    <row r="87" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -4691,7 +4831,7 @@
       <c r="J87" s="20"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" s="6" customFormat="1">
+    <row r="88" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -4704,7 +4844,7 @@
       <c r="J88" s="20"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" s="6" customFormat="1">
+    <row r="89" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -4717,7 +4857,7 @@
       <c r="J89" s="20"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" s="6" customFormat="1">
+    <row r="90" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -4730,7 +4870,7 @@
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" s="6" customFormat="1">
+    <row r="91" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -4743,7 +4883,7 @@
       <c r="J91" s="20"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" s="6" customFormat="1">
+    <row r="92" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -4756,7 +4896,7 @@
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" s="6" customFormat="1">
+    <row r="93" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -4769,7 +4909,7 @@
       <c r="J93" s="20"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" s="6" customFormat="1">
+    <row r="94" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -4782,7 +4922,7 @@
       <c r="J94" s="20"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" s="6" customFormat="1">
+    <row r="95" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -4795,7 +4935,7 @@
       <c r="J95" s="20"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" s="6" customFormat="1">
+    <row r="96" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -4808,7 +4948,7 @@
       <c r="J96" s="20"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" s="6" customFormat="1">
+    <row r="97" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="16"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -4821,7 +4961,7 @@
       <c r="J97" s="20"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" s="6" customFormat="1">
+    <row r="98" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="16"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -4834,7 +4974,7 @@
       <c r="J98" s="20"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" s="6" customFormat="1">
+    <row r="99" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="16"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -4847,7 +4987,7 @@
       <c r="J99" s="20"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" s="6" customFormat="1">
+    <row r="100" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="16"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -4860,7 +5000,7 @@
       <c r="J100" s="20"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" s="6" customFormat="1">
+    <row r="101" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="16"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -4873,7 +5013,7 @@
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" s="6" customFormat="1">
+    <row r="102" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -4886,7 +5026,7 @@
       <c r="J102" s="20"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" s="6" customFormat="1">
+    <row r="103" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
@@ -4899,7 +5039,7 @@
       <c r="J103" s="20"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" s="6" customFormat="1">
+    <row r="104" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -4912,7 +5052,7 @@
       <c r="J104" s="20"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" s="6" customFormat="1">
+    <row r="105" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -4925,7 +5065,7 @@
       <c r="J105" s="20"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" s="6" customFormat="1">
+    <row r="106" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="16"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -4938,7 +5078,7 @@
       <c r="J106" s="20"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" s="6" customFormat="1">
+    <row r="107" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="16"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -4951,7 +5091,7 @@
       <c r="J107" s="20"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" s="6" customFormat="1">
+    <row r="108" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="16"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -4964,7 +5104,7 @@
       <c r="J108" s="20"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" s="6" customFormat="1">
+    <row r="109" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="16"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -4977,7 +5117,7 @@
       <c r="J109" s="20"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" s="6" customFormat="1">
+    <row r="110" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="16"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -4990,7 +5130,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" s="6" customFormat="1">
+    <row r="111" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="16"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -5003,7 +5143,7 @@
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" s="6" customFormat="1">
+    <row r="112" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="16"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -5016,7 +5156,7 @@
       <c r="J112" s="20"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" s="6" customFormat="1">
+    <row r="113" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="16"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -5029,7 +5169,7 @@
       <c r="J113" s="20"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" s="6" customFormat="1">
+    <row r="114" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="16"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -5042,7 +5182,7 @@
       <c r="J114" s="20"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" s="6" customFormat="1">
+    <row r="115" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="16"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -5055,7 +5195,7 @@
       <c r="J115" s="20"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" s="6" customFormat="1">
+    <row r="116" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="16"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -5068,7 +5208,7 @@
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" s="6" customFormat="1">
+    <row r="117" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="16"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -5081,7 +5221,7 @@
       <c r="J117" s="20"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" s="6" customFormat="1">
+    <row r="118" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="16"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -5094,7 +5234,7 @@
       <c r="J118" s="20"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" s="6" customFormat="1">
+    <row r="119" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="16"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -5107,7 +5247,7 @@
       <c r="J119" s="20"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" s="6" customFormat="1">
+    <row r="120" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="16"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -5120,7 +5260,7 @@
       <c r="J120" s="20"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" s="6" customFormat="1">
+    <row r="121" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="16"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -5133,7 +5273,7 @@
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" s="6" customFormat="1">
+    <row r="122" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="16"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
@@ -5146,7 +5286,7 @@
       <c r="J122" s="20"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" s="6" customFormat="1">
+    <row r="123" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="16"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -5159,7 +5299,7 @@
       <c r="J123" s="20"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" s="6" customFormat="1">
+    <row r="124" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="16"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
@@ -5172,7 +5312,7 @@
       <c r="J124" s="20"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" s="6" customFormat="1">
+    <row r="125" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="16"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -5185,7 +5325,7 @@
       <c r="J125" s="20"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" s="6" customFormat="1">
+    <row r="126" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="16"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
@@ -5198,7 +5338,7 @@
       <c r="J126" s="20"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" s="6" customFormat="1">
+    <row r="127" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="16"/>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
@@ -5211,7 +5351,7 @@
       <c r="J127" s="20"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" s="6" customFormat="1">
+    <row r="128" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="16"/>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -5224,7 +5364,7 @@
       <c r="J128" s="20"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" s="6" customFormat="1">
+    <row r="129" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="16"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -5237,7 +5377,7 @@
       <c r="J129" s="20"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" s="6" customFormat="1">
+    <row r="130" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="16"/>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
@@ -5250,7 +5390,7 @@
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" s="6" customFormat="1">
+    <row r="131" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="16"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
@@ -5263,7 +5403,7 @@
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" s="6" customFormat="1">
+    <row r="132" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="16"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
@@ -5276,7 +5416,7 @@
       <c r="J132" s="20"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" s="6" customFormat="1">
+    <row r="133" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
@@ -5289,7 +5429,7 @@
       <c r="J133" s="20"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" s="6" customFormat="1">
+    <row r="134" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="16"/>
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
@@ -5302,7 +5442,7 @@
       <c r="J134" s="20"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" s="6" customFormat="1">
+    <row r="135" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="16"/>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
@@ -5315,7 +5455,7 @@
       <c r="J135" s="20"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" s="6" customFormat="1">
+    <row r="136" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="16"/>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
@@ -5328,7 +5468,7 @@
       <c r="J136" s="20"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" s="6" customFormat="1">
+    <row r="137" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="16"/>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
@@ -5341,7 +5481,7 @@
       <c r="J137" s="20"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" s="6" customFormat="1">
+    <row r="138" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="16"/>
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
@@ -5354,7 +5494,7 @@
       <c r="J138" s="20"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" s="6" customFormat="1">
+    <row r="139" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="16"/>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
@@ -5367,7 +5507,7 @@
       <c r="J139" s="20"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" s="6" customFormat="1">
+    <row r="140" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="16"/>
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
@@ -5380,7 +5520,7 @@
       <c r="J140" s="20"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" s="6" customFormat="1">
+    <row r="141" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="16"/>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -5393,7 +5533,7 @@
       <c r="J141" s="20"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" s="6" customFormat="1">
+    <row r="142" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="16"/>
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
@@ -5406,7 +5546,7 @@
       <c r="J142" s="20"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" s="6" customFormat="1">
+    <row r="143" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="16"/>
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
@@ -5419,7 +5559,7 @@
       <c r="J143" s="20"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" s="6" customFormat="1">
+    <row r="144" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="16"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
@@ -5432,7 +5572,7 @@
       <c r="J144" s="20"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" s="6" customFormat="1">
+    <row r="145" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="16"/>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
@@ -5445,7 +5585,7 @@
       <c r="J145" s="20"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" s="6" customFormat="1">
+    <row r="146" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="16"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
@@ -5458,7 +5598,7 @@
       <c r="J146" s="20"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" s="6" customFormat="1">
+    <row r="147" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="16"/>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
@@ -5471,7 +5611,7 @@
       <c r="J147" s="20"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" s="6" customFormat="1">
+    <row r="148" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="16"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
@@ -5484,7 +5624,7 @@
       <c r="J148" s="20"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" s="6" customFormat="1">
+    <row r="149" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="16"/>
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
@@ -5497,7 +5637,7 @@
       <c r="J149" s="20"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" s="6" customFormat="1">
+    <row r="150" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="16"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
@@ -5510,7 +5650,7 @@
       <c r="J150" s="20"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" s="6" customFormat="1">
+    <row r="151" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="16"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
@@ -5523,7 +5663,7 @@
       <c r="J151" s="20"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" s="6" customFormat="1">
+    <row r="152" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="16"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -5536,7 +5676,7 @@
       <c r="J152" s="20"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" s="6" customFormat="1">
+    <row r="153" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="16"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -5549,7 +5689,7 @@
       <c r="J153" s="20"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" s="6" customFormat="1">
+    <row r="154" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="16"/>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
@@ -5562,7 +5702,7 @@
       <c r="J154" s="20"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" s="6" customFormat="1">
+    <row r="155" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="16"/>
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
@@ -5575,7 +5715,7 @@
       <c r="J155" s="20"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" s="6" customFormat="1">
+    <row r="156" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="16"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
@@ -5588,7 +5728,7 @@
       <c r="J156" s="20"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" s="6" customFormat="1">
+    <row r="157" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="16"/>
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
@@ -5601,7 +5741,7 @@
       <c r="J157" s="20"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" s="6" customFormat="1">
+    <row r="158" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="16"/>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
@@ -5614,7 +5754,7 @@
       <c r="J158" s="20"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" s="6" customFormat="1">
+    <row r="159" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="16"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
@@ -5627,7 +5767,7 @@
       <c r="J159" s="20"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" s="6" customFormat="1">
+    <row r="160" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="16"/>
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
@@ -5640,7 +5780,7 @@
       <c r="J160" s="20"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" s="6" customFormat="1">
+    <row r="161" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="16"/>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
@@ -5653,7 +5793,7 @@
       <c r="J161" s="20"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" s="6" customFormat="1">
+    <row r="162" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="16"/>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
@@ -5666,7 +5806,7 @@
       <c r="J162" s="20"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" s="6" customFormat="1">
+    <row r="163" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="16"/>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
@@ -5679,7 +5819,7 @@
       <c r="J163" s="20"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" s="6" customFormat="1">
+    <row r="164" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="16"/>
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
@@ -5692,7 +5832,7 @@
       <c r="J164" s="20"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" s="6" customFormat="1">
+    <row r="165" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="16"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
@@ -5705,7 +5845,7 @@
       <c r="J165" s="20"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" s="6" customFormat="1">
+    <row r="166" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="16"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
@@ -5718,7 +5858,7 @@
       <c r="J166" s="20"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" s="6" customFormat="1">
+    <row r="167" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="16"/>
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
@@ -5731,7 +5871,7 @@
       <c r="J167" s="20"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" s="6" customFormat="1">
+    <row r="168" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="16"/>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
@@ -5744,7 +5884,7 @@
       <c r="J168" s="20"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" s="6" customFormat="1">
+    <row r="169" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="16"/>
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
@@ -5757,7 +5897,7 @@
       <c r="J169" s="20"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" s="6" customFormat="1">
+    <row r="170" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="16"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -5770,7 +5910,7 @@
       <c r="J170" s="20"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" s="6" customFormat="1">
+    <row r="171" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="16"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
@@ -5783,7 +5923,7 @@
       <c r="J171" s="20"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" s="6" customFormat="1">
+    <row r="172" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="16"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
@@ -5796,7 +5936,7 @@
       <c r="J172" s="20"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" s="6" customFormat="1">
+    <row r="173" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="16"/>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
@@ -5809,7 +5949,7 @@
       <c r="J173" s="20"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" s="6" customFormat="1">
+    <row r="174" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="16"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -5822,7 +5962,7 @@
       <c r="J174" s="20"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" s="6" customFormat="1">
+    <row r="175" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="16"/>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
@@ -5835,7 +5975,7 @@
       <c r="J175" s="20"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" s="6" customFormat="1">
+    <row r="176" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="16"/>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
@@ -5848,7 +5988,7 @@
       <c r="J176" s="20"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" s="6" customFormat="1">
+    <row r="177" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="16"/>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
@@ -5861,7 +6001,7 @@
       <c r="J177" s="20"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" s="6" customFormat="1">
+    <row r="178" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="16"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -5874,7 +6014,7 @@
       <c r="J178" s="20"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" s="6" customFormat="1">
+    <row r="179" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="16"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
@@ -5887,7 +6027,7 @@
       <c r="J179" s="20"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" s="6" customFormat="1">
+    <row r="180" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="16"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
@@ -5900,7 +6040,7 @@
       <c r="J180" s="20"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" s="6" customFormat="1">
+    <row r="181" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="16"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
@@ -5913,7 +6053,7 @@
       <c r="J181" s="20"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" s="6" customFormat="1">
+    <row r="182" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="16"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -5926,7 +6066,7 @@
       <c r="J182" s="20"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" s="6" customFormat="1">
+    <row r="183" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="16"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -5939,7 +6079,7 @@
       <c r="J183" s="20"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" s="6" customFormat="1">
+    <row r="184" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="16"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -5952,7 +6092,7 @@
       <c r="J184" s="20"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" s="6" customFormat="1">
+    <row r="185" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="16"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -5965,7 +6105,7 @@
       <c r="J185" s="20"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" s="6" customFormat="1">
+    <row r="186" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="16"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
@@ -5978,7 +6118,7 @@
       <c r="J186" s="20"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" s="6" customFormat="1">
+    <row r="187" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="16"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -5991,7 +6131,7 @@
       <c r="J187" s="20"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" s="6" customFormat="1">
+    <row r="188" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="16"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -6004,7 +6144,7 @@
       <c r="J188" s="20"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" s="6" customFormat="1">
+    <row r="189" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="16"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -6017,7 +6157,7 @@
       <c r="J189" s="20"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" s="6" customFormat="1">
+    <row r="190" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="16"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -6030,7 +6170,7 @@
       <c r="J190" s="20"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" s="6" customFormat="1">
+    <row r="191" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="16"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
@@ -6043,7 +6183,7 @@
       <c r="J191" s="20"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" s="6" customFormat="1">
+    <row r="192" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="16"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
@@ -6056,7 +6196,7 @@
       <c r="J192" s="20"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" s="6" customFormat="1">
+    <row r="193" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="16"/>
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
@@ -6069,7 +6209,7 @@
       <c r="J193" s="20"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" s="6" customFormat="1">
+    <row r="194" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="16"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -6082,7 +6222,7 @@
       <c r="J194" s="20"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" s="6" customFormat="1">
+    <row r="195" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="16"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -6095,7 +6235,7 @@
       <c r="J195" s="20"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" s="6" customFormat="1">
+    <row r="196" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="16"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -6108,7 +6248,7 @@
       <c r="J196" s="20"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" s="6" customFormat="1">
+    <row r="197" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="16"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -6121,7 +6261,7 @@
       <c r="J197" s="20"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" s="6" customFormat="1">
+    <row r="198" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="16"/>
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
@@ -6134,7 +6274,7 @@
       <c r="J198" s="20"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" s="6" customFormat="1">
+    <row r="199" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="16"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -6147,7 +6287,7 @@
       <c r="J199" s="20"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" s="6" customFormat="1">
+    <row r="200" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="16"/>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
@@ -6160,7 +6300,7 @@
       <c r="J200" s="20"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" s="6" customFormat="1">
+    <row r="201" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="16"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -6173,7 +6313,7 @@
       <c r="J201" s="20"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" s="6" customFormat="1">
+    <row r="202" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="16"/>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
@@ -6186,7 +6326,7 @@
       <c r="J202" s="20"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" s="6" customFormat="1">
+    <row r="203" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="16"/>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
@@ -6199,7 +6339,7 @@
       <c r="J203" s="20"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" s="6" customFormat="1">
+    <row r="204" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="16"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -6212,7 +6352,7 @@
       <c r="J204" s="20"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" s="6" customFormat="1">
+    <row r="205" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="16"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -6225,7 +6365,7 @@
       <c r="J205" s="20"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" s="6" customFormat="1">
+    <row r="206" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="16"/>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
@@ -6238,7 +6378,7 @@
       <c r="J206" s="20"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" s="6" customFormat="1">
+    <row r="207" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="16"/>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
@@ -6251,7 +6391,7 @@
       <c r="J207" s="20"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" s="6" customFormat="1">
+    <row r="208" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="16"/>
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
@@ -6264,7 +6404,7 @@
       <c r="J208" s="20"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" s="6" customFormat="1">
+    <row r="209" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="16"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -6277,7 +6417,7 @@
       <c r="J209" s="20"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" s="6" customFormat="1">
+    <row r="210" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="16"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
@@ -6290,7 +6430,7 @@
       <c r="J210" s="20"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" s="6" customFormat="1">
+    <row r="211" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="16"/>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
@@ -6303,7 +6443,7 @@
       <c r="J211" s="20"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" s="6" customFormat="1">
+    <row r="212" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="16"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
@@ -6316,7 +6456,7 @@
       <c r="J212" s="20"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" s="6" customFormat="1">
+    <row r="213" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="16"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -6329,7 +6469,7 @@
       <c r="J213" s="20"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" s="6" customFormat="1">
+    <row r="214" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="16"/>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
@@ -6342,7 +6482,7 @@
       <c r="J214" s="20"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" s="6" customFormat="1">
+    <row r="215" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="16"/>
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
@@ -6355,7 +6495,7 @@
       <c r="J215" s="20"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" s="6" customFormat="1">
+    <row r="216" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="16"/>
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
@@ -6368,7 +6508,7 @@
       <c r="J216" s="20"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" s="6" customFormat="1">
+    <row r="217" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="16"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -6381,7 +6521,7 @@
       <c r="J217" s="20"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" s="6" customFormat="1">
+    <row r="218" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="16"/>
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
@@ -6394,7 +6534,7 @@
       <c r="J218" s="20"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" s="6" customFormat="1">
+    <row r="219" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="16"/>
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
@@ -6407,7 +6547,7 @@
       <c r="J219" s="20"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" s="6" customFormat="1">
+    <row r="220" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="16"/>
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
@@ -6420,7 +6560,7 @@
       <c r="J220" s="20"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" s="6" customFormat="1">
+    <row r="221" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="16"/>
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
@@ -6433,7 +6573,7 @@
       <c r="J221" s="20"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" s="6" customFormat="1">
+    <row r="222" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="16"/>
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
@@ -6446,7 +6586,7 @@
       <c r="J222" s="20"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" s="6" customFormat="1">
+    <row r="223" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="16"/>
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
@@ -6459,7 +6599,7 @@
       <c r="J223" s="20"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" s="6" customFormat="1">
+    <row r="224" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="16"/>
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
@@ -6472,7 +6612,7 @@
       <c r="J224" s="20"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" s="6" customFormat="1">
+    <row r="225" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="16"/>
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
@@ -6485,7 +6625,7 @@
       <c r="J225" s="20"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" s="6" customFormat="1">
+    <row r="226" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="16"/>
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
@@ -6498,7 +6638,7 @@
       <c r="J226" s="20"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" s="6" customFormat="1">
+    <row r="227" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
@@ -6506,7 +6646,7 @@
       <c r="J227" s="10"/>
       <c r="K227" s="10"/>
     </row>
-    <row r="228" spans="1:11" s="6" customFormat="1">
+    <row r="228" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
@@ -6514,7 +6654,7 @@
       <c r="J228" s="10"/>
       <c r="K228" s="10"/>
     </row>
-    <row r="229" spans="1:11" s="6" customFormat="1">
+    <row r="229" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
@@ -6522,7 +6662,7 @@
       <c r="J229" s="10"/>
       <c r="K229" s="10"/>
     </row>
-    <row r="230" spans="1:11" s="6" customFormat="1">
+    <row r="230" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
@@ -6530,7 +6670,7 @@
       <c r="J230" s="10"/>
       <c r="K230" s="10"/>
     </row>
-    <row r="231" spans="1:11" s="6" customFormat="1">
+    <row r="231" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
@@ -6538,7 +6678,7 @@
       <c r="J231" s="10"/>
       <c r="K231" s="10"/>
     </row>
-    <row r="232" spans="1:11" s="6" customFormat="1">
+    <row r="232" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
@@ -6546,7 +6686,7 @@
       <c r="J232" s="10"/>
       <c r="K232" s="10"/>
     </row>
-    <row r="233" spans="1:11" s="6" customFormat="1">
+    <row r="233" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
@@ -6554,7 +6694,7 @@
       <c r="J233" s="10"/>
       <c r="K233" s="10"/>
     </row>
-    <row r="234" spans="1:11" s="6" customFormat="1">
+    <row r="234" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
@@ -6562,7 +6702,7 @@
       <c r="J234" s="10"/>
       <c r="K234" s="10"/>
     </row>
-    <row r="235" spans="1:11" s="6" customFormat="1">
+    <row r="235" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
@@ -6570,7 +6710,7 @@
       <c r="J235" s="10"/>
       <c r="K235" s="10"/>
     </row>
-    <row r="236" spans="1:11" s="6" customFormat="1">
+    <row r="236" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
@@ -6578,7 +6718,7 @@
       <c r="J236" s="10"/>
       <c r="K236" s="10"/>
     </row>
-    <row r="237" spans="1:11" s="6" customFormat="1">
+    <row r="237" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
@@ -6586,7 +6726,7 @@
       <c r="J237" s="10"/>
       <c r="K237" s="10"/>
     </row>
-    <row r="238" spans="1:11" s="6" customFormat="1">
+    <row r="238" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
@@ -6594,7 +6734,7 @@
       <c r="J238" s="10"/>
       <c r="K238" s="10"/>
     </row>
-    <row r="239" spans="1:11" s="6" customFormat="1">
+    <row r="239" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
@@ -6602,7 +6742,7 @@
       <c r="J239" s="10"/>
       <c r="K239" s="10"/>
     </row>
-    <row r="240" spans="1:11" s="6" customFormat="1">
+    <row r="240" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
@@ -6610,7 +6750,7 @@
       <c r="J240" s="10"/>
       <c r="K240" s="10"/>
     </row>
-    <row r="241" spans="1:11" s="6" customFormat="1">
+    <row r="241" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
@@ -6618,7 +6758,7 @@
       <c r="J241" s="10"/>
       <c r="K241" s="10"/>
     </row>
-    <row r="242" spans="1:11" s="6" customFormat="1">
+    <row r="242" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
@@ -6626,7 +6766,7 @@
       <c r="J242" s="10"/>
       <c r="K242" s="10"/>
     </row>
-    <row r="243" spans="1:11" s="6" customFormat="1">
+    <row r="243" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
@@ -6634,7 +6774,7 @@
       <c r="J243" s="10"/>
       <c r="K243" s="10"/>
     </row>
-    <row r="244" spans="1:11" s="6" customFormat="1">
+    <row r="244" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
@@ -6642,7 +6782,7 @@
       <c r="J244" s="10"/>
       <c r="K244" s="10"/>
     </row>
-    <row r="245" spans="1:11" s="6" customFormat="1">
+    <row r="245" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
@@ -6650,7 +6790,7 @@
       <c r="J245" s="10"/>
       <c r="K245" s="10"/>
     </row>
-    <row r="246" spans="1:11" s="6" customFormat="1">
+    <row r="246" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
@@ -6658,7 +6798,7 @@
       <c r="J246" s="10"/>
       <c r="K246" s="10"/>
     </row>
-    <row r="247" spans="1:11" s="6" customFormat="1">
+    <row r="247" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
@@ -6666,7 +6806,7 @@
       <c r="J247" s="10"/>
       <c r="K247" s="10"/>
     </row>
-    <row r="248" spans="1:11" s="6" customFormat="1">
+    <row r="248" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
@@ -6674,7 +6814,7 @@
       <c r="J248" s="10"/>
       <c r="K248" s="10"/>
     </row>
-    <row r="249" spans="1:11" s="6" customFormat="1">
+    <row r="249" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
@@ -6682,7 +6822,7 @@
       <c r="J249" s="10"/>
       <c r="K249" s="10"/>
     </row>
-    <row r="250" spans="1:11" s="6" customFormat="1">
+    <row r="250" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
@@ -6690,7 +6830,7 @@
       <c r="J250" s="10"/>
       <c r="K250" s="10"/>
     </row>
-    <row r="251" spans="1:11" s="6" customFormat="1">
+    <row r="251" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
@@ -6698,7 +6838,7 @@
       <c r="J251" s="10"/>
       <c r="K251" s="10"/>
     </row>
-    <row r="252" spans="1:11" s="6" customFormat="1">
+    <row r="252" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
@@ -6706,7 +6846,7 @@
       <c r="J252" s="10"/>
       <c r="K252" s="10"/>
     </row>
-    <row r="253" spans="1:11" s="6" customFormat="1">
+    <row r="253" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
@@ -6714,7 +6854,7 @@
       <c r="J253" s="10"/>
       <c r="K253" s="10"/>
     </row>
-    <row r="254" spans="1:11" s="6" customFormat="1">
+    <row r="254" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
@@ -6722,7 +6862,7 @@
       <c r="J254" s="10"/>
       <c r="K254" s="10"/>
     </row>
-    <row r="255" spans="1:11" s="6" customFormat="1">
+    <row r="255" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
@@ -6730,7 +6870,7 @@
       <c r="J255" s="10"/>
       <c r="K255" s="10"/>
     </row>
-    <row r="256" spans="1:11" s="6" customFormat="1">
+    <row r="256" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
@@ -6738,7 +6878,7 @@
       <c r="J256" s="10"/>
       <c r="K256" s="10"/>
     </row>
-    <row r="257" spans="1:11" s="6" customFormat="1">
+    <row r="257" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
@@ -6746,7 +6886,7 @@
       <c r="J257" s="10"/>
       <c r="K257" s="10"/>
     </row>
-    <row r="258" spans="1:11" s="6" customFormat="1">
+    <row r="258" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
@@ -6754,7 +6894,7 @@
       <c r="J258" s="10"/>
       <c r="K258" s="10"/>
     </row>
-    <row r="259" spans="1:11" s="6" customFormat="1">
+    <row r="259" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
@@ -6762,7 +6902,7 @@
       <c r="J259" s="10"/>
       <c r="K259" s="10"/>
     </row>
-    <row r="260" spans="1:11" s="6" customFormat="1">
+    <row r="260" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
@@ -6770,7 +6910,7 @@
       <c r="J260" s="10"/>
       <c r="K260" s="10"/>
     </row>
-    <row r="261" spans="1:11" s="6" customFormat="1">
+    <row r="261" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
@@ -6778,7 +6918,7 @@
       <c r="J261" s="10"/>
       <c r="K261" s="10"/>
     </row>
-    <row r="262" spans="1:11" s="6" customFormat="1">
+    <row r="262" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
@@ -6786,7 +6926,7 @@
       <c r="J262" s="10"/>
       <c r="K262" s="10"/>
     </row>
-    <row r="263" spans="1:11" s="6" customFormat="1">
+    <row r="263" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
@@ -6794,7 +6934,7 @@
       <c r="J263" s="10"/>
       <c r="K263" s="10"/>
     </row>
-    <row r="264" spans="1:11" s="6" customFormat="1">
+    <row r="264" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
@@ -6802,7 +6942,7 @@
       <c r="J264" s="10"/>
       <c r="K264" s="10"/>
     </row>
-    <row r="265" spans="1:11" s="6" customFormat="1">
+    <row r="265" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
@@ -6810,7 +6950,7 @@
       <c r="J265" s="10"/>
       <c r="K265" s="10"/>
     </row>
-    <row r="266" spans="1:11" s="6" customFormat="1">
+    <row r="266" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
@@ -6818,7 +6958,7 @@
       <c r="J266" s="10"/>
       <c r="K266" s="10"/>
     </row>
-    <row r="267" spans="1:11" s="6" customFormat="1">
+    <row r="267" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
@@ -6826,7 +6966,7 @@
       <c r="J267" s="10"/>
       <c r="K267" s="10"/>
     </row>
-    <row r="268" spans="1:11" s="6" customFormat="1">
+    <row r="268" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
@@ -6834,7 +6974,7 @@
       <c r="J268" s="10"/>
       <c r="K268" s="10"/>
     </row>
-    <row r="269" spans="1:11" s="6" customFormat="1">
+    <row r="269" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
@@ -6842,7 +6982,7 @@
       <c r="J269" s="10"/>
       <c r="K269" s="10"/>
     </row>
-    <row r="270" spans="1:11" s="6" customFormat="1">
+    <row r="270" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
@@ -6850,7 +6990,7 @@
       <c r="J270" s="10"/>
       <c r="K270" s="10"/>
     </row>
-    <row r="271" spans="1:11" s="6" customFormat="1">
+    <row r="271" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
@@ -6858,7 +6998,7 @@
       <c r="J271" s="10"/>
       <c r="K271" s="10"/>
     </row>
-    <row r="272" spans="1:11" s="6" customFormat="1">
+    <row r="272" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
@@ -6866,7 +7006,7 @@
       <c r="J272" s="10"/>
       <c r="K272" s="10"/>
     </row>
-    <row r="273" spans="1:11" s="6" customFormat="1">
+    <row r="273" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
@@ -6874,7 +7014,7 @@
       <c r="J273" s="10"/>
       <c r="K273" s="10"/>
     </row>
-    <row r="274" spans="1:11" s="6" customFormat="1">
+    <row r="274" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
@@ -6882,7 +7022,7 @@
       <c r="J274" s="10"/>
       <c r="K274" s="10"/>
     </row>
-    <row r="275" spans="1:11" s="6" customFormat="1">
+    <row r="275" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
@@ -6890,7 +7030,7 @@
       <c r="J275" s="10"/>
       <c r="K275" s="10"/>
     </row>
-    <row r="276" spans="1:11" s="6" customFormat="1">
+    <row r="276" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
@@ -6898,7 +7038,7 @@
       <c r="J276" s="10"/>
       <c r="K276" s="10"/>
     </row>
-    <row r="277" spans="1:11" s="6" customFormat="1">
+    <row r="277" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
@@ -6906,7 +7046,7 @@
       <c r="J277" s="10"/>
       <c r="K277" s="10"/>
     </row>
-    <row r="278" spans="1:11" s="6" customFormat="1">
+    <row r="278" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
@@ -6914,7 +7054,7 @@
       <c r="J278" s="10"/>
       <c r="K278" s="10"/>
     </row>
-    <row r="279" spans="1:11" s="6" customFormat="1">
+    <row r="279" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
@@ -6922,7 +7062,7 @@
       <c r="J279" s="10"/>
       <c r="K279" s="10"/>
     </row>
-    <row r="280" spans="1:11" s="6" customFormat="1">
+    <row r="280" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
@@ -6930,7 +7070,7 @@
       <c r="J280" s="10"/>
       <c r="K280" s="10"/>
     </row>
-    <row r="281" spans="1:11" s="6" customFormat="1">
+    <row r="281" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="7"/>
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
@@ -6938,7 +7078,7 @@
       <c r="J281" s="10"/>
       <c r="K281" s="10"/>
     </row>
-    <row r="282" spans="1:11" s="6" customFormat="1">
+    <row r="282" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7"/>
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
@@ -6946,7 +7086,7 @@
       <c r="J282" s="10"/>
       <c r="K282" s="10"/>
     </row>
-    <row r="283" spans="1:11" s="6" customFormat="1">
+    <row r="283" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="7"/>
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
@@ -6954,7 +7094,7 @@
       <c r="J283" s="10"/>
       <c r="K283" s="10"/>
     </row>
-    <row r="284" spans="1:11" s="6" customFormat="1">
+    <row r="284" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="7"/>
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
@@ -6962,7 +7102,7 @@
       <c r="J284" s="10"/>
       <c r="K284" s="10"/>
     </row>
-    <row r="285" spans="1:11" s="6" customFormat="1">
+    <row r="285" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="7"/>
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
@@ -6970,7 +7110,7 @@
       <c r="J285" s="10"/>
       <c r="K285" s="10"/>
     </row>
-    <row r="286" spans="1:11" s="6" customFormat="1">
+    <row r="286" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="7"/>
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
@@ -6978,7 +7118,7 @@
       <c r="J286" s="10"/>
       <c r="K286" s="10"/>
     </row>
-    <row r="287" spans="1:11" s="6" customFormat="1">
+    <row r="287" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="7"/>
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
@@ -6986,7 +7126,7 @@
       <c r="J287" s="10"/>
       <c r="K287" s="10"/>
     </row>
-    <row r="288" spans="1:11" s="6" customFormat="1">
+    <row r="288" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="7"/>
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
@@ -6994,7 +7134,7 @@
       <c r="J288" s="10"/>
       <c r="K288" s="10"/>
     </row>
-    <row r="289" spans="1:11" s="6" customFormat="1">
+    <row r="289" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="7"/>
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
@@ -7002,7 +7142,7 @@
       <c r="J289" s="10"/>
       <c r="K289" s="10"/>
     </row>
-    <row r="290" spans="1:11" s="6" customFormat="1">
+    <row r="290" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="7"/>
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
@@ -7010,7 +7150,7 @@
       <c r="J290" s="10"/>
       <c r="K290" s="10"/>
     </row>
-    <row r="291" spans="1:11" s="6" customFormat="1">
+    <row r="291" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="7"/>
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
@@ -7018,7 +7158,7 @@
       <c r="J291" s="10"/>
       <c r="K291" s="10"/>
     </row>
-    <row r="292" spans="1:11" s="6" customFormat="1">
+    <row r="292" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="7"/>
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
@@ -7026,7 +7166,7 @@
       <c r="J292" s="10"/>
       <c r="K292" s="10"/>
     </row>
-    <row r="293" spans="1:11" s="6" customFormat="1">
+    <row r="293" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="7"/>
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
@@ -7034,7 +7174,7 @@
       <c r="J293" s="10"/>
       <c r="K293" s="10"/>
     </row>
-    <row r="294" spans="1:11" s="6" customFormat="1">
+    <row r="294" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="7"/>
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
@@ -7042,7 +7182,7 @@
       <c r="J294" s="10"/>
       <c r="K294" s="10"/>
     </row>
-    <row r="295" spans="1:11" s="6" customFormat="1">
+    <row r="295" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="7"/>
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
@@ -7050,7 +7190,7 @@
       <c r="J295" s="10"/>
       <c r="K295" s="10"/>
     </row>
-    <row r="296" spans="1:11" s="6" customFormat="1">
+    <row r="296" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
@@ -7058,7 +7198,7 @@
       <c r="J296" s="10"/>
       <c r="K296" s="10"/>
     </row>
-    <row r="297" spans="1:11" s="6" customFormat="1">
+    <row r="297" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="7"/>
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
@@ -7066,7 +7206,7 @@
       <c r="J297" s="10"/>
       <c r="K297" s="10"/>
     </row>
-    <row r="298" spans="1:11" s="6" customFormat="1">
+    <row r="298" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="7"/>
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
@@ -7074,7 +7214,7 @@
       <c r="J298" s="10"/>
       <c r="K298" s="10"/>
     </row>
-    <row r="299" spans="1:11" s="6" customFormat="1">
+    <row r="299" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="7"/>
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
@@ -7082,7 +7222,7 @@
       <c r="J299" s="10"/>
       <c r="K299" s="10"/>
     </row>
-    <row r="300" spans="1:11" s="6" customFormat="1">
+    <row r="300" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="7"/>
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
@@ -7090,7 +7230,7 @@
       <c r="J300" s="10"/>
       <c r="K300" s="10"/>
     </row>
-    <row r="301" spans="1:11" s="6" customFormat="1">
+    <row r="301" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="7"/>
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
@@ -7098,7 +7238,7 @@
       <c r="J301" s="10"/>
       <c r="K301" s="10"/>
     </row>
-    <row r="302" spans="1:11" s="6" customFormat="1">
+    <row r="302" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7"/>
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
@@ -7106,7 +7246,7 @@
       <c r="J302" s="10"/>
       <c r="K302" s="10"/>
     </row>
-    <row r="303" spans="1:11" s="6" customFormat="1">
+    <row r="303" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7"/>
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
@@ -7114,7 +7254,7 @@
       <c r="J303" s="10"/>
       <c r="K303" s="10"/>
     </row>
-    <row r="304" spans="1:11" s="6" customFormat="1">
+    <row r="304" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7"/>
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
@@ -7122,7 +7262,7 @@
       <c r="J304" s="10"/>
       <c r="K304" s="10"/>
     </row>
-    <row r="305" spans="1:11" s="6" customFormat="1">
+    <row r="305" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7"/>
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
@@ -7130,7 +7270,7 @@
       <c r="J305" s="10"/>
       <c r="K305" s="10"/>
     </row>
-    <row r="306" spans="1:11" s="6" customFormat="1">
+    <row r="306" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7"/>
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
@@ -7138,7 +7278,7 @@
       <c r="J306" s="10"/>
       <c r="K306" s="10"/>
     </row>
-    <row r="307" spans="1:11" s="6" customFormat="1">
+    <row r="307" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="7"/>
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
@@ -7146,7 +7286,7 @@
       <c r="J307" s="10"/>
       <c r="K307" s="10"/>
     </row>
-    <row r="308" spans="1:11" s="6" customFormat="1">
+    <row r="308" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7"/>
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
@@ -7154,7 +7294,7 @@
       <c r="J308" s="10"/>
       <c r="K308" s="10"/>
     </row>
-    <row r="309" spans="1:11" s="6" customFormat="1">
+    <row r="309" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="7"/>
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
@@ -7162,7 +7302,7 @@
       <c r="J309" s="10"/>
       <c r="K309" s="10"/>
     </row>
-    <row r="310" spans="1:11" s="6" customFormat="1">
+    <row r="310" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="7"/>
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
@@ -7170,7 +7310,7 @@
       <c r="J310" s="10"/>
       <c r="K310" s="10"/>
     </row>
-    <row r="311" spans="1:11" s="6" customFormat="1">
+    <row r="311" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7"/>
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
@@ -7178,7 +7318,7 @@
       <c r="J311" s="10"/>
       <c r="K311" s="10"/>
     </row>
-    <row r="312" spans="1:11" s="6" customFormat="1">
+    <row r="312" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="7"/>
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
@@ -7186,7 +7326,7 @@
       <c r="J312" s="10"/>
       <c r="K312" s="10"/>
     </row>
-    <row r="313" spans="1:11" s="6" customFormat="1">
+    <row r="313" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="7"/>
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
@@ -7194,7 +7334,7 @@
       <c r="J313" s="10"/>
       <c r="K313" s="10"/>
     </row>
-    <row r="314" spans="1:11" s="6" customFormat="1">
+    <row r="314" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="7"/>
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
@@ -7202,7 +7342,7 @@
       <c r="J314" s="10"/>
       <c r="K314" s="10"/>
     </row>
-    <row r="315" spans="1:11" s="6" customFormat="1">
+    <row r="315" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="7"/>
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
@@ -7210,7 +7350,7 @@
       <c r="J315" s="10"/>
       <c r="K315" s="10"/>
     </row>
-    <row r="316" spans="1:11" s="6" customFormat="1">
+    <row r="316" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="7"/>
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
@@ -7218,7 +7358,7 @@
       <c r="J316" s="10"/>
       <c r="K316" s="10"/>
     </row>
-    <row r="317" spans="1:11" s="6" customFormat="1">
+    <row r="317" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="7"/>
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
@@ -7226,7 +7366,7 @@
       <c r="J317" s="10"/>
       <c r="K317" s="10"/>
     </row>
-    <row r="318" spans="1:11" s="6" customFormat="1">
+    <row r="318" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7"/>
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
@@ -7234,7 +7374,7 @@
       <c r="J318" s="10"/>
       <c r="K318" s="10"/>
     </row>
-    <row r="319" spans="1:11" s="6" customFormat="1">
+    <row r="319" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="7"/>
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
@@ -7242,7 +7382,7 @@
       <c r="J319" s="10"/>
       <c r="K319" s="10"/>
     </row>
-    <row r="320" spans="1:11" s="6" customFormat="1">
+    <row r="320" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7"/>
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
@@ -7250,7 +7390,7 @@
       <c r="J320" s="10"/>
       <c r="K320" s="10"/>
     </row>
-    <row r="321" spans="1:11" s="6" customFormat="1">
+    <row r="321" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="7"/>
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
@@ -7258,7 +7398,7 @@
       <c r="J321" s="10"/>
       <c r="K321" s="10"/>
     </row>
-    <row r="322" spans="1:11" s="6" customFormat="1">
+    <row r="322" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7"/>
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
@@ -7266,7 +7406,7 @@
       <c r="J322" s="10"/>
       <c r="K322" s="10"/>
     </row>
-    <row r="323" spans="1:11" s="6" customFormat="1">
+    <row r="323" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="7"/>
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
@@ -7274,7 +7414,7 @@
       <c r="J323" s="10"/>
       <c r="K323" s="10"/>
     </row>
-    <row r="324" spans="1:11" s="6" customFormat="1">
+    <row r="324" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="7"/>
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
@@ -7282,7 +7422,7 @@
       <c r="J324" s="10"/>
       <c r="K324" s="10"/>
     </row>
-    <row r="325" spans="1:11" s="6" customFormat="1">
+    <row r="325" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="7"/>
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
@@ -7290,7 +7430,7 @@
       <c r="J325" s="10"/>
       <c r="K325" s="10"/>
     </row>
-    <row r="326" spans="1:11" s="6" customFormat="1">
+    <row r="326" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="7"/>
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
@@ -7298,7 +7438,7 @@
       <c r="J326" s="10"/>
       <c r="K326" s="10"/>
     </row>
-    <row r="327" spans="1:11" s="6" customFormat="1">
+    <row r="327" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="7"/>
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
@@ -7306,7 +7446,7 @@
       <c r="J327" s="10"/>
       <c r="K327" s="10"/>
     </row>
-    <row r="328" spans="1:11" s="6" customFormat="1">
+    <row r="328" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="7"/>
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
@@ -7314,7 +7454,7 @@
       <c r="J328" s="10"/>
       <c r="K328" s="10"/>
     </row>
-    <row r="329" spans="1:11" s="6" customFormat="1">
+    <row r="329" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="7"/>
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
@@ -7322,7 +7462,7 @@
       <c r="J329" s="10"/>
       <c r="K329" s="10"/>
     </row>
-    <row r="330" spans="1:11" s="6" customFormat="1">
+    <row r="330" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="7"/>
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
@@ -7330,7 +7470,7 @@
       <c r="J330" s="10"/>
       <c r="K330" s="10"/>
     </row>
-    <row r="331" spans="1:11" s="6" customFormat="1">
+    <row r="331" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7"/>
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
@@ -7338,7 +7478,7 @@
       <c r="J331" s="10"/>
       <c r="K331" s="10"/>
     </row>
-    <row r="332" spans="1:11" s="6" customFormat="1">
+    <row r="332" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="7"/>
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
@@ -7346,7 +7486,7 @@
       <c r="J332" s="10"/>
       <c r="K332" s="10"/>
     </row>
-    <row r="333" spans="1:11" s="6" customFormat="1">
+    <row r="333" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7"/>
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
@@ -7354,7 +7494,7 @@
       <c r="J333" s="10"/>
       <c r="K333" s="10"/>
     </row>
-    <row r="334" spans="1:11" s="6" customFormat="1">
+    <row r="334" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="7"/>
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
@@ -7362,7 +7502,7 @@
       <c r="J334" s="10"/>
       <c r="K334" s="10"/>
     </row>
-    <row r="335" spans="1:11" s="6" customFormat="1">
+    <row r="335" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7"/>
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
@@ -7370,7 +7510,7 @@
       <c r="J335" s="10"/>
       <c r="K335" s="10"/>
     </row>
-    <row r="336" spans="1:11" s="6" customFormat="1">
+    <row r="336" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7"/>
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
@@ -7378,7 +7518,7 @@
       <c r="J336" s="10"/>
       <c r="K336" s="10"/>
     </row>
-    <row r="337" spans="1:11" s="6" customFormat="1">
+    <row r="337" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7"/>
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
@@ -7386,7 +7526,7 @@
       <c r="J337" s="10"/>
       <c r="K337" s="10"/>
     </row>
-    <row r="338" spans="1:11" s="6" customFormat="1">
+    <row r="338" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7"/>
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
@@ -7394,7 +7534,7 @@
       <c r="J338" s="10"/>
       <c r="K338" s="10"/>
     </row>
-    <row r="339" spans="1:11" s="6" customFormat="1">
+    <row r="339" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7"/>
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
@@ -7402,7 +7542,7 @@
       <c r="J339" s="10"/>
       <c r="K339" s="10"/>
     </row>
-    <row r="340" spans="1:11" s="6" customFormat="1">
+    <row r="340" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7"/>
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
@@ -7410,7 +7550,7 @@
       <c r="J340" s="10"/>
       <c r="K340" s="10"/>
     </row>
-    <row r="341" spans="1:11" s="6" customFormat="1">
+    <row r="341" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7"/>
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
@@ -7418,7 +7558,7 @@
       <c r="J341" s="10"/>
       <c r="K341" s="10"/>
     </row>
-    <row r="342" spans="1:11" s="6" customFormat="1">
+    <row r="342" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7"/>
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
@@ -7426,7 +7566,7 @@
       <c r="J342" s="10"/>
       <c r="K342" s="10"/>
     </row>
-    <row r="343" spans="1:11" s="6" customFormat="1">
+    <row r="343" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7"/>
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
@@ -7434,7 +7574,7 @@
       <c r="J343" s="10"/>
       <c r="K343" s="10"/>
     </row>
-    <row r="344" spans="1:11" s="6" customFormat="1">
+    <row r="344" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7"/>
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
@@ -7442,7 +7582,7 @@
       <c r="J344" s="10"/>
       <c r="K344" s="10"/>
     </row>
-    <row r="345" spans="1:11" s="6" customFormat="1">
+    <row r="345" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7"/>
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
@@ -7450,7 +7590,7 @@
       <c r="J345" s="10"/>
       <c r="K345" s="10"/>
     </row>
-    <row r="346" spans="1:11" s="6" customFormat="1">
+    <row r="346" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7"/>
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
@@ -7458,7 +7598,7 @@
       <c r="J346" s="10"/>
       <c r="K346" s="10"/>
     </row>
-    <row r="347" spans="1:11" s="6" customFormat="1">
+    <row r="347" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7"/>
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
@@ -7466,7 +7606,7 @@
       <c r="J347" s="10"/>
       <c r="K347" s="10"/>
     </row>
-    <row r="348" spans="1:11" s="6" customFormat="1">
+    <row r="348" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7"/>
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
@@ -7474,7 +7614,7 @@
       <c r="J348" s="10"/>
       <c r="K348" s="10"/>
     </row>
-    <row r="349" spans="1:11" s="6" customFormat="1">
+    <row r="349" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7"/>
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
@@ -7482,7 +7622,7 @@
       <c r="J349" s="10"/>
       <c r="K349" s="10"/>
     </row>
-    <row r="350" spans="1:11" s="6" customFormat="1">
+    <row r="350" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7"/>
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
@@ -7490,7 +7630,7 @@
       <c r="J350" s="10"/>
       <c r="K350" s="10"/>
     </row>
-    <row r="351" spans="1:11" s="6" customFormat="1">
+    <row r="351" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7"/>
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
@@ -7498,7 +7638,7 @@
       <c r="J351" s="10"/>
       <c r="K351" s="10"/>
     </row>
-    <row r="352" spans="1:11" s="6" customFormat="1">
+    <row r="352" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7"/>
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
@@ -7506,7 +7646,7 @@
       <c r="J352" s="10"/>
       <c r="K352" s="10"/>
     </row>
-    <row r="353" spans="1:11" s="6" customFormat="1">
+    <row r="353" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7"/>
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
@@ -7514,7 +7654,7 @@
       <c r="J353" s="10"/>
       <c r="K353" s="10"/>
     </row>
-    <row r="354" spans="1:11" s="6" customFormat="1">
+    <row r="354" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7"/>
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
@@ -7522,7 +7662,7 @@
       <c r="J354" s="10"/>
       <c r="K354" s="10"/>
     </row>
-    <row r="355" spans="1:11" s="6" customFormat="1">
+    <row r="355" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7"/>
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
@@ -7530,7 +7670,7 @@
       <c r="J355" s="10"/>
       <c r="K355" s="10"/>
     </row>
-    <row r="356" spans="1:11" s="6" customFormat="1">
+    <row r="356" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7"/>
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
@@ -7538,7 +7678,7 @@
       <c r="J356" s="10"/>
       <c r="K356" s="10"/>
     </row>
-    <row r="357" spans="1:11" s="6" customFormat="1">
+    <row r="357" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7"/>
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
@@ -7546,7 +7686,7 @@
       <c r="J357" s="10"/>
       <c r="K357" s="10"/>
     </row>
-    <row r="358" spans="1:11" s="6" customFormat="1">
+    <row r="358" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7"/>
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
@@ -7554,7 +7694,7 @@
       <c r="J358" s="10"/>
       <c r="K358" s="10"/>
     </row>
-    <row r="359" spans="1:11" s="6" customFormat="1">
+    <row r="359" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7"/>
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
@@ -7562,7 +7702,7 @@
       <c r="J359" s="10"/>
       <c r="K359" s="10"/>
     </row>
-    <row r="360" spans="1:11" s="6" customFormat="1">
+    <row r="360" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7"/>
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
@@ -7570,7 +7710,7 @@
       <c r="J360" s="10"/>
       <c r="K360" s="10"/>
     </row>
-    <row r="361" spans="1:11" s="6" customFormat="1">
+    <row r="361" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7"/>
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
@@ -7578,7 +7718,7 @@
       <c r="J361" s="10"/>
       <c r="K361" s="10"/>
     </row>
-    <row r="362" spans="1:11" s="6" customFormat="1">
+    <row r="362" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="7"/>
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
@@ -7586,7 +7726,7 @@
       <c r="J362" s="10"/>
       <c r="K362" s="10"/>
     </row>
-    <row r="363" spans="1:11" s="6" customFormat="1">
+    <row r="363" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="7"/>
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
@@ -7594,7 +7734,7 @@
       <c r="J363" s="10"/>
       <c r="K363" s="10"/>
     </row>
-    <row r="364" spans="1:11" s="6" customFormat="1">
+    <row r="364" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="7"/>
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
@@ -7602,7 +7742,7 @@
       <c r="J364" s="10"/>
       <c r="K364" s="10"/>
     </row>
-    <row r="365" spans="1:11" s="6" customFormat="1">
+    <row r="365" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7"/>
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
@@ -7610,7 +7750,7 @@
       <c r="J365" s="10"/>
       <c r="K365" s="10"/>
     </row>
-    <row r="366" spans="1:11" s="6" customFormat="1">
+    <row r="366" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="7"/>
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
@@ -7618,7 +7758,7 @@
       <c r="J366" s="10"/>
       <c r="K366" s="10"/>
     </row>
-    <row r="367" spans="1:11" s="6" customFormat="1">
+    <row r="367" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="7"/>
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
@@ -7626,7 +7766,7 @@
       <c r="J367" s="10"/>
       <c r="K367" s="10"/>
     </row>
-    <row r="368" spans="1:11" s="6" customFormat="1">
+    <row r="368" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="7"/>
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
@@ -7634,7 +7774,7 @@
       <c r="J368" s="10"/>
       <c r="K368" s="10"/>
     </row>
-    <row r="369" spans="1:11" s="6" customFormat="1">
+    <row r="369" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="7"/>
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
@@ -7642,7 +7782,7 @@
       <c r="J369" s="10"/>
       <c r="K369" s="10"/>
     </row>
-    <row r="370" spans="1:11" s="6" customFormat="1">
+    <row r="370" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="7"/>
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
@@ -7650,7 +7790,7 @@
       <c r="J370" s="10"/>
       <c r="K370" s="10"/>
     </row>
-    <row r="371" spans="1:11" s="6" customFormat="1">
+    <row r="371" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="7"/>
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
@@ -7658,7 +7798,7 @@
       <c r="J371" s="10"/>
       <c r="K371" s="10"/>
     </row>
-    <row r="372" spans="1:11" s="6" customFormat="1">
+    <row r="372" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="7"/>
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
@@ -7666,7 +7806,7 @@
       <c r="J372" s="10"/>
       <c r="K372" s="10"/>
     </row>
-    <row r="373" spans="1:11" s="6" customFormat="1">
+    <row r="373" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="7"/>
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
@@ -7674,7 +7814,7 @@
       <c r="J373" s="10"/>
       <c r="K373" s="10"/>
     </row>
-    <row r="374" spans="1:11" s="6" customFormat="1">
+    <row r="374" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="7"/>
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
@@ -7682,7 +7822,7 @@
       <c r="J374" s="10"/>
       <c r="K374" s="10"/>
     </row>
-    <row r="375" spans="1:11" s="6" customFormat="1">
+    <row r="375" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="7"/>
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
@@ -7690,7 +7830,7 @@
       <c r="J375" s="10"/>
       <c r="K375" s="10"/>
     </row>
-    <row r="376" spans="1:11" s="6" customFormat="1">
+    <row r="376" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="7"/>
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
@@ -7698,7 +7838,7 @@
       <c r="J376" s="10"/>
       <c r="K376" s="10"/>
     </row>
-    <row r="377" spans="1:11" s="6" customFormat="1">
+    <row r="377" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="7"/>
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
@@ -7706,7 +7846,7 @@
       <c r="J377" s="10"/>
       <c r="K377" s="10"/>
     </row>
-    <row r="378" spans="1:11" s="6" customFormat="1">
+    <row r="378" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="7"/>
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
@@ -7714,7 +7854,7 @@
       <c r="J378" s="10"/>
       <c r="K378" s="10"/>
     </row>
-    <row r="379" spans="1:11" s="6" customFormat="1">
+    <row r="379" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="7"/>
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
@@ -7722,7 +7862,7 @@
       <c r="J379" s="10"/>
       <c r="K379" s="10"/>
     </row>
-    <row r="380" spans="1:11" s="6" customFormat="1">
+    <row r="380" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="7"/>
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
@@ -7730,7 +7870,7 @@
       <c r="J380" s="10"/>
       <c r="K380" s="10"/>
     </row>
-    <row r="381" spans="1:11" s="6" customFormat="1">
+    <row r="381" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="7"/>
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
@@ -7738,7 +7878,7 @@
       <c r="J381" s="10"/>
       <c r="K381" s="10"/>
     </row>
-    <row r="382" spans="1:11" s="6" customFormat="1">
+    <row r="382" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="7"/>
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
@@ -7746,7 +7886,7 @@
       <c r="J382" s="10"/>
       <c r="K382" s="10"/>
     </row>
-    <row r="383" spans="1:11" s="6" customFormat="1">
+    <row r="383" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="7"/>
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
@@ -7754,7 +7894,7 @@
       <c r="J383" s="10"/>
       <c r="K383" s="10"/>
     </row>
-    <row r="384" spans="1:11" s="6" customFormat="1">
+    <row r="384" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="7"/>
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
@@ -7762,7 +7902,7 @@
       <c r="J384" s="10"/>
       <c r="K384" s="10"/>
     </row>
-    <row r="385" spans="1:11" s="6" customFormat="1">
+    <row r="385" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="7"/>
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
@@ -7770,7 +7910,7 @@
       <c r="J385" s="10"/>
       <c r="K385" s="10"/>
     </row>
-    <row r="386" spans="1:11" s="6" customFormat="1">
+    <row r="386" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="7"/>
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
@@ -7778,7 +7918,7 @@
       <c r="J386" s="10"/>
       <c r="K386" s="10"/>
     </row>
-    <row r="387" spans="1:11" s="6" customFormat="1">
+    <row r="387" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="7"/>
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
@@ -7786,7 +7926,7 @@
       <c r="J387" s="10"/>
       <c r="K387" s="10"/>
     </row>
-    <row r="388" spans="1:11" s="6" customFormat="1">
+    <row r="388" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="7"/>
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
@@ -7794,7 +7934,7 @@
       <c r="J388" s="10"/>
       <c r="K388" s="10"/>
     </row>
-    <row r="389" spans="1:11" s="6" customFormat="1">
+    <row r="389" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="7"/>
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
@@ -7802,7 +7942,7 @@
       <c r="J389" s="10"/>
       <c r="K389" s="10"/>
     </row>
-    <row r="390" spans="1:11" s="6" customFormat="1">
+    <row r="390" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="7"/>
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
@@ -7810,7 +7950,7 @@
       <c r="J390" s="10"/>
       <c r="K390" s="10"/>
     </row>
-    <row r="391" spans="1:11" s="6" customFormat="1">
+    <row r="391" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="7"/>
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
@@ -7818,7 +7958,7 @@
       <c r="J391" s="10"/>
       <c r="K391" s="10"/>
     </row>
-    <row r="392" spans="1:11" s="6" customFormat="1">
+    <row r="392" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="7"/>
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
@@ -7826,7 +7966,7 @@
       <c r="J392" s="10"/>
       <c r="K392" s="10"/>
     </row>
-    <row r="393" spans="1:11" s="6" customFormat="1">
+    <row r="393" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="7"/>
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
@@ -7834,7 +7974,7 @@
       <c r="J393" s="10"/>
       <c r="K393" s="10"/>
     </row>
-    <row r="394" spans="1:11" s="6" customFormat="1">
+    <row r="394" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="7"/>
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
@@ -7842,7 +7982,7 @@
       <c r="J394" s="10"/>
       <c r="K394" s="10"/>
     </row>
-    <row r="395" spans="1:11" s="6" customFormat="1">
+    <row r="395" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="7"/>
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
@@ -7850,7 +7990,7 @@
       <c r="J395" s="10"/>
       <c r="K395" s="10"/>
     </row>
-    <row r="396" spans="1:11" s="6" customFormat="1">
+    <row r="396" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="7"/>
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
@@ -7858,7 +7998,7 @@
       <c r="J396" s="10"/>
       <c r="K396" s="10"/>
     </row>
-    <row r="397" spans="1:11" s="6" customFormat="1">
+    <row r="397" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="7"/>
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
@@ -7866,7 +8006,7 @@
       <c r="J397" s="10"/>
       <c r="K397" s="10"/>
     </row>
-    <row r="398" spans="1:11" s="6" customFormat="1">
+    <row r="398" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="7"/>
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
@@ -7874,7 +8014,7 @@
       <c r="J398" s="10"/>
       <c r="K398" s="10"/>
     </row>
-    <row r="399" spans="1:11" s="6" customFormat="1">
+    <row r="399" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="7"/>
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
@@ -7882,7 +8022,7 @@
       <c r="J399" s="10"/>
       <c r="K399" s="10"/>
     </row>
-    <row r="400" spans="1:11" s="6" customFormat="1">
+    <row r="400" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="7"/>
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
@@ -7890,7 +8030,7 @@
       <c r="J400" s="10"/>
       <c r="K400" s="10"/>
     </row>
-    <row r="401" spans="1:11" s="6" customFormat="1">
+    <row r="401" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="7"/>
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
@@ -7898,7 +8038,7 @@
       <c r="J401" s="10"/>
       <c r="K401" s="10"/>
     </row>
-    <row r="402" spans="1:11" s="6" customFormat="1">
+    <row r="402" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="7"/>
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
@@ -7906,7 +8046,7 @@
       <c r="J402" s="10"/>
       <c r="K402" s="10"/>
     </row>
-    <row r="403" spans="1:11" s="6" customFormat="1">
+    <row r="403" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="7"/>
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
@@ -7914,7 +8054,7 @@
       <c r="J403" s="10"/>
       <c r="K403" s="10"/>
     </row>
-    <row r="404" spans="1:11" s="6" customFormat="1">
+    <row r="404" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="7"/>
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
@@ -7922,7 +8062,7 @@
       <c r="J404" s="10"/>
       <c r="K404" s="10"/>
     </row>
-    <row r="405" spans="1:11" s="6" customFormat="1">
+    <row r="405" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="7"/>
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
@@ -7930,7 +8070,7 @@
       <c r="J405" s="10"/>
       <c r="K405" s="10"/>
     </row>
-    <row r="406" spans="1:11" s="6" customFormat="1">
+    <row r="406" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="7"/>
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
@@ -7938,7 +8078,7 @@
       <c r="J406" s="10"/>
       <c r="K406" s="10"/>
     </row>
-    <row r="407" spans="1:11" s="6" customFormat="1">
+    <row r="407" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="7"/>
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
@@ -7946,7 +8086,7 @@
       <c r="J407" s="10"/>
       <c r="K407" s="10"/>
     </row>
-    <row r="408" spans="1:11" s="6" customFormat="1">
+    <row r="408" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="7"/>
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
@@ -7954,7 +8094,7 @@
       <c r="J408" s="10"/>
       <c r="K408" s="10"/>
     </row>
-    <row r="409" spans="1:11" s="6" customFormat="1">
+    <row r="409" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="7"/>
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
@@ -7962,7 +8102,7 @@
       <c r="J409" s="10"/>
       <c r="K409" s="10"/>
     </row>
-    <row r="410" spans="1:11" s="6" customFormat="1">
+    <row r="410" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="7"/>
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
@@ -7970,7 +8110,7 @@
       <c r="J410" s="10"/>
       <c r="K410" s="10"/>
     </row>
-    <row r="411" spans="1:11" s="6" customFormat="1">
+    <row r="411" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="7"/>
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
@@ -7978,7 +8118,7 @@
       <c r="J411" s="10"/>
       <c r="K411" s="10"/>
     </row>
-    <row r="412" spans="1:11" s="6" customFormat="1">
+    <row r="412" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="7"/>
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
@@ -7986,7 +8126,7 @@
       <c r="J412" s="10"/>
       <c r="K412" s="10"/>
     </row>
-    <row r="413" spans="1:11" s="6" customFormat="1">
+    <row r="413" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="7"/>
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
@@ -7994,7 +8134,7 @@
       <c r="J413" s="10"/>
       <c r="K413" s="10"/>
     </row>
-    <row r="414" spans="1:11" s="6" customFormat="1">
+    <row r="414" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="7"/>
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
@@ -8002,7 +8142,7 @@
       <c r="J414" s="10"/>
       <c r="K414" s="10"/>
     </row>
-    <row r="415" spans="1:11" s="6" customFormat="1">
+    <row r="415" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="7"/>
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
@@ -8010,7 +8150,7 @@
       <c r="J415" s="10"/>
       <c r="K415" s="10"/>
     </row>
-    <row r="416" spans="1:11" s="6" customFormat="1">
+    <row r="416" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="7"/>
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
@@ -8018,7 +8158,7 @@
       <c r="J416" s="10"/>
       <c r="K416" s="10"/>
     </row>
-    <row r="417" spans="1:11" s="6" customFormat="1">
+    <row r="417" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="7"/>
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
@@ -8026,7 +8166,7 @@
       <c r="J417" s="10"/>
       <c r="K417" s="10"/>
     </row>
-    <row r="418" spans="1:11" s="6" customFormat="1">
+    <row r="418" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="7"/>
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
@@ -8034,7 +8174,7 @@
       <c r="J418" s="10"/>
       <c r="K418" s="10"/>
     </row>
-    <row r="419" spans="1:11" s="6" customFormat="1">
+    <row r="419" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="7"/>
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
@@ -8042,7 +8182,7 @@
       <c r="J419" s="10"/>
       <c r="K419" s="10"/>
     </row>
-    <row r="420" spans="1:11" s="6" customFormat="1">
+    <row r="420" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" s="7"/>
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
@@ -8050,7 +8190,7 @@
       <c r="J420" s="10"/>
       <c r="K420" s="10"/>
     </row>
-    <row r="421" spans="1:11" s="6" customFormat="1">
+    <row r="421" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="7"/>
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
@@ -8058,7 +8198,7 @@
       <c r="J421" s="10"/>
       <c r="K421" s="10"/>
     </row>
-    <row r="422" spans="1:11" s="6" customFormat="1">
+    <row r="422" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="7"/>
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
@@ -8066,7 +8206,7 @@
       <c r="J422" s="10"/>
       <c r="K422" s="10"/>
     </row>
-    <row r="423" spans="1:11" s="6" customFormat="1">
+    <row r="423" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="7"/>
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
@@ -8074,7 +8214,7 @@
       <c r="J423" s="10"/>
       <c r="K423" s="10"/>
     </row>
-    <row r="424" spans="1:11" s="6" customFormat="1">
+    <row r="424" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="7"/>
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
@@ -8082,7 +8222,7 @@
       <c r="J424" s="10"/>
       <c r="K424" s="10"/>
     </row>
-    <row r="425" spans="1:11" s="6" customFormat="1">
+    <row r="425" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="7"/>
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
@@ -8090,7 +8230,7 @@
       <c r="J425" s="10"/>
       <c r="K425" s="10"/>
     </row>
-    <row r="426" spans="1:11" s="6" customFormat="1">
+    <row r="426" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="7"/>
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
@@ -8098,7 +8238,7 @@
       <c r="J426" s="10"/>
       <c r="K426" s="10"/>
     </row>
-    <row r="427" spans="1:11" s="6" customFormat="1">
+    <row r="427" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="7"/>
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
@@ -8106,7 +8246,7 @@
       <c r="J427" s="10"/>
       <c r="K427" s="10"/>
     </row>
-    <row r="428" spans="1:11" s="6" customFormat="1">
+    <row r="428" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="7"/>
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
@@ -8114,7 +8254,7 @@
       <c r="J428" s="10"/>
       <c r="K428" s="10"/>
     </row>
-    <row r="429" spans="1:11" s="6" customFormat="1">
+    <row r="429" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="7"/>
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
@@ -8122,7 +8262,7 @@
       <c r="J429" s="10"/>
       <c r="K429" s="10"/>
     </row>
-    <row r="430" spans="1:11" s="6" customFormat="1">
+    <row r="430" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="7"/>
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
@@ -8130,7 +8270,7 @@
       <c r="J430" s="10"/>
       <c r="K430" s="10"/>
     </row>
-    <row r="431" spans="1:11" s="6" customFormat="1">
+    <row r="431" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A431" s="7"/>
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
@@ -8138,7 +8278,7 @@
       <c r="J431" s="10"/>
       <c r="K431" s="10"/>
     </row>
-    <row r="432" spans="1:11" s="6" customFormat="1">
+    <row r="432" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="7"/>
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
@@ -8146,7 +8286,7 @@
       <c r="J432" s="10"/>
       <c r="K432" s="10"/>
     </row>
-    <row r="433" spans="1:11" s="6" customFormat="1">
+    <row r="433" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="7"/>
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
@@ -8154,7 +8294,7 @@
       <c r="J433" s="10"/>
       <c r="K433" s="10"/>
     </row>
-    <row r="434" spans="1:11" s="6" customFormat="1">
+    <row r="434" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="7"/>
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
@@ -8162,7 +8302,7 @@
       <c r="J434" s="10"/>
       <c r="K434" s="10"/>
     </row>
-    <row r="435" spans="1:11" s="6" customFormat="1">
+    <row r="435" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="7"/>
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
@@ -8170,7 +8310,7 @@
       <c r="J435" s="10"/>
       <c r="K435" s="10"/>
     </row>
-    <row r="436" spans="1:11" s="6" customFormat="1">
+    <row r="436" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="7"/>
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
@@ -8178,7 +8318,7 @@
       <c r="J436" s="10"/>
       <c r="K436" s="10"/>
     </row>
-    <row r="437" spans="1:11" s="6" customFormat="1">
+    <row r="437" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="7"/>
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
@@ -8186,7 +8326,7 @@
       <c r="J437" s="10"/>
       <c r="K437" s="10"/>
     </row>
-    <row r="438" spans="1:11" s="6" customFormat="1">
+    <row r="438" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="7"/>
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
@@ -8194,7 +8334,7 @@
       <c r="J438" s="10"/>
       <c r="K438" s="10"/>
     </row>
-    <row r="439" spans="1:11" s="6" customFormat="1">
+    <row r="439" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="7"/>
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
@@ -8202,7 +8342,7 @@
       <c r="J439" s="10"/>
       <c r="K439" s="10"/>
     </row>
-    <row r="440" spans="1:11" s="6" customFormat="1">
+    <row r="440" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" s="7"/>
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
@@ -8210,7 +8350,7 @@
       <c r="J440" s="10"/>
       <c r="K440" s="10"/>
     </row>
-    <row r="441" spans="1:11" s="6" customFormat="1">
+    <row r="441" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="7"/>
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
@@ -8218,7 +8358,7 @@
       <c r="J441" s="10"/>
       <c r="K441" s="10"/>
     </row>
-    <row r="442" spans="1:11" s="6" customFormat="1">
+    <row r="442" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="7"/>
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
@@ -8226,7 +8366,7 @@
       <c r="J442" s="10"/>
       <c r="K442" s="10"/>
     </row>
-    <row r="443" spans="1:11" s="6" customFormat="1">
+    <row r="443" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="7"/>
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
@@ -8234,7 +8374,7 @@
       <c r="J443" s="10"/>
       <c r="K443" s="10"/>
     </row>
-    <row r="444" spans="1:11" s="6" customFormat="1">
+    <row r="444" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A444" s="7"/>
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
@@ -8242,7 +8382,7 @@
       <c r="J444" s="10"/>
       <c r="K444" s="10"/>
     </row>
-    <row r="445" spans="1:11" s="6" customFormat="1">
+    <row r="445" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="7"/>
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
@@ -8250,7 +8390,7 @@
       <c r="J445" s="10"/>
       <c r="K445" s="10"/>
     </row>
-    <row r="446" spans="1:11" s="6" customFormat="1">
+    <row r="446" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" s="7"/>
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
@@ -8258,7 +8398,7 @@
       <c r="J446" s="10"/>
       <c r="K446" s="10"/>
     </row>
-    <row r="447" spans="1:11" s="6" customFormat="1">
+    <row r="447" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A447" s="7"/>
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
@@ -8266,7 +8406,7 @@
       <c r="J447" s="10"/>
       <c r="K447" s="10"/>
     </row>
-    <row r="448" spans="1:11" s="6" customFormat="1">
+    <row r="448" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A448" s="7"/>
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
@@ -8274,7 +8414,7 @@
       <c r="J448" s="10"/>
       <c r="K448" s="10"/>
     </row>
-    <row r="449" spans="1:11" s="6" customFormat="1">
+    <row r="449" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A449" s="7"/>
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
@@ -8282,7 +8422,7 @@
       <c r="J449" s="10"/>
       <c r="K449" s="10"/>
     </row>
-    <row r="450" spans="1:11" s="6" customFormat="1">
+    <row r="450" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A450" s="7"/>
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
@@ -8290,7 +8430,7 @@
       <c r="J450" s="10"/>
       <c r="K450" s="10"/>
     </row>
-    <row r="451" spans="1:11" s="6" customFormat="1">
+    <row r="451" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A451" s="7"/>
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
@@ -8298,7 +8438,7 @@
       <c r="J451" s="10"/>
       <c r="K451" s="10"/>
     </row>
-    <row r="452" spans="1:11" s="6" customFormat="1">
+    <row r="452" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A452" s="7"/>
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
@@ -8306,7 +8446,7 @@
       <c r="J452" s="10"/>
       <c r="K452" s="10"/>
     </row>
-    <row r="453" spans="1:11" s="6" customFormat="1">
+    <row r="453" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A453" s="7"/>
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
@@ -8314,7 +8454,7 @@
       <c r="J453" s="10"/>
       <c r="K453" s="10"/>
     </row>
-    <row r="454" spans="1:11" s="6" customFormat="1">
+    <row r="454" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A454" s="7"/>
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
@@ -8322,7 +8462,7 @@
       <c r="J454" s="10"/>
       <c r="K454" s="10"/>
     </row>
-    <row r="455" spans="1:11" s="6" customFormat="1">
+    <row r="455" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A455" s="7"/>
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
@@ -8330,7 +8470,7 @@
       <c r="J455" s="10"/>
       <c r="K455" s="10"/>
     </row>
-    <row r="456" spans="1:11" s="6" customFormat="1">
+    <row r="456" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A456" s="7"/>
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
@@ -8338,7 +8478,7 @@
       <c r="J456" s="10"/>
       <c r="K456" s="10"/>
     </row>
-    <row r="457" spans="1:11" s="6" customFormat="1">
+    <row r="457" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A457" s="7"/>
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
@@ -8346,7 +8486,7 @@
       <c r="J457" s="10"/>
       <c r="K457" s="10"/>
     </row>
-    <row r="458" spans="1:11" s="6" customFormat="1">
+    <row r="458" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A458" s="7"/>
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
@@ -8354,7 +8494,7 @@
       <c r="J458" s="10"/>
       <c r="K458" s="10"/>
     </row>
-    <row r="459" spans="1:11" s="6" customFormat="1">
+    <row r="459" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A459" s="7"/>
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
@@ -8362,7 +8502,7 @@
       <c r="J459" s="10"/>
       <c r="K459" s="10"/>
     </row>
-    <row r="460" spans="1:11" s="6" customFormat="1">
+    <row r="460" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A460" s="7"/>
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
@@ -8370,7 +8510,7 @@
       <c r="J460" s="10"/>
       <c r="K460" s="10"/>
     </row>
-    <row r="461" spans="1:11" s="6" customFormat="1">
+    <row r="461" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A461" s="7"/>
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
@@ -8378,7 +8518,7 @@
       <c r="J461" s="10"/>
       <c r="K461" s="10"/>
     </row>
-    <row r="462" spans="1:11" s="6" customFormat="1">
+    <row r="462" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A462" s="7"/>
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
@@ -8386,7 +8526,7 @@
       <c r="J462" s="10"/>
       <c r="K462" s="10"/>
     </row>
-    <row r="463" spans="1:11" s="6" customFormat="1">
+    <row r="463" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A463" s="7"/>
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
@@ -8394,7 +8534,7 @@
       <c r="J463" s="10"/>
       <c r="K463" s="10"/>
     </row>
-    <row r="464" spans="1:11" s="6" customFormat="1">
+    <row r="464" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A464" s="7"/>
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
@@ -8402,7 +8542,7 @@
       <c r="J464" s="10"/>
       <c r="K464" s="10"/>
     </row>
-    <row r="465" spans="1:11" s="6" customFormat="1">
+    <row r="465" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A465" s="7"/>
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
@@ -8410,7 +8550,7 @@
       <c r="J465" s="10"/>
       <c r="K465" s="10"/>
     </row>
-    <row r="466" spans="1:11" s="6" customFormat="1">
+    <row r="466" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A466" s="7"/>
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
@@ -8418,7 +8558,7 @@
       <c r="J466" s="10"/>
       <c r="K466" s="10"/>
     </row>
-    <row r="467" spans="1:11" s="6" customFormat="1">
+    <row r="467" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A467" s="7"/>
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
@@ -8426,7 +8566,7 @@
       <c r="J467" s="10"/>
       <c r="K467" s="10"/>
     </row>
-    <row r="468" spans="1:11" s="6" customFormat="1">
+    <row r="468" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A468" s="7"/>
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
@@ -8434,7 +8574,7 @@
       <c r="J468" s="10"/>
       <c r="K468" s="10"/>
     </row>
-    <row r="469" spans="1:11" s="6" customFormat="1">
+    <row r="469" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A469" s="7"/>
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
@@ -8442,7 +8582,7 @@
       <c r="J469" s="10"/>
       <c r="K469" s="10"/>
     </row>
-    <row r="470" spans="1:11" s="6" customFormat="1">
+    <row r="470" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A470" s="7"/>
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
@@ -8450,7 +8590,7 @@
       <c r="J470" s="10"/>
       <c r="K470" s="10"/>
     </row>
-    <row r="471" spans="1:11" s="6" customFormat="1">
+    <row r="471" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A471" s="7"/>
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
@@ -8458,7 +8598,7 @@
       <c r="J471" s="10"/>
       <c r="K471" s="10"/>
     </row>
-    <row r="472" spans="1:11" s="6" customFormat="1">
+    <row r="472" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A472" s="7"/>
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
@@ -8466,7 +8606,7 @@
       <c r="J472" s="10"/>
       <c r="K472" s="10"/>
     </row>
-    <row r="473" spans="1:11" s="6" customFormat="1">
+    <row r="473" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A473" s="7"/>
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
@@ -8474,7 +8614,7 @@
       <c r="J473" s="10"/>
       <c r="K473" s="10"/>
     </row>
-    <row r="474" spans="1:11" s="6" customFormat="1">
+    <row r="474" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A474" s="7"/>
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
@@ -8482,7 +8622,7 @@
       <c r="J474" s="10"/>
       <c r="K474" s="10"/>
     </row>
-    <row r="475" spans="1:11" s="6" customFormat="1">
+    <row r="475" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="7"/>
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
@@ -8490,7 +8630,7 @@
       <c r="J475" s="10"/>
       <c r="K475" s="10"/>
     </row>
-    <row r="476" spans="1:11" s="6" customFormat="1">
+    <row r="476" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="7"/>
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
@@ -8498,7 +8638,7 @@
       <c r="J476" s="10"/>
       <c r="K476" s="10"/>
     </row>
-    <row r="477" spans="1:11" s="6" customFormat="1">
+    <row r="477" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="7"/>
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
@@ -8506,7 +8646,7 @@
       <c r="J477" s="10"/>
       <c r="K477" s="10"/>
     </row>
-    <row r="478" spans="1:11" s="6" customFormat="1">
+    <row r="478" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A478" s="7"/>
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
@@ -8514,7 +8654,7 @@
       <c r="J478" s="10"/>
       <c r="K478" s="10"/>
     </row>
-    <row r="479" spans="1:11" s="6" customFormat="1">
+    <row r="479" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A479" s="7"/>
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
@@ -8522,7 +8662,7 @@
       <c r="J479" s="10"/>
       <c r="K479" s="10"/>
     </row>
-    <row r="480" spans="1:11" s="6" customFormat="1">
+    <row r="480" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A480" s="7"/>
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
@@ -8530,7 +8670,7 @@
       <c r="J480" s="10"/>
       <c r="K480" s="10"/>
     </row>
-    <row r="481" spans="1:11" s="6" customFormat="1">
+    <row r="481" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A481" s="7"/>
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
@@ -8538,7 +8678,7 @@
       <c r="J481" s="10"/>
       <c r="K481" s="10"/>
     </row>
-    <row r="482" spans="1:11" s="6" customFormat="1">
+    <row r="482" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A482" s="7"/>
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
@@ -8546,7 +8686,7 @@
       <c r="J482" s="10"/>
       <c r="K482" s="10"/>
     </row>
-    <row r="483" spans="1:11" s="6" customFormat="1">
+    <row r="483" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A483" s="7"/>
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
@@ -8554,7 +8694,7 @@
       <c r="J483" s="10"/>
       <c r="K483" s="10"/>
     </row>
-    <row r="484" spans="1:11" s="6" customFormat="1">
+    <row r="484" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="7"/>
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
@@ -8562,7 +8702,7 @@
       <c r="J484" s="10"/>
       <c r="K484" s="10"/>
     </row>
-    <row r="485" spans="1:11" s="6" customFormat="1">
+    <row r="485" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="7"/>
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
@@ -8570,7 +8710,7 @@
       <c r="J485" s="10"/>
       <c r="K485" s="10"/>
     </row>
-    <row r="486" spans="1:11" s="6" customFormat="1">
+    <row r="486" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" s="7"/>
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
@@ -8578,7 +8718,7 @@
       <c r="J486" s="10"/>
       <c r="K486" s="10"/>
     </row>
-    <row r="487" spans="1:11" s="6" customFormat="1">
+    <row r="487" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A487" s="7"/>
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
@@ -8586,7 +8726,7 @@
       <c r="J487" s="10"/>
       <c r="K487" s="10"/>
     </row>
-    <row r="488" spans="1:11" s="6" customFormat="1">
+    <row r="488" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="7"/>
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
@@ -8594,7 +8734,7 @@
       <c r="J488" s="10"/>
       <c r="K488" s="10"/>
     </row>
-    <row r="489" spans="1:11" s="6" customFormat="1">
+    <row r="489" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A489" s="7"/>
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
@@ -8602,7 +8742,7 @@
       <c r="J489" s="10"/>
       <c r="K489" s="10"/>
     </row>
-    <row r="490" spans="1:11" s="6" customFormat="1">
+    <row r="490" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A490" s="7"/>
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
@@ -8610,7 +8750,7 @@
       <c r="J490" s="10"/>
       <c r="K490" s="10"/>
     </row>
-    <row r="491" spans="1:11" s="6" customFormat="1">
+    <row r="491" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A491" s="7"/>
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
@@ -8618,7 +8758,7 @@
       <c r="J491" s="10"/>
       <c r="K491" s="10"/>
     </row>
-    <row r="492" spans="1:11" s="6" customFormat="1">
+    <row r="492" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A492" s="7"/>
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
@@ -8626,7 +8766,7 @@
       <c r="J492" s="10"/>
       <c r="K492" s="10"/>
     </row>
-    <row r="493" spans="1:11" s="6" customFormat="1">
+    <row r="493" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="7"/>
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
@@ -8634,7 +8774,7 @@
       <c r="J493" s="10"/>
       <c r="K493" s="10"/>
     </row>
-    <row r="494" spans="1:11" s="6" customFormat="1">
+    <row r="494" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="7"/>
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
@@ -8642,7 +8782,7 @@
       <c r="J494" s="10"/>
       <c r="K494" s="10"/>
     </row>
-    <row r="495" spans="1:11" s="6" customFormat="1">
+    <row r="495" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="7"/>
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
@@ -8650,7 +8790,7 @@
       <c r="J495" s="10"/>
       <c r="K495" s="10"/>
     </row>
-    <row r="496" spans="1:11" s="6" customFormat="1">
+    <row r="496" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="7"/>
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
@@ -8658,7 +8798,7 @@
       <c r="J496" s="10"/>
       <c r="K496" s="10"/>
     </row>
-    <row r="497" spans="1:11" s="6" customFormat="1">
+    <row r="497" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="7"/>
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
@@ -8666,7 +8806,7 @@
       <c r="J497" s="10"/>
       <c r="K497" s="10"/>
     </row>
-    <row r="498" spans="1:11" s="6" customFormat="1">
+    <row r="498" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="7"/>
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
@@ -8674,7 +8814,7 @@
       <c r="J498" s="10"/>
       <c r="K498" s="10"/>
     </row>
-    <row r="499" spans="1:11" s="6" customFormat="1">
+    <row r="499" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="7"/>
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
@@ -8682,7 +8822,7 @@
       <c r="J499" s="10"/>
       <c r="K499" s="10"/>
     </row>
-    <row r="500" spans="1:11" s="6" customFormat="1">
+    <row r="500" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="7"/>
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
@@ -8690,7 +8830,7 @@
       <c r="J500" s="10"/>
       <c r="K500" s="10"/>
     </row>
-    <row r="501" spans="1:11" s="6" customFormat="1">
+    <row r="501" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="7"/>
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
@@ -8698,7 +8838,7 @@
       <c r="J501" s="10"/>
       <c r="K501" s="10"/>
     </row>
-    <row r="502" spans="1:11" s="6" customFormat="1">
+    <row r="502" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="7"/>
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
@@ -8706,7 +8846,7 @@
       <c r="J502" s="10"/>
       <c r="K502" s="10"/>
     </row>
-    <row r="503" spans="1:11" s="6" customFormat="1">
+    <row r="503" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="7"/>
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
@@ -8714,7 +8854,7 @@
       <c r="J503" s="10"/>
       <c r="K503" s="10"/>
     </row>
-    <row r="504" spans="1:11" s="6" customFormat="1">
+    <row r="504" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" s="7"/>
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
@@ -8722,7 +8862,7 @@
       <c r="J504" s="10"/>
       <c r="K504" s="10"/>
     </row>
-    <row r="505" spans="1:11" s="6" customFormat="1">
+    <row r="505" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="21"/>
       <c r="B505" s="22"/>
       <c r="C505" s="22"/>
@@ -8735,7 +8875,7 @@
       <c r="J505" s="25"/>
       <c r="K505" s="25"/>
     </row>
-    <row r="506" spans="1:11" s="6" customFormat="1">
+    <row r="506" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="21"/>
       <c r="B506" s="22"/>
       <c r="C506" s="22"/>
@@ -8748,7 +8888,7 @@
       <c r="J506" s="25"/>
       <c r="K506" s="25"/>
     </row>
-    <row r="507" spans="1:11" s="6" customFormat="1">
+    <row r="507" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="21"/>
       <c r="B507" s="22"/>
       <c r="C507" s="22"/>
@@ -8761,7 +8901,7 @@
       <c r="J507" s="25"/>
       <c r="K507" s="25"/>
     </row>
-    <row r="508" spans="1:11" s="6" customFormat="1">
+    <row r="508" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="21"/>
       <c r="B508" s="22"/>
       <c r="C508" s="22"/>
@@ -8774,7 +8914,7 @@
       <c r="J508" s="25"/>
       <c r="K508" s="25"/>
     </row>
-    <row r="509" spans="1:11" s="6" customFormat="1">
+    <row r="509" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="21"/>
       <c r="B509" s="22"/>
       <c r="C509" s="22"/>
@@ -8787,7 +8927,7 @@
       <c r="J509" s="25"/>
       <c r="K509" s="25"/>
     </row>
-    <row r="510" spans="1:11" s="6" customFormat="1">
+    <row r="510" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="21"/>
       <c r="B510" s="22"/>
       <c r="C510" s="22"/>
@@ -8800,7 +8940,7 @@
       <c r="J510" s="25"/>
       <c r="K510" s="25"/>
     </row>
-    <row r="511" spans="1:11" s="6" customFormat="1">
+    <row r="511" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A511" s="21"/>
       <c r="B511" s="22"/>
       <c r="C511" s="22"/>
@@ -8813,7 +8953,7 @@
       <c r="J511" s="25"/>
       <c r="K511" s="25"/>
     </row>
-    <row r="512" spans="1:11" s="6" customFormat="1">
+    <row r="512" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A512" s="21"/>
       <c r="B512" s="22"/>
       <c r="C512" s="22"/>
@@ -8826,7 +8966,7 @@
       <c r="J512" s="25"/>
       <c r="K512" s="25"/>
     </row>
-    <row r="513" spans="1:11" s="6" customFormat="1">
+    <row r="513" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A513" s="21"/>
       <c r="B513" s="22"/>
       <c r="C513" s="22"/>
@@ -8839,7 +8979,7 @@
       <c r="J513" s="25"/>
       <c r="K513" s="25"/>
     </row>
-    <row r="514" spans="1:11" s="6" customFormat="1">
+    <row r="514" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="21"/>
       <c r="B514" s="22"/>
       <c r="C514" s="22"/>
@@ -8852,7 +8992,7 @@
       <c r="J514" s="25"/>
       <c r="K514" s="25"/>
     </row>
-    <row r="515" spans="1:11" s="6" customFormat="1">
+    <row r="515" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="21"/>
       <c r="B515" s="22"/>
       <c r="C515" s="22"/>
@@ -8865,7 +9005,7 @@
       <c r="J515" s="25"/>
       <c r="K515" s="25"/>
     </row>
-    <row r="516" spans="1:11" s="6" customFormat="1">
+    <row r="516" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="21"/>
       <c r="B516" s="22"/>
       <c r="C516" s="22"/>
@@ -8878,7 +9018,7 @@
       <c r="J516" s="25"/>
       <c r="K516" s="25"/>
     </row>
-    <row r="517" spans="1:11" s="6" customFormat="1">
+    <row r="517" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" s="21"/>
       <c r="B517" s="22"/>
       <c r="C517" s="22"/>
@@ -8891,7 +9031,7 @@
       <c r="J517" s="25"/>
       <c r="K517" s="25"/>
     </row>
-    <row r="518" spans="1:11" s="6" customFormat="1">
+    <row r="518" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="21"/>
       <c r="B518" s="22"/>
       <c r="C518" s="22"/>
@@ -8904,7 +9044,7 @@
       <c r="J518" s="25"/>
       <c r="K518" s="25"/>
     </row>
-    <row r="519" spans="1:11" s="6" customFormat="1">
+    <row r="519" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A519" s="21"/>
       <c r="B519" s="22"/>
       <c r="C519" s="22"/>
@@ -8917,7 +9057,7 @@
       <c r="J519" s="25"/>
       <c r="K519" s="25"/>
     </row>
-    <row r="520" spans="1:11" s="6" customFormat="1">
+    <row r="520" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A520" s="21"/>
       <c r="B520" s="22"/>
       <c r="C520" s="22"/>
@@ -8930,7 +9070,7 @@
       <c r="J520" s="25"/>
       <c r="K520" s="25"/>
     </row>
-    <row r="521" spans="1:11" s="6" customFormat="1">
+    <row r="521" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A521" s="21"/>
       <c r="B521" s="22"/>
       <c r="C521" s="22"/>
@@ -8943,7 +9083,7 @@
       <c r="J521" s="25"/>
       <c r="K521" s="25"/>
     </row>
-    <row r="522" spans="1:11" s="6" customFormat="1">
+    <row r="522" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A522" s="21"/>
       <c r="B522" s="22"/>
       <c r="C522" s="22"/>
@@ -8956,7 +9096,7 @@
       <c r="J522" s="25"/>
       <c r="K522" s="25"/>
     </row>
-    <row r="523" spans="1:11" s="6" customFormat="1">
+    <row r="523" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A523" s="21"/>
       <c r="B523" s="22"/>
       <c r="C523" s="22"/>
@@ -8969,7 +9109,7 @@
       <c r="J523" s="25"/>
       <c r="K523" s="25"/>
     </row>
-    <row r="524" spans="1:11" s="6" customFormat="1">
+    <row r="524" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A524" s="21"/>
       <c r="B524" s="22"/>
       <c r="C524" s="22"/>
@@ -8982,7 +9122,7 @@
       <c r="J524" s="25"/>
       <c r="K524" s="25"/>
     </row>
-    <row r="525" spans="1:11" s="6" customFormat="1">
+    <row r="525" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A525" s="21"/>
       <c r="B525" s="22"/>
       <c r="C525" s="22"/>
@@ -8995,7 +9135,7 @@
       <c r="J525" s="25"/>
       <c r="K525" s="25"/>
     </row>
-    <row r="526" spans="1:11" s="6" customFormat="1">
+    <row r="526" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A526" s="21"/>
       <c r="B526" s="22"/>
       <c r="C526" s="22"/>
@@ -9008,7 +9148,7 @@
       <c r="J526" s="25"/>
       <c r="K526" s="25"/>
     </row>
-    <row r="527" spans="1:11" s="6" customFormat="1">
+    <row r="527" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A527" s="21"/>
       <c r="B527" s="22"/>
       <c r="C527" s="22"/>
@@ -9021,7 +9161,7 @@
       <c r="J527" s="25"/>
       <c r="K527" s="25"/>
     </row>
-    <row r="528" spans="1:11" s="6" customFormat="1">
+    <row r="528" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A528" s="21"/>
       <c r="B528" s="22"/>
       <c r="C528" s="22"/>
@@ -9034,7 +9174,7 @@
       <c r="J528" s="25"/>
       <c r="K528" s="25"/>
     </row>
-    <row r="529" spans="1:11" s="6" customFormat="1">
+    <row r="529" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A529" s="21"/>
       <c r="B529" s="22"/>
       <c r="C529" s="22"/>
@@ -9047,7 +9187,7 @@
       <c r="J529" s="25"/>
       <c r="K529" s="25"/>
     </row>
-    <row r="530" spans="1:11" s="6" customFormat="1">
+    <row r="530" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A530" s="21"/>
       <c r="B530" s="22"/>
       <c r="C530" s="22"/>
@@ -9060,7 +9200,7 @@
       <c r="J530" s="25"/>
       <c r="K530" s="25"/>
     </row>
-    <row r="531" spans="1:11" s="6" customFormat="1">
+    <row r="531" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A531" s="21"/>
       <c r="B531" s="22"/>
       <c r="C531" s="22"/>
@@ -9073,7 +9213,7 @@
       <c r="J531" s="25"/>
       <c r="K531" s="25"/>
     </row>
-    <row r="532" spans="1:11" s="6" customFormat="1">
+    <row r="532" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A532" s="21"/>
       <c r="B532" s="22"/>
       <c r="C532" s="22"/>
@@ -9086,7 +9226,7 @@
       <c r="J532" s="25"/>
       <c r="K532" s="25"/>
     </row>
-    <row r="533" spans="1:11" s="6" customFormat="1">
+    <row r="533" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A533" s="21"/>
       <c r="B533" s="22"/>
       <c r="C533" s="22"/>
@@ -9099,7 +9239,7 @@
       <c r="J533" s="25"/>
       <c r="K533" s="25"/>
     </row>
-    <row r="534" spans="1:11" s="6" customFormat="1">
+    <row r="534" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A534" s="21"/>
       <c r="B534" s="22"/>
       <c r="C534" s="22"/>
@@ -9112,7 +9252,7 @@
       <c r="J534" s="25"/>
       <c r="K534" s="25"/>
     </row>
-    <row r="535" spans="1:11" s="6" customFormat="1">
+    <row r="535" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A535" s="21"/>
       <c r="B535" s="22"/>
       <c r="C535" s="22"/>
@@ -9125,7 +9265,7 @@
       <c r="J535" s="25"/>
       <c r="K535" s="25"/>
     </row>
-    <row r="536" spans="1:11" s="6" customFormat="1">
+    <row r="536" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A536" s="21"/>
       <c r="B536" s="22"/>
       <c r="C536" s="22"/>
@@ -9138,7 +9278,7 @@
       <c r="J536" s="25"/>
       <c r="K536" s="25"/>
     </row>
-    <row r="537" spans="1:11" s="6" customFormat="1">
+    <row r="537" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A537" s="21"/>
       <c r="B537" s="22"/>
       <c r="C537" s="22"/>
@@ -9151,7 +9291,7 @@
       <c r="J537" s="25"/>
       <c r="K537" s="25"/>
     </row>
-    <row r="538" spans="1:11" s="6" customFormat="1">
+    <row r="538" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A538" s="21"/>
       <c r="B538" s="22"/>
       <c r="C538" s="22"/>
@@ -9164,7 +9304,7 @@
       <c r="J538" s="25"/>
       <c r="K538" s="25"/>
     </row>
-    <row r="539" spans="1:11" s="6" customFormat="1">
+    <row r="539" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A539" s="21"/>
       <c r="B539" s="22"/>
       <c r="C539" s="22"/>
@@ -9177,7 +9317,7 @@
       <c r="J539" s="25"/>
       <c r="K539" s="25"/>
     </row>
-    <row r="540" spans="1:11" s="6" customFormat="1">
+    <row r="540" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A540" s="21"/>
       <c r="B540" s="22"/>
       <c r="C540" s="22"/>
@@ -9190,7 +9330,7 @@
       <c r="J540" s="25"/>
       <c r="K540" s="25"/>
     </row>
-    <row r="541" spans="1:11" s="6" customFormat="1">
+    <row r="541" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A541" s="21"/>
       <c r="B541" s="22"/>
       <c r="C541" s="22"/>
@@ -9203,7 +9343,7 @@
       <c r="J541" s="25"/>
       <c r="K541" s="25"/>
     </row>
-    <row r="542" spans="1:11" s="6" customFormat="1">
+    <row r="542" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A542" s="21"/>
       <c r="B542" s="22"/>
       <c r="C542" s="22"/>
@@ -9216,7 +9356,7 @@
       <c r="J542" s="25"/>
       <c r="K542" s="25"/>
     </row>
-    <row r="543" spans="1:11" s="6" customFormat="1">
+    <row r="543" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A543" s="21"/>
       <c r="B543" s="22"/>
       <c r="C543" s="22"/>
@@ -9229,7 +9369,7 @@
       <c r="J543" s="25"/>
       <c r="K543" s="25"/>
     </row>
-    <row r="544" spans="1:11" s="6" customFormat="1">
+    <row r="544" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A544" s="21"/>
       <c r="B544" s="22"/>
       <c r="C544" s="22"/>
@@ -9242,7 +9382,7 @@
       <c r="J544" s="25"/>
       <c r="K544" s="25"/>
     </row>
-    <row r="545" spans="1:11" s="6" customFormat="1">
+    <row r="545" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A545" s="21"/>
       <c r="B545" s="22"/>
       <c r="C545" s="22"/>
@@ -9255,7 +9395,7 @@
       <c r="J545" s="25"/>
       <c r="K545" s="25"/>
     </row>
-    <row r="546" spans="1:11" s="6" customFormat="1">
+    <row r="546" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A546" s="21"/>
       <c r="B546" s="22"/>
       <c r="C546" s="22"/>
@@ -9268,7 +9408,7 @@
       <c r="J546" s="25"/>
       <c r="K546" s="25"/>
     </row>
-    <row r="547" spans="1:11" s="6" customFormat="1">
+    <row r="547" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A547" s="21"/>
       <c r="B547" s="22"/>
       <c r="C547" s="22"/>
@@ -9281,7 +9421,7 @@
       <c r="J547" s="25"/>
       <c r="K547" s="25"/>
     </row>
-    <row r="548" spans="1:11" s="6" customFormat="1">
+    <row r="548" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A548" s="21"/>
       <c r="B548" s="22"/>
       <c r="C548" s="22"/>
@@ -9294,7 +9434,7 @@
       <c r="J548" s="25"/>
       <c r="K548" s="25"/>
     </row>
-    <row r="549" spans="1:11" s="6" customFormat="1">
+    <row r="549" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A549" s="21"/>
       <c r="B549" s="22"/>
       <c r="C549" s="22"/>
@@ -9307,7 +9447,7 @@
       <c r="J549" s="25"/>
       <c r="K549" s="25"/>
     </row>
-    <row r="550" spans="1:11" s="6" customFormat="1">
+    <row r="550" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A550" s="21"/>
       <c r="B550" s="22"/>
       <c r="C550" s="22"/>
@@ -9320,7 +9460,7 @@
       <c r="J550" s="25"/>
       <c r="K550" s="25"/>
     </row>
-    <row r="551" spans="1:11" s="6" customFormat="1">
+    <row r="551" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A551" s="21"/>
       <c r="B551" s="22"/>
       <c r="C551" s="22"/>
@@ -9333,7 +9473,7 @@
       <c r="J551" s="25"/>
       <c r="K551" s="25"/>
     </row>
-    <row r="552" spans="1:11" s="6" customFormat="1">
+    <row r="552" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A552" s="21"/>
       <c r="B552" s="22"/>
       <c r="C552" s="22"/>
@@ -9346,7 +9486,7 @@
       <c r="J552" s="25"/>
       <c r="K552" s="25"/>
     </row>
-    <row r="553" spans="1:11" s="6" customFormat="1">
+    <row r="553" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A553" s="21"/>
       <c r="B553" s="22"/>
       <c r="C553" s="22"/>
@@ -9359,7 +9499,7 @@
       <c r="J553" s="25"/>
       <c r="K553" s="25"/>
     </row>
-    <row r="554" spans="1:11" s="6" customFormat="1">
+    <row r="554" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A554" s="21"/>
       <c r="B554" s="22"/>
       <c r="C554" s="22"/>
@@ -9372,7 +9512,7 @@
       <c r="J554" s="25"/>
       <c r="K554" s="25"/>
     </row>
-    <row r="555" spans="1:11" s="6" customFormat="1">
+    <row r="555" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A555" s="21"/>
       <c r="B555" s="22"/>
       <c r="C555" s="22"/>
@@ -9385,7 +9525,7 @@
       <c r="J555" s="25"/>
       <c r="K555" s="25"/>
     </row>
-    <row r="556" spans="1:11" s="6" customFormat="1">
+    <row r="556" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A556" s="21"/>
       <c r="B556" s="22"/>
       <c r="C556" s="22"/>
@@ -9398,7 +9538,7 @@
       <c r="J556" s="25"/>
       <c r="K556" s="25"/>
     </row>
-    <row r="557" spans="1:11" s="6" customFormat="1">
+    <row r="557" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A557" s="21"/>
       <c r="B557" s="22"/>
       <c r="C557" s="22"/>
@@ -9411,7 +9551,7 @@
       <c r="J557" s="25"/>
       <c r="K557" s="25"/>
     </row>
-    <row r="558" spans="1:11" s="6" customFormat="1">
+    <row r="558" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A558" s="21"/>
       <c r="B558" s="22"/>
       <c r="C558" s="22"/>
@@ -9424,7 +9564,7 @@
       <c r="J558" s="25"/>
       <c r="K558" s="25"/>
     </row>
-    <row r="559" spans="1:11" s="6" customFormat="1">
+    <row r="559" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A559" s="21"/>
       <c r="B559" s="22"/>
       <c r="C559" s="22"/>
@@ -9437,7 +9577,7 @@
       <c r="J559" s="25"/>
       <c r="K559" s="25"/>
     </row>
-    <row r="560" spans="1:11" s="6" customFormat="1">
+    <row r="560" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A560" s="21"/>
       <c r="B560" s="22"/>
       <c r="C560" s="22"/>
@@ -9450,7 +9590,7 @@
       <c r="J560" s="25"/>
       <c r="K560" s="25"/>
     </row>
-    <row r="561" spans="1:11" s="6" customFormat="1">
+    <row r="561" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A561" s="21"/>
       <c r="B561" s="22"/>
       <c r="C561" s="22"/>
@@ -9463,7 +9603,7 @@
       <c r="J561" s="25"/>
       <c r="K561" s="25"/>
     </row>
-    <row r="562" spans="1:11" s="6" customFormat="1">
+    <row r="562" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A562" s="21"/>
       <c r="B562" s="22"/>
       <c r="C562" s="22"/>
@@ -9476,7 +9616,7 @@
       <c r="J562" s="25"/>
       <c r="K562" s="25"/>
     </row>
-    <row r="563" spans="1:11" s="6" customFormat="1">
+    <row r="563" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A563" s="21"/>
       <c r="B563" s="22"/>
       <c r="C563" s="22"/>
@@ -9489,7 +9629,7 @@
       <c r="J563" s="25"/>
       <c r="K563" s="25"/>
     </row>
-    <row r="564" spans="1:11" s="6" customFormat="1">
+    <row r="564" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A564" s="21"/>
       <c r="B564" s="22"/>
       <c r="C564" s="22"/>
@@ -9502,7 +9642,7 @@
       <c r="J564" s="25"/>
       <c r="K564" s="25"/>
     </row>
-    <row r="565" spans="1:11" s="6" customFormat="1">
+    <row r="565" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A565" s="21"/>
       <c r="B565" s="22"/>
       <c r="C565" s="22"/>
@@ -9515,7 +9655,7 @@
       <c r="J565" s="25"/>
       <c r="K565" s="25"/>
     </row>
-    <row r="566" spans="1:11" s="6" customFormat="1">
+    <row r="566" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A566" s="21"/>
       <c r="B566" s="22"/>
       <c r="C566" s="22"/>
@@ -9528,7 +9668,7 @@
       <c r="J566" s="25"/>
       <c r="K566" s="25"/>
     </row>
-    <row r="567" spans="1:11" s="6" customFormat="1">
+    <row r="567" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A567" s="21"/>
       <c r="B567" s="22"/>
       <c r="C567" s="22"/>
@@ -9541,7 +9681,7 @@
       <c r="J567" s="25"/>
       <c r="K567" s="25"/>
     </row>
-    <row r="568" spans="1:11" s="6" customFormat="1">
+    <row r="568" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A568" s="21"/>
       <c r="B568" s="22"/>
       <c r="C568" s="22"/>
@@ -9554,7 +9694,7 @@
       <c r="J568" s="25"/>
       <c r="K568" s="25"/>
     </row>
-    <row r="569" spans="1:11" s="6" customFormat="1">
+    <row r="569" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A569" s="21"/>
       <c r="B569" s="22"/>
       <c r="C569" s="22"/>
@@ -9567,7 +9707,7 @@
       <c r="J569" s="25"/>
       <c r="K569" s="25"/>
     </row>
-    <row r="570" spans="1:11" s="6" customFormat="1">
+    <row r="570" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A570" s="21"/>
       <c r="B570" s="22"/>
       <c r="C570" s="22"/>
@@ -9580,7 +9720,7 @@
       <c r="J570" s="25"/>
       <c r="K570" s="25"/>
     </row>
-    <row r="571" spans="1:11" s="6" customFormat="1">
+    <row r="571" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A571" s="21"/>
       <c r="B571" s="22"/>
       <c r="C571" s="22"/>
@@ -9593,7 +9733,7 @@
       <c r="J571" s="25"/>
       <c r="K571" s="25"/>
     </row>
-    <row r="572" spans="1:11" s="6" customFormat="1">
+    <row r="572" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A572" s="21"/>
       <c r="B572" s="22"/>
       <c r="C572" s="22"/>
@@ -9606,7 +9746,7 @@
       <c r="J572" s="25"/>
       <c r="K572" s="25"/>
     </row>
-    <row r="573" spans="1:11" s="6" customFormat="1">
+    <row r="573" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A573" s="21"/>
       <c r="B573" s="22"/>
       <c r="C573" s="22"/>
@@ -9619,7 +9759,7 @@
       <c r="J573" s="25"/>
       <c r="K573" s="25"/>
     </row>
-    <row r="574" spans="1:11" s="6" customFormat="1">
+    <row r="574" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A574" s="21"/>
       <c r="B574" s="22"/>
       <c r="C574" s="22"/>
@@ -9632,7 +9772,7 @@
       <c r="J574" s="25"/>
       <c r="K574" s="25"/>
     </row>
-    <row r="575" spans="1:11" s="6" customFormat="1">
+    <row r="575" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A575" s="21"/>
       <c r="B575" s="22"/>
       <c r="C575" s="22"/>
@@ -9645,7 +9785,7 @@
       <c r="J575" s="25"/>
       <c r="K575" s="25"/>
     </row>
-    <row r="576" spans="1:11" s="6" customFormat="1">
+    <row r="576" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A576" s="21"/>
       <c r="B576" s="22"/>
       <c r="C576" s="22"/>
@@ -9658,7 +9798,7 @@
       <c r="J576" s="25"/>
       <c r="K576" s="25"/>
     </row>
-    <row r="577" spans="1:11" s="6" customFormat="1">
+    <row r="577" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A577" s="21"/>
       <c r="B577" s="22"/>
       <c r="C577" s="22"/>
@@ -9671,7 +9811,7 @@
       <c r="J577" s="25"/>
       <c r="K577" s="25"/>
     </row>
-    <row r="578" spans="1:11" s="6" customFormat="1">
+    <row r="578" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A578" s="21"/>
       <c r="B578" s="22"/>
       <c r="C578" s="22"/>
@@ -9684,7 +9824,7 @@
       <c r="J578" s="25"/>
       <c r="K578" s="25"/>
     </row>
-    <row r="579" spans="1:11" s="6" customFormat="1">
+    <row r="579" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A579" s="21"/>
       <c r="B579" s="22"/>
       <c r="C579" s="22"/>
@@ -9697,7 +9837,7 @@
       <c r="J579" s="25"/>
       <c r="K579" s="25"/>
     </row>
-    <row r="580" spans="1:11" s="6" customFormat="1">
+    <row r="580" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A580" s="21"/>
       <c r="B580" s="22"/>
       <c r="C580" s="22"/>
@@ -9710,7 +9850,7 @@
       <c r="J580" s="25"/>
       <c r="K580" s="25"/>
     </row>
-    <row r="581" spans="1:11" s="6" customFormat="1">
+    <row r="581" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A581" s="21"/>
       <c r="B581" s="22"/>
       <c r="C581" s="22"/>
@@ -9723,7 +9863,7 @@
       <c r="J581" s="25"/>
       <c r="K581" s="25"/>
     </row>
-    <row r="582" spans="1:11" s="6" customFormat="1">
+    <row r="582" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A582" s="21"/>
       <c r="B582" s="22"/>
       <c r="C582" s="22"/>
@@ -9736,7 +9876,7 @@
       <c r="J582" s="25"/>
       <c r="K582" s="25"/>
     </row>
-    <row r="583" spans="1:11" s="6" customFormat="1">
+    <row r="583" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A583" s="21"/>
       <c r="B583" s="22"/>
       <c r="C583" s="22"/>
@@ -9749,7 +9889,7 @@
       <c r="J583" s="25"/>
       <c r="K583" s="25"/>
     </row>
-    <row r="584" spans="1:11" s="6" customFormat="1">
+    <row r="584" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A584" s="21"/>
       <c r="B584" s="22"/>
       <c r="C584" s="22"/>
@@ -9762,7 +9902,7 @@
       <c r="J584" s="25"/>
       <c r="K584" s="25"/>
     </row>
-    <row r="585" spans="1:11" s="6" customFormat="1">
+    <row r="585" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A585" s="21"/>
       <c r="B585" s="22"/>
       <c r="C585" s="22"/>
@@ -9775,7 +9915,7 @@
       <c r="J585" s="25"/>
       <c r="K585" s="25"/>
     </row>
-    <row r="586" spans="1:11" s="6" customFormat="1">
+    <row r="586" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A586" s="21"/>
       <c r="B586" s="22"/>
       <c r="C586" s="22"/>
@@ -9788,7 +9928,7 @@
       <c r="J586" s="25"/>
       <c r="K586" s="25"/>
     </row>
-    <row r="587" spans="1:11" s="6" customFormat="1">
+    <row r="587" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A587" s="21"/>
       <c r="B587" s="22"/>
       <c r="C587" s="22"/>
@@ -9801,7 +9941,7 @@
       <c r="J587" s="25"/>
       <c r="K587" s="25"/>
     </row>
-    <row r="588" spans="1:11" s="6" customFormat="1">
+    <row r="588" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A588" s="21"/>
       <c r="B588" s="22"/>
       <c r="C588" s="22"/>
@@ -9814,7 +9954,7 @@
       <c r="J588" s="25"/>
       <c r="K588" s="25"/>
     </row>
-    <row r="589" spans="1:11" s="6" customFormat="1">
+    <row r="589" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A589" s="21"/>
       <c r="B589" s="22"/>
       <c r="C589" s="22"/>
@@ -9827,7 +9967,7 @@
       <c r="J589" s="25"/>
       <c r="K589" s="25"/>
     </row>
-    <row r="590" spans="1:11" s="6" customFormat="1">
+    <row r="590" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A590" s="21"/>
       <c r="B590" s="22"/>
       <c r="C590" s="22"/>
@@ -9840,7 +9980,7 @@
       <c r="J590" s="25"/>
       <c r="K590" s="25"/>
     </row>
-    <row r="591" spans="1:11" s="6" customFormat="1">
+    <row r="591" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A591" s="21"/>
       <c r="B591" s="22"/>
       <c r="C591" s="22"/>
@@ -9853,7 +9993,7 @@
       <c r="J591" s="25"/>
       <c r="K591" s="25"/>
     </row>
-    <row r="592" spans="1:11" s="6" customFormat="1">
+    <row r="592" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A592" s="21"/>
       <c r="B592" s="22"/>
       <c r="C592" s="22"/>
@@ -9866,7 +10006,7 @@
       <c r="J592" s="25"/>
       <c r="K592" s="25"/>
     </row>
-    <row r="593" spans="1:11" s="6" customFormat="1">
+    <row r="593" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A593" s="21"/>
       <c r="B593" s="22"/>
       <c r="C593" s="22"/>
@@ -9879,7 +10019,7 @@
       <c r="J593" s="25"/>
       <c r="K593" s="25"/>
     </row>
-    <row r="594" spans="1:11" s="6" customFormat="1">
+    <row r="594" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A594" s="21"/>
       <c r="B594" s="22"/>
       <c r="C594" s="22"/>
@@ -9892,7 +10032,7 @@
       <c r="J594" s="25"/>
       <c r="K594" s="25"/>
     </row>
-    <row r="595" spans="1:11" s="6" customFormat="1">
+    <row r="595" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A595" s="21"/>
       <c r="B595" s="22"/>
       <c r="C595" s="22"/>
@@ -9905,7 +10045,7 @@
       <c r="J595" s="25"/>
       <c r="K595" s="25"/>
     </row>
-    <row r="596" spans="1:11" s="6" customFormat="1">
+    <row r="596" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A596" s="21"/>
       <c r="B596" s="22"/>
       <c r="C596" s="22"/>
@@ -9918,7 +10058,7 @@
       <c r="J596" s="25"/>
       <c r="K596" s="25"/>
     </row>
-    <row r="597" spans="1:11" s="6" customFormat="1">
+    <row r="597" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A597" s="21"/>
       <c r="B597" s="22"/>
       <c r="C597" s="22"/>
@@ -9931,7 +10071,7 @@
       <c r="J597" s="25"/>
       <c r="K597" s="25"/>
     </row>
-    <row r="598" spans="1:11" s="6" customFormat="1">
+    <row r="598" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A598" s="21"/>
       <c r="B598" s="22"/>
       <c r="C598" s="22"/>
@@ -9944,7 +10084,7 @@
       <c r="J598" s="25"/>
       <c r="K598" s="25"/>
     </row>
-    <row r="599" spans="1:11" s="6" customFormat="1">
+    <row r="599" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A599" s="21"/>
       <c r="B599" s="22"/>
       <c r="C599" s="22"/>
@@ -9957,7 +10097,7 @@
       <c r="J599" s="25"/>
       <c r="K599" s="25"/>
     </row>
-    <row r="600" spans="1:11" s="6" customFormat="1">
+    <row r="600" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A600" s="21"/>
       <c r="B600" s="22"/>
       <c r="C600" s="22"/>
@@ -9970,7 +10110,7 @@
       <c r="J600" s="25"/>
       <c r="K600" s="25"/>
     </row>
-    <row r="601" spans="1:11" s="6" customFormat="1">
+    <row r="601" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A601" s="21"/>
       <c r="B601" s="22"/>
       <c r="C601" s="22"/>
@@ -9983,7 +10123,7 @@
       <c r="J601" s="25"/>
       <c r="K601" s="25"/>
     </row>
-    <row r="602" spans="1:11" s="6" customFormat="1">
+    <row r="602" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A602" s="21"/>
       <c r="B602" s="22"/>
       <c r="C602" s="22"/>
@@ -9996,7 +10136,7 @@
       <c r="J602" s="25"/>
       <c r="K602" s="25"/>
     </row>
-    <row r="603" spans="1:11" s="6" customFormat="1">
+    <row r="603" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A603" s="21"/>
       <c r="B603" s="22"/>
       <c r="C603" s="22"/>
@@ -10009,7 +10149,7 @@
       <c r="J603" s="25"/>
       <c r="K603" s="25"/>
     </row>
-    <row r="604" spans="1:11" s="6" customFormat="1">
+    <row r="604" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A604" s="21"/>
       <c r="B604" s="22"/>
       <c r="C604" s="22"/>
@@ -10022,7 +10162,7 @@
       <c r="J604" s="25"/>
       <c r="K604" s="25"/>
     </row>
-    <row r="605" spans="1:11" s="6" customFormat="1">
+    <row r="605" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A605" s="21"/>
       <c r="B605" s="22"/>
       <c r="C605" s="22"/>
@@ -10035,7 +10175,7 @@
       <c r="J605" s="25"/>
       <c r="K605" s="25"/>
     </row>
-    <row r="606" spans="1:11" s="6" customFormat="1">
+    <row r="606" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A606" s="21"/>
       <c r="B606" s="22"/>
       <c r="C606" s="22"/>
@@ -10048,7 +10188,7 @@
       <c r="J606" s="25"/>
       <c r="K606" s="25"/>
     </row>
-    <row r="607" spans="1:11" s="6" customFormat="1">
+    <row r="607" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A607" s="21"/>
       <c r="B607" s="22"/>
       <c r="C607" s="22"/>
@@ -10061,7 +10201,7 @@
       <c r="J607" s="25"/>
       <c r="K607" s="25"/>
     </row>
-    <row r="608" spans="1:11" s="6" customFormat="1">
+    <row r="608" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A608" s="21"/>
       <c r="B608" s="22"/>
       <c r="C608" s="22"/>
@@ -10074,7 +10214,7 @@
       <c r="J608" s="25"/>
       <c r="K608" s="25"/>
     </row>
-    <row r="609" spans="1:11" s="6" customFormat="1">
+    <row r="609" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A609" s="21"/>
       <c r="B609" s="22"/>
       <c r="C609" s="22"/>
@@ -10087,7 +10227,7 @@
       <c r="J609" s="25"/>
       <c r="K609" s="25"/>
     </row>
-    <row r="610" spans="1:11" s="6" customFormat="1">
+    <row r="610" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A610" s="21"/>
       <c r="B610" s="22"/>
       <c r="C610" s="22"/>
@@ -10100,7 +10240,7 @@
       <c r="J610" s="25"/>
       <c r="K610" s="25"/>
     </row>
-    <row r="611" spans="1:11" s="6" customFormat="1">
+    <row r="611" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A611" s="21"/>
       <c r="B611" s="22"/>
       <c r="C611" s="22"/>
@@ -10113,7 +10253,7 @@
       <c r="J611" s="25"/>
       <c r="K611" s="25"/>
     </row>
-    <row r="612" spans="1:11" s="6" customFormat="1">
+    <row r="612" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A612" s="21"/>
       <c r="B612" s="22"/>
       <c r="C612" s="22"/>
@@ -10126,7 +10266,7 @@
       <c r="J612" s="25"/>
       <c r="K612" s="25"/>
     </row>
-    <row r="613" spans="1:11" s="6" customFormat="1">
+    <row r="613" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A613" s="21"/>
       <c r="B613" s="22"/>
       <c r="C613" s="22"/>
@@ -10139,7 +10279,7 @@
       <c r="J613" s="25"/>
       <c r="K613" s="25"/>
     </row>
-    <row r="614" spans="1:11" s="6" customFormat="1">
+    <row r="614" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A614" s="21"/>
       <c r="B614" s="22"/>
       <c r="C614" s="22"/>
@@ -10152,7 +10292,7 @@
       <c r="J614" s="25"/>
       <c r="K614" s="25"/>
     </row>
-    <row r="615" spans="1:11" s="6" customFormat="1">
+    <row r="615" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A615" s="21"/>
       <c r="B615" s="22"/>
       <c r="C615" s="22"/>
@@ -10165,7 +10305,7 @@
       <c r="J615" s="25"/>
       <c r="K615" s="25"/>
     </row>
-    <row r="616" spans="1:11" s="6" customFormat="1">
+    <row r="616" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A616" s="21"/>
       <c r="B616" s="22"/>
       <c r="C616" s="22"/>
@@ -10178,7 +10318,7 @@
       <c r="J616" s="25"/>
       <c r="K616" s="25"/>
     </row>
-    <row r="617" spans="1:11" s="6" customFormat="1">
+    <row r="617" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A617" s="21"/>
       <c r="B617" s="22"/>
       <c r="C617" s="22"/>
@@ -10191,7 +10331,7 @@
       <c r="J617" s="25"/>
       <c r="K617" s="25"/>
     </row>
-    <row r="618" spans="1:11" s="6" customFormat="1">
+    <row r="618" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A618" s="21"/>
       <c r="B618" s="22"/>
       <c r="C618" s="22"/>
@@ -10204,7 +10344,7 @@
       <c r="J618" s="25"/>
       <c r="K618" s="25"/>
     </row>
-    <row r="619" spans="1:11" s="6" customFormat="1">
+    <row r="619" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A619" s="21"/>
       <c r="B619" s="22"/>
       <c r="C619" s="22"/>
@@ -10217,7 +10357,7 @@
       <c r="J619" s="25"/>
       <c r="K619" s="25"/>
     </row>
-    <row r="620" spans="1:11" s="6" customFormat="1">
+    <row r="620" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A620" s="21"/>
       <c r="B620" s="22"/>
       <c r="C620" s="22"/>
@@ -10230,7 +10370,7 @@
       <c r="J620" s="25"/>
       <c r="K620" s="25"/>
     </row>
-    <row r="621" spans="1:11" s="6" customFormat="1">
+    <row r="621" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A621" s="21"/>
       <c r="B621" s="22"/>
       <c r="C621" s="22"/>
@@ -10243,7 +10383,7 @@
       <c r="J621" s="25"/>
       <c r="K621" s="25"/>
     </row>
-    <row r="622" spans="1:11" s="6" customFormat="1">
+    <row r="622" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A622" s="21"/>
       <c r="B622" s="22"/>
       <c r="C622" s="22"/>
@@ -10256,7 +10396,7 @@
       <c r="J622" s="25"/>
       <c r="K622" s="25"/>
     </row>
-    <row r="623" spans="1:11" s="6" customFormat="1">
+    <row r="623" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A623" s="21"/>
       <c r="B623" s="22"/>
       <c r="C623" s="22"/>
@@ -10269,7 +10409,7 @@
       <c r="J623" s="25"/>
       <c r="K623" s="25"/>
     </row>
-    <row r="624" spans="1:11" s="6" customFormat="1">
+    <row r="624" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A624" s="21"/>
       <c r="B624" s="22"/>
       <c r="C624" s="22"/>
@@ -10282,7 +10422,7 @@
       <c r="J624" s="25"/>
       <c r="K624" s="25"/>
     </row>
-    <row r="625" spans="1:11" s="6" customFormat="1">
+    <row r="625" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A625" s="21"/>
       <c r="B625" s="22"/>
       <c r="C625" s="22"/>
@@ -10295,7 +10435,7 @@
       <c r="J625" s="25"/>
       <c r="K625" s="25"/>
     </row>
-    <row r="626" spans="1:11" s="6" customFormat="1">
+    <row r="626" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A626" s="21"/>
       <c r="B626" s="22"/>
       <c r="C626" s="22"/>
@@ -10308,7 +10448,7 @@
       <c r="J626" s="25"/>
       <c r="K626" s="25"/>
     </row>
-    <row r="627" spans="1:11" s="6" customFormat="1">
+    <row r="627" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A627" s="21"/>
       <c r="B627" s="22"/>
       <c r="C627" s="22"/>
@@ -10321,7 +10461,7 @@
       <c r="J627" s="25"/>
       <c r="K627" s="25"/>
     </row>
-    <row r="628" spans="1:11" s="6" customFormat="1">
+    <row r="628" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A628" s="21"/>
       <c r="B628" s="22"/>
       <c r="C628" s="22"/>
@@ -10334,7 +10474,7 @@
       <c r="J628" s="25"/>
       <c r="K628" s="25"/>
     </row>
-    <row r="629" spans="1:11" s="6" customFormat="1">
+    <row r="629" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A629" s="21"/>
       <c r="B629" s="22"/>
       <c r="C629" s="22"/>
@@ -10347,7 +10487,7 @@
       <c r="J629" s="25"/>
       <c r="K629" s="25"/>
     </row>
-    <row r="630" spans="1:11" s="6" customFormat="1">
+    <row r="630" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A630" s="21"/>
       <c r="B630" s="22"/>
       <c r="C630" s="22"/>
@@ -10360,7 +10500,7 @@
       <c r="J630" s="25"/>
       <c r="K630" s="25"/>
     </row>
-    <row r="631" spans="1:11" s="6" customFormat="1">
+    <row r="631" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A631" s="21"/>
       <c r="B631" s="22"/>
       <c r="C631" s="22"/>
@@ -10373,7 +10513,7 @@
       <c r="J631" s="25"/>
       <c r="K631" s="25"/>
     </row>
-    <row r="632" spans="1:11" s="6" customFormat="1">
+    <row r="632" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A632" s="21"/>
       <c r="B632" s="22"/>
       <c r="C632" s="22"/>
@@ -10386,7 +10526,7 @@
       <c r="J632" s="25"/>
       <c r="K632" s="25"/>
     </row>
-    <row r="633" spans="1:11" s="6" customFormat="1">
+    <row r="633" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A633" s="21"/>
       <c r="B633" s="22"/>
       <c r="C633" s="22"/>
@@ -10399,7 +10539,7 @@
       <c r="J633" s="25"/>
       <c r="K633" s="25"/>
     </row>
-    <row r="634" spans="1:11" s="6" customFormat="1">
+    <row r="634" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A634" s="21"/>
       <c r="B634" s="22"/>
       <c r="C634" s="22"/>
@@ -10412,7 +10552,7 @@
       <c r="J634" s="25"/>
       <c r="K634" s="25"/>
     </row>
-    <row r="635" spans="1:11" s="6" customFormat="1">
+    <row r="635" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A635" s="21"/>
       <c r="B635" s="22"/>
       <c r="C635" s="22"/>
@@ -10425,7 +10565,7 @@
       <c r="J635" s="25"/>
       <c r="K635" s="25"/>
     </row>
-    <row r="636" spans="1:11" s="6" customFormat="1">
+    <row r="636" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A636" s="21"/>
       <c r="B636" s="22"/>
       <c r="C636" s="22"/>
@@ -10438,7 +10578,7 @@
       <c r="J636" s="25"/>
       <c r="K636" s="25"/>
     </row>
-    <row r="637" spans="1:11" s="6" customFormat="1">
+    <row r="637" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A637" s="21"/>
       <c r="B637" s="22"/>
       <c r="C637" s="22"/>
@@ -10451,7 +10591,7 @@
       <c r="J637" s="25"/>
       <c r="K637" s="25"/>
     </row>
-    <row r="638" spans="1:11" s="6" customFormat="1">
+    <row r="638" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A638" s="21"/>
       <c r="B638" s="22"/>
       <c r="C638" s="22"/>
@@ -10464,7 +10604,7 @@
       <c r="J638" s="25"/>
       <c r="K638" s="25"/>
     </row>
-    <row r="639" spans="1:11" s="6" customFormat="1">
+    <row r="639" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A639" s="21"/>
       <c r="B639" s="22"/>
       <c r="C639" s="22"/>
@@ -10477,7 +10617,7 @@
       <c r="J639" s="25"/>
       <c r="K639" s="25"/>
     </row>
-    <row r="640" spans="1:11" s="6" customFormat="1">
+    <row r="640" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A640" s="21"/>
       <c r="B640" s="22"/>
       <c r="C640" s="22"/>
@@ -10490,7 +10630,7 @@
       <c r="J640" s="25"/>
       <c r="K640" s="25"/>
     </row>
-    <row r="641" spans="1:11" s="6" customFormat="1">
+    <row r="641" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A641" s="21"/>
       <c r="B641" s="22"/>
       <c r="C641" s="22"/>
@@ -10503,7 +10643,7 @@
       <c r="J641" s="25"/>
       <c r="K641" s="25"/>
     </row>
-    <row r="642" spans="1:11" s="6" customFormat="1">
+    <row r="642" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A642" s="21"/>
       <c r="B642" s="22"/>
       <c r="C642" s="22"/>
@@ -10516,7 +10656,7 @@
       <c r="J642" s="25"/>
       <c r="K642" s="25"/>
     </row>
-    <row r="643" spans="1:11" s="6" customFormat="1">
+    <row r="643" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A643" s="21"/>
       <c r="B643" s="22"/>
       <c r="C643" s="22"/>
@@ -10529,7 +10669,7 @@
       <c r="J643" s="25"/>
       <c r="K643" s="25"/>
     </row>
-    <row r="644" spans="1:11" s="6" customFormat="1">
+    <row r="644" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A644" s="21"/>
       <c r="B644" s="22"/>
       <c r="C644" s="22"/>
@@ -10542,7 +10682,7 @@
       <c r="J644" s="25"/>
       <c r="K644" s="25"/>
     </row>
-    <row r="645" spans="1:11" s="6" customFormat="1">
+    <row r="645" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A645" s="21"/>
       <c r="B645" s="22"/>
       <c r="C645" s="22"/>
@@ -10555,7 +10695,7 @@
       <c r="J645" s="25"/>
       <c r="K645" s="25"/>
     </row>
-    <row r="646" spans="1:11" s="6" customFormat="1">
+    <row r="646" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A646" s="21"/>
       <c r="B646" s="22"/>
       <c r="C646" s="22"/>
@@ -10568,7 +10708,7 @@
       <c r="J646" s="25"/>
       <c r="K646" s="25"/>
     </row>
-    <row r="647" spans="1:11" s="6" customFormat="1">
+    <row r="647" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A647" s="21"/>
       <c r="B647" s="22"/>
       <c r="C647" s="22"/>
@@ -10581,7 +10721,7 @@
       <c r="J647" s="25"/>
       <c r="K647" s="25"/>
     </row>
-    <row r="648" spans="1:11" s="6" customFormat="1">
+    <row r="648" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A648" s="21"/>
       <c r="B648" s="22"/>
       <c r="C648" s="22"/>
@@ -10594,7 +10734,7 @@
       <c r="J648" s="25"/>
       <c r="K648" s="25"/>
     </row>
-    <row r="649" spans="1:11" s="6" customFormat="1">
+    <row r="649" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A649" s="21"/>
       <c r="B649" s="22"/>
       <c r="C649" s="22"/>
@@ -10607,7 +10747,7 @@
       <c r="J649" s="25"/>
       <c r="K649" s="25"/>
     </row>
-    <row r="650" spans="1:11" s="6" customFormat="1">
+    <row r="650" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A650" s="21"/>
       <c r="B650" s="22"/>
       <c r="C650" s="22"/>
@@ -10620,7 +10760,7 @@
       <c r="J650" s="25"/>
       <c r="K650" s="25"/>
     </row>
-    <row r="651" spans="1:11" s="6" customFormat="1">
+    <row r="651" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A651" s="21"/>
       <c r="B651" s="22"/>
       <c r="C651" s="22"/>
@@ -10633,7 +10773,7 @@
       <c r="J651" s="25"/>
       <c r="K651" s="25"/>
     </row>
-    <row r="652" spans="1:11" s="6" customFormat="1">
+    <row r="652" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A652" s="21"/>
       <c r="B652" s="22"/>
       <c r="C652" s="22"/>
@@ -10646,7 +10786,7 @@
       <c r="J652" s="25"/>
       <c r="K652" s="25"/>
     </row>
-    <row r="653" spans="1:11" s="6" customFormat="1">
+    <row r="653" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A653" s="21"/>
       <c r="B653" s="22"/>
       <c r="C653" s="22"/>
@@ -10659,7 +10799,7 @@
       <c r="J653" s="25"/>
       <c r="K653" s="25"/>
     </row>
-    <row r="654" spans="1:11" s="6" customFormat="1">
+    <row r="654" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A654" s="21"/>
       <c r="B654" s="22"/>
       <c r="C654" s="22"/>
@@ -10672,7 +10812,7 @@
       <c r="J654" s="25"/>
       <c r="K654" s="25"/>
     </row>
-    <row r="655" spans="1:11" s="6" customFormat="1">
+    <row r="655" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A655" s="21"/>
       <c r="B655" s="22"/>
       <c r="C655" s="22"/>
@@ -10685,7 +10825,7 @@
       <c r="J655" s="25"/>
       <c r="K655" s="25"/>
     </row>
-    <row r="656" spans="1:11" s="6" customFormat="1">
+    <row r="656" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A656" s="21"/>
       <c r="B656" s="22"/>
       <c r="C656" s="22"/>
@@ -10698,7 +10838,7 @@
       <c r="J656" s="25"/>
       <c r="K656" s="25"/>
     </row>
-    <row r="657" spans="1:11" s="6" customFormat="1">
+    <row r="657" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A657" s="21"/>
       <c r="B657" s="22"/>
       <c r="C657" s="22"/>
@@ -10711,7 +10851,7 @@
       <c r="J657" s="25"/>
       <c r="K657" s="25"/>
     </row>
-    <row r="658" spans="1:11" s="6" customFormat="1">
+    <row r="658" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A658" s="21"/>
       <c r="B658" s="22"/>
       <c r="C658" s="22"/>
@@ -10724,7 +10864,7 @@
       <c r="J658" s="25"/>
       <c r="K658" s="25"/>
     </row>
-    <row r="659" spans="1:11" s="6" customFormat="1">
+    <row r="659" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A659" s="21"/>
       <c r="B659" s="22"/>
       <c r="C659" s="22"/>
@@ -10737,7 +10877,7 @@
       <c r="J659" s="25"/>
       <c r="K659" s="25"/>
     </row>
-    <row r="660" spans="1:11" s="6" customFormat="1">
+    <row r="660" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A660" s="21"/>
       <c r="B660" s="22"/>
       <c r="C660" s="22"/>
@@ -10750,7 +10890,7 @@
       <c r="J660" s="25"/>
       <c r="K660" s="25"/>
     </row>
-    <row r="661" spans="1:11" s="6" customFormat="1">
+    <row r="661" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A661" s="21"/>
       <c r="B661" s="22"/>
       <c r="C661" s="22"/>
@@ -10763,7 +10903,7 @@
       <c r="J661" s="25"/>
       <c r="K661" s="25"/>
     </row>
-    <row r="662" spans="1:11" s="6" customFormat="1">
+    <row r="662" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A662" s="21"/>
       <c r="B662" s="22"/>
       <c r="C662" s="22"/>
@@ -10776,7 +10916,7 @@
       <c r="J662" s="25"/>
       <c r="K662" s="25"/>
     </row>
-    <row r="663" spans="1:11" s="6" customFormat="1">
+    <row r="663" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A663" s="21"/>
       <c r="B663" s="22"/>
       <c r="C663" s="22"/>
@@ -10789,7 +10929,7 @@
       <c r="J663" s="25"/>
       <c r="K663" s="25"/>
     </row>
-    <row r="664" spans="1:11" s="6" customFormat="1">
+    <row r="664" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A664" s="21"/>
       <c r="B664" s="22"/>
       <c r="C664" s="22"/>
@@ -10802,7 +10942,7 @@
       <c r="J664" s="25"/>
       <c r="K664" s="25"/>
     </row>
-    <row r="665" spans="1:11" s="6" customFormat="1">
+    <row r="665" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A665" s="21"/>
       <c r="B665" s="22"/>
       <c r="C665" s="22"/>
@@ -10815,7 +10955,7 @@
       <c r="J665" s="25"/>
       <c r="K665" s="25"/>
     </row>
-    <row r="666" spans="1:11" s="6" customFormat="1">
+    <row r="666" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A666" s="21"/>
       <c r="B666" s="22"/>
       <c r="C666" s="22"/>
@@ -10828,7 +10968,7 @@
       <c r="J666" s="25"/>
       <c r="K666" s="25"/>
     </row>
-    <row r="667" spans="1:11" s="6" customFormat="1">
+    <row r="667" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A667" s="21"/>
       <c r="B667" s="22"/>
       <c r="C667" s="22"/>
@@ -10841,7 +10981,7 @@
       <c r="J667" s="25"/>
       <c r="K667" s="25"/>
     </row>
-    <row r="668" spans="1:11" s="6" customFormat="1">
+    <row r="668" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A668" s="21"/>
       <c r="B668" s="22"/>
       <c r="C668" s="22"/>
@@ -10854,7 +10994,7 @@
       <c r="J668" s="25"/>
       <c r="K668" s="25"/>
     </row>
-    <row r="669" spans="1:11" s="6" customFormat="1">
+    <row r="669" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A669" s="21"/>
       <c r="B669" s="22"/>
       <c r="C669" s="22"/>
@@ -10867,7 +11007,7 @@
       <c r="J669" s="25"/>
       <c r="K669" s="25"/>
     </row>
-    <row r="670" spans="1:11" s="6" customFormat="1">
+    <row r="670" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A670" s="21"/>
       <c r="B670" s="22"/>
       <c r="C670" s="22"/>
@@ -10880,7 +11020,7 @@
       <c r="J670" s="25"/>
       <c r="K670" s="25"/>
     </row>
-    <row r="671" spans="1:11" s="6" customFormat="1">
+    <row r="671" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A671" s="21"/>
       <c r="B671" s="22"/>
       <c r="C671" s="22"/>
@@ -10893,7 +11033,7 @@
       <c r="J671" s="25"/>
       <c r="K671" s="25"/>
     </row>
-    <row r="672" spans="1:11" s="6" customFormat="1">
+    <row r="672" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A672" s="21"/>
       <c r="B672" s="22"/>
       <c r="C672" s="22"/>
@@ -10906,7 +11046,7 @@
       <c r="J672" s="25"/>
       <c r="K672" s="25"/>
     </row>
-    <row r="673" spans="1:11" s="6" customFormat="1">
+    <row r="673" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A673" s="21"/>
       <c r="B673" s="22"/>
       <c r="C673" s="22"/>
@@ -10919,7 +11059,7 @@
       <c r="J673" s="25"/>
       <c r="K673" s="25"/>
     </row>
-    <row r="674" spans="1:11" s="6" customFormat="1">
+    <row r="674" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A674" s="21"/>
       <c r="B674" s="22"/>
       <c r="C674" s="22"/>
@@ -10932,7 +11072,7 @@
       <c r="J674" s="25"/>
       <c r="K674" s="25"/>
     </row>
-    <row r="675" spans="1:11" s="6" customFormat="1">
+    <row r="675" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A675" s="21"/>
       <c r="B675" s="22"/>
       <c r="C675" s="22"/>
@@ -10945,7 +11085,7 @@
       <c r="J675" s="25"/>
       <c r="K675" s="25"/>
     </row>
-    <row r="676" spans="1:11" s="6" customFormat="1">
+    <row r="676" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A676" s="21"/>
       <c r="B676" s="22"/>
       <c r="C676" s="22"/>
@@ -10958,7 +11098,7 @@
       <c r="J676" s="25"/>
       <c r="K676" s="25"/>
     </row>
-    <row r="677" spans="1:11" s="6" customFormat="1">
+    <row r="677" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A677" s="21"/>
       <c r="B677" s="22"/>
       <c r="C677" s="22"/>
@@ -10971,7 +11111,7 @@
       <c r="J677" s="25"/>
       <c r="K677" s="25"/>
     </row>
-    <row r="678" spans="1:11" s="6" customFormat="1">
+    <row r="678" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A678" s="21"/>
       <c r="B678" s="22"/>
       <c r="C678" s="22"/>
@@ -10984,7 +11124,7 @@
       <c r="J678" s="25"/>
       <c r="K678" s="25"/>
     </row>
-    <row r="679" spans="1:11" s="6" customFormat="1">
+    <row r="679" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A679" s="21"/>
       <c r="B679" s="22"/>
       <c r="C679" s="22"/>
@@ -10997,7 +11137,7 @@
       <c r="J679" s="25"/>
       <c r="K679" s="25"/>
     </row>
-    <row r="680" spans="1:11" s="6" customFormat="1">
+    <row r="680" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A680" s="21"/>
       <c r="B680" s="22"/>
       <c r="C680" s="22"/>
@@ -11010,7 +11150,7 @@
       <c r="J680" s="25"/>
       <c r="K680" s="25"/>
     </row>
-    <row r="681" spans="1:11" s="6" customFormat="1">
+    <row r="681" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A681" s="21"/>
       <c r="B681" s="22"/>
       <c r="C681" s="22"/>
@@ -11023,7 +11163,7 @@
       <c r="J681" s="25"/>
       <c r="K681" s="25"/>
     </row>
-    <row r="682" spans="1:11" s="6" customFormat="1">
+    <row r="682" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A682" s="21"/>
       <c r="B682" s="22"/>
       <c r="C682" s="22"/>
@@ -11036,7 +11176,7 @@
       <c r="J682" s="25"/>
       <c r="K682" s="25"/>
     </row>
-    <row r="683" spans="1:11" s="6" customFormat="1">
+    <row r="683" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A683" s="21"/>
       <c r="B683" s="22"/>
       <c r="C683" s="22"/>
@@ -11049,7 +11189,7 @@
       <c r="J683" s="25"/>
       <c r="K683" s="25"/>
     </row>
-    <row r="684" spans="1:11" s="6" customFormat="1">
+    <row r="684" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A684" s="21"/>
       <c r="B684" s="22"/>
       <c r="C684" s="22"/>
@@ -11062,7 +11202,7 @@
       <c r="J684" s="25"/>
       <c r="K684" s="25"/>
     </row>
-    <row r="685" spans="1:11" s="6" customFormat="1">
+    <row r="685" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A685" s="21"/>
       <c r="B685" s="22"/>
       <c r="C685" s="22"/>
@@ -11075,7 +11215,7 @@
       <c r="J685" s="25"/>
       <c r="K685" s="25"/>
     </row>
-    <row r="686" spans="1:11" s="6" customFormat="1">
+    <row r="686" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A686" s="21"/>
       <c r="B686" s="22"/>
       <c r="C686" s="22"/>
@@ -11088,7 +11228,7 @@
       <c r="J686" s="25"/>
       <c r="K686" s="25"/>
     </row>
-    <row r="687" spans="1:11" s="6" customFormat="1">
+    <row r="687" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A687" s="21"/>
       <c r="B687" s="22"/>
       <c r="C687" s="22"/>
@@ -11101,7 +11241,7 @@
       <c r="J687" s="25"/>
       <c r="K687" s="25"/>
     </row>
-    <row r="688" spans="1:11" s="6" customFormat="1">
+    <row r="688" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A688" s="21"/>
       <c r="B688" s="22"/>
       <c r="C688" s="22"/>
@@ -11114,7 +11254,7 @@
       <c r="J688" s="25"/>
       <c r="K688" s="25"/>
     </row>
-    <row r="689" spans="1:11" s="6" customFormat="1">
+    <row r="689" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A689" s="21"/>
       <c r="B689" s="22"/>
       <c r="C689" s="22"/>
@@ -11127,7 +11267,7 @@
       <c r="J689" s="25"/>
       <c r="K689" s="25"/>
     </row>
-    <row r="690" spans="1:11" s="6" customFormat="1">
+    <row r="690" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A690" s="21"/>
       <c r="B690" s="22"/>
       <c r="C690" s="22"/>
@@ -11140,7 +11280,7 @@
       <c r="J690" s="25"/>
       <c r="K690" s="25"/>
     </row>
-    <row r="691" spans="1:11" s="6" customFormat="1">
+    <row r="691" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A691" s="21"/>
       <c r="B691" s="22"/>
       <c r="C691" s="22"/>
@@ -11153,7 +11293,7 @@
       <c r="J691" s="25"/>
       <c r="K691" s="25"/>
     </row>
-    <row r="692" spans="1:11" s="6" customFormat="1">
+    <row r="692" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A692" s="21"/>
       <c r="B692" s="22"/>
       <c r="C692" s="22"/>
@@ -11166,7 +11306,7 @@
       <c r="J692" s="25"/>
       <c r="K692" s="25"/>
     </row>
-    <row r="693" spans="1:11" s="6" customFormat="1">
+    <row r="693" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A693" s="21"/>
       <c r="B693" s="22"/>
       <c r="C693" s="22"/>
@@ -11179,7 +11319,7 @@
       <c r="J693" s="25"/>
       <c r="K693" s="25"/>
     </row>
-    <row r="694" spans="1:11" s="6" customFormat="1">
+    <row r="694" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A694" s="21"/>
       <c r="B694" s="22"/>
       <c r="C694" s="22"/>
@@ -11192,7 +11332,7 @@
       <c r="J694" s="25"/>
       <c r="K694" s="25"/>
     </row>
-    <row r="695" spans="1:11" s="6" customFormat="1">
+    <row r="695" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A695" s="21"/>
       <c r="B695" s="22"/>
       <c r="C695" s="22"/>
@@ -11205,7 +11345,7 @@
       <c r="J695" s="25"/>
       <c r="K695" s="25"/>
     </row>
-    <row r="696" spans="1:11" s="6" customFormat="1">
+    <row r="696" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A696" s="21"/>
       <c r="B696" s="22"/>
       <c r="C696" s="22"/>
@@ -11218,7 +11358,7 @@
       <c r="J696" s="25"/>
       <c r="K696" s="25"/>
     </row>
-    <row r="697" spans="1:11" s="6" customFormat="1">
+    <row r="697" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A697" s="21"/>
       <c r="B697" s="22"/>
       <c r="C697" s="22"/>
@@ -11231,7 +11371,7 @@
       <c r="J697" s="25"/>
       <c r="K697" s="25"/>
     </row>
-    <row r="698" spans="1:11" s="6" customFormat="1">
+    <row r="698" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A698" s="21"/>
       <c r="B698" s="22"/>
       <c r="C698" s="22"/>
@@ -11244,7 +11384,7 @@
       <c r="J698" s="25"/>
       <c r="K698" s="25"/>
     </row>
-    <row r="699" spans="1:11" s="6" customFormat="1">
+    <row r="699" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A699" s="21"/>
       <c r="B699" s="22"/>
       <c r="C699" s="22"/>
@@ -11257,7 +11397,7 @@
       <c r="J699" s="25"/>
       <c r="K699" s="25"/>
     </row>
-    <row r="700" spans="1:11" s="6" customFormat="1">
+    <row r="700" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A700" s="21"/>
       <c r="B700" s="22"/>
       <c r="C700" s="22"/>
@@ -11270,7 +11410,7 @@
       <c r="J700" s="25"/>
       <c r="K700" s="25"/>
     </row>
-    <row r="701" spans="1:11" s="6" customFormat="1">
+    <row r="701" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A701" s="21"/>
       <c r="B701" s="22"/>
       <c r="C701" s="22"/>
@@ -11283,7 +11423,7 @@
       <c r="J701" s="25"/>
       <c r="K701" s="25"/>
     </row>
-    <row r="702" spans="1:11" s="6" customFormat="1">
+    <row r="702" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A702" s="21"/>
       <c r="B702" s="22"/>
       <c r="C702" s="22"/>
@@ -11296,7 +11436,7 @@
       <c r="J702" s="25"/>
       <c r="K702" s="25"/>
     </row>
-    <row r="703" spans="1:11" s="6" customFormat="1">
+    <row r="703" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A703" s="21"/>
       <c r="B703" s="22"/>
       <c r="C703" s="22"/>
@@ -11309,7 +11449,7 @@
       <c r="J703" s="25"/>
       <c r="K703" s="25"/>
     </row>
-    <row r="704" spans="1:11" s="6" customFormat="1">
+    <row r="704" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A704" s="21"/>
       <c r="B704" s="22"/>
       <c r="C704" s="22"/>
@@ -11322,7 +11462,7 @@
       <c r="J704" s="25"/>
       <c r="K704" s="25"/>
     </row>
-    <row r="705" spans="1:11" s="6" customFormat="1">
+    <row r="705" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A705" s="21"/>
       <c r="B705" s="22"/>
       <c r="C705" s="22"/>
@@ -11335,7 +11475,7 @@
       <c r="J705" s="25"/>
       <c r="K705" s="25"/>
     </row>
-    <row r="706" spans="1:11" s="6" customFormat="1">
+    <row r="706" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A706" s="21"/>
       <c r="B706" s="22"/>
       <c r="C706" s="22"/>
@@ -11348,7 +11488,7 @@
       <c r="J706" s="25"/>
       <c r="K706" s="25"/>
     </row>
-    <row r="707" spans="1:11" s="6" customFormat="1">
+    <row r="707" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A707" s="21"/>
       <c r="B707" s="22"/>
       <c r="C707" s="22"/>
@@ -11361,7 +11501,7 @@
       <c r="J707" s="25"/>
       <c r="K707" s="25"/>
     </row>
-    <row r="708" spans="1:11" s="6" customFormat="1">
+    <row r="708" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A708" s="21"/>
       <c r="B708" s="22"/>
       <c r="C708" s="22"/>
@@ -11374,7 +11514,7 @@
       <c r="J708" s="25"/>
       <c r="K708" s="25"/>
     </row>
-    <row r="709" spans="1:11" s="6" customFormat="1">
+    <row r="709" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A709" s="21"/>
       <c r="B709" s="22"/>
       <c r="C709" s="22"/>
@@ -11387,7 +11527,7 @@
       <c r="J709" s="25"/>
       <c r="K709" s="25"/>
     </row>
-    <row r="710" spans="1:11" s="6" customFormat="1">
+    <row r="710" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A710" s="21"/>
       <c r="B710" s="22"/>
       <c r="C710" s="22"/>
@@ -11400,7 +11540,7 @@
       <c r="J710" s="25"/>
       <c r="K710" s="25"/>
     </row>
-    <row r="711" spans="1:11" s="6" customFormat="1">
+    <row r="711" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A711" s="21"/>
       <c r="B711" s="22"/>
       <c r="C711" s="22"/>
@@ -11413,7 +11553,7 @@
       <c r="J711" s="25"/>
       <c r="K711" s="25"/>
     </row>
-    <row r="712" spans="1:11" s="6" customFormat="1">
+    <row r="712" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A712" s="21"/>
       <c r="B712" s="22"/>
       <c r="C712" s="22"/>
@@ -11426,7 +11566,7 @@
       <c r="J712" s="25"/>
       <c r="K712" s="25"/>
     </row>
-    <row r="713" spans="1:11" s="6" customFormat="1">
+    <row r="713" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A713" s="21"/>
       <c r="B713" s="22"/>
       <c r="C713" s="22"/>
@@ -11439,7 +11579,7 @@
       <c r="J713" s="25"/>
       <c r="K713" s="25"/>
     </row>
-    <row r="714" spans="1:11" s="6" customFormat="1">
+    <row r="714" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A714" s="21"/>
       <c r="B714" s="22"/>
       <c r="C714" s="22"/>
@@ -11452,7 +11592,7 @@
       <c r="J714" s="25"/>
       <c r="K714" s="25"/>
     </row>
-    <row r="715" spans="1:11" s="6" customFormat="1">
+    <row r="715" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A715" s="21"/>
       <c r="B715" s="22"/>
       <c r="C715" s="22"/>
@@ -11465,7 +11605,7 @@
       <c r="J715" s="25"/>
       <c r="K715" s="25"/>
     </row>
-    <row r="716" spans="1:11" s="6" customFormat="1">
+    <row r="716" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A716" s="21"/>
       <c r="B716" s="22"/>
       <c r="C716" s="22"/>
@@ -11478,7 +11618,7 @@
       <c r="J716" s="25"/>
       <c r="K716" s="25"/>
     </row>
-    <row r="717" spans="1:11" s="6" customFormat="1">
+    <row r="717" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A717" s="21"/>
       <c r="B717" s="22"/>
       <c r="C717" s="22"/>
@@ -11491,7 +11631,7 @@
       <c r="J717" s="25"/>
       <c r="K717" s="25"/>
     </row>
-    <row r="718" spans="1:11" s="6" customFormat="1">
+    <row r="718" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A718" s="21"/>
       <c r="B718" s="22"/>
       <c r="C718" s="22"/>
@@ -11504,7 +11644,7 @@
       <c r="J718" s="25"/>
       <c r="K718" s="25"/>
     </row>
-    <row r="719" spans="1:11" s="6" customFormat="1">
+    <row r="719" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A719" s="21"/>
       <c r="B719" s="22"/>
       <c r="C719" s="22"/>
@@ -11517,7 +11657,7 @@
       <c r="J719" s="25"/>
       <c r="K719" s="25"/>
     </row>
-    <row r="720" spans="1:11" s="6" customFormat="1">
+    <row r="720" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A720" s="21"/>
       <c r="B720" s="22"/>
       <c r="C720" s="22"/>
@@ -11530,7 +11670,7 @@
       <c r="J720" s="25"/>
       <c r="K720" s="25"/>
     </row>
-    <row r="721" spans="1:11" s="6" customFormat="1">
+    <row r="721" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A721" s="21"/>
       <c r="B721" s="22"/>
       <c r="C721" s="22"/>
@@ -11543,7 +11683,7 @@
       <c r="J721" s="25"/>
       <c r="K721" s="25"/>
     </row>
-    <row r="722" spans="1:11" s="6" customFormat="1">
+    <row r="722" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A722" s="21"/>
       <c r="B722" s="22"/>
       <c r="C722" s="22"/>
@@ -11556,7 +11696,7 @@
       <c r="J722" s="25"/>
       <c r="K722" s="25"/>
     </row>
-    <row r="723" spans="1:11" s="6" customFormat="1">
+    <row r="723" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A723" s="21"/>
       <c r="B723" s="22"/>
       <c r="C723" s="22"/>
@@ -11569,7 +11709,7 @@
       <c r="J723" s="25"/>
       <c r="K723" s="25"/>
     </row>
-    <row r="724" spans="1:11" s="6" customFormat="1">
+    <row r="724" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A724" s="21"/>
       <c r="B724" s="22"/>
       <c r="C724" s="22"/>
@@ -11582,7 +11722,7 @@
       <c r="J724" s="25"/>
       <c r="K724" s="25"/>
     </row>
-    <row r="725" spans="1:11" s="6" customFormat="1">
+    <row r="725" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A725" s="21"/>
       <c r="B725" s="22"/>
       <c r="C725" s="22"/>
@@ -11595,7 +11735,7 @@
       <c r="J725" s="25"/>
       <c r="K725" s="25"/>
     </row>
-    <row r="726" spans="1:11" s="6" customFormat="1">
+    <row r="726" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A726" s="21"/>
       <c r="B726" s="22"/>
       <c r="C726" s="22"/>
@@ -11608,7 +11748,7 @@
       <c r="J726" s="25"/>
       <c r="K726" s="25"/>
     </row>
-    <row r="727" spans="1:11" s="6" customFormat="1">
+    <row r="727" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A727" s="21"/>
       <c r="B727" s="22"/>
       <c r="C727" s="22"/>
@@ -11621,7 +11761,7 @@
       <c r="J727" s="25"/>
       <c r="K727" s="25"/>
     </row>
-    <row r="728" spans="1:11" s="6" customFormat="1">
+    <row r="728" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A728" s="21"/>
       <c r="B728" s="22"/>
       <c r="C728" s="22"/>
@@ -11634,7 +11774,7 @@
       <c r="J728" s="25"/>
       <c r="K728" s="25"/>
     </row>
-    <row r="729" spans="1:11" s="6" customFormat="1">
+    <row r="729" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A729" s="21"/>
       <c r="B729" s="22"/>
       <c r="C729" s="22"/>
@@ -11647,7 +11787,7 @@
       <c r="J729" s="25"/>
       <c r="K729" s="25"/>
     </row>
-    <row r="730" spans="1:11" s="6" customFormat="1">
+    <row r="730" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A730" s="21"/>
       <c r="B730" s="22"/>
       <c r="C730" s="22"/>
@@ -11660,7 +11800,7 @@
       <c r="J730" s="25"/>
       <c r="K730" s="25"/>
     </row>
-    <row r="731" spans="1:11" s="6" customFormat="1">
+    <row r="731" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A731" s="21"/>
       <c r="B731" s="22"/>
       <c r="C731" s="22"/>
@@ -11673,7 +11813,7 @@
       <c r="J731" s="25"/>
       <c r="K731" s="25"/>
     </row>
-    <row r="732" spans="1:11" s="6" customFormat="1">
+    <row r="732" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A732" s="21"/>
       <c r="B732" s="22"/>
       <c r="C732" s="22"/>
@@ -11686,7 +11826,7 @@
       <c r="J732" s="25"/>
       <c r="K732" s="25"/>
     </row>
-    <row r="733" spans="1:11" s="6" customFormat="1">
+    <row r="733" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A733" s="21"/>
       <c r="B733" s="22"/>
       <c r="C733" s="22"/>
@@ -11699,7 +11839,7 @@
       <c r="J733" s="25"/>
       <c r="K733" s="25"/>
     </row>
-    <row r="734" spans="1:11" s="6" customFormat="1">
+    <row r="734" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A734" s="21"/>
       <c r="B734" s="22"/>
       <c r="C734" s="22"/>
@@ -11712,7 +11852,7 @@
       <c r="J734" s="25"/>
       <c r="K734" s="25"/>
     </row>
-    <row r="735" spans="1:11" s="6" customFormat="1">
+    <row r="735" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A735" s="21"/>
       <c r="B735" s="22"/>
       <c r="C735" s="22"/>
@@ -11725,7 +11865,7 @@
       <c r="J735" s="25"/>
       <c r="K735" s="25"/>
     </row>
-    <row r="736" spans="1:11" s="6" customFormat="1">
+    <row r="736" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A736" s="21"/>
       <c r="B736" s="22"/>
       <c r="C736" s="22"/>
@@ -11738,7 +11878,7 @@
       <c r="J736" s="25"/>
       <c r="K736" s="25"/>
     </row>
-    <row r="737" spans="1:11" s="6" customFormat="1">
+    <row r="737" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A737" s="21"/>
       <c r="B737" s="22"/>
       <c r="C737" s="22"/>
@@ -11751,7 +11891,7 @@
       <c r="J737" s="25"/>
       <c r="K737" s="25"/>
     </row>
-    <row r="738" spans="1:11" s="6" customFormat="1">
+    <row r="738" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A738" s="21"/>
       <c r="B738" s="22"/>
       <c r="C738" s="22"/>
@@ -11764,7 +11904,7 @@
       <c r="J738" s="25"/>
       <c r="K738" s="25"/>
     </row>
-    <row r="739" spans="1:11" s="6" customFormat="1">
+    <row r="739" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A739" s="21"/>
       <c r="B739" s="22"/>
       <c r="C739" s="22"/>
@@ -11777,7 +11917,7 @@
       <c r="J739" s="25"/>
       <c r="K739" s="25"/>
     </row>
-    <row r="740" spans="1:11" s="6" customFormat="1">
+    <row r="740" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A740" s="21"/>
       <c r="B740" s="22"/>
       <c r="C740" s="22"/>
@@ -11790,7 +11930,7 @@
       <c r="J740" s="25"/>
       <c r="K740" s="25"/>
     </row>
-    <row r="741" spans="1:11" s="6" customFormat="1">
+    <row r="741" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A741" s="21"/>
       <c r="B741" s="22"/>
       <c r="C741" s="22"/>
@@ -11803,7 +11943,7 @@
       <c r="J741" s="25"/>
       <c r="K741" s="25"/>
     </row>
-    <row r="742" spans="1:11" s="6" customFormat="1">
+    <row r="742" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A742" s="21"/>
       <c r="B742" s="22"/>
       <c r="C742" s="22"/>
@@ -11816,7 +11956,7 @@
       <c r="J742" s="25"/>
       <c r="K742" s="25"/>
     </row>
-    <row r="743" spans="1:11" s="6" customFormat="1">
+    <row r="743" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A743" s="21"/>
       <c r="B743" s="22"/>
       <c r="C743" s="22"/>
@@ -11829,7 +11969,7 @@
       <c r="J743" s="25"/>
       <c r="K743" s="25"/>
     </row>
-    <row r="744" spans="1:11" s="6" customFormat="1">
+    <row r="744" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A744" s="21"/>
       <c r="B744" s="22"/>
       <c r="C744" s="22"/>
@@ -11842,7 +11982,7 @@
       <c r="J744" s="25"/>
       <c r="K744" s="25"/>
     </row>
-    <row r="745" spans="1:11" s="6" customFormat="1">
+    <row r="745" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A745" s="21"/>
       <c r="B745" s="22"/>
       <c r="C745" s="22"/>
@@ -11855,7 +11995,7 @@
       <c r="J745" s="25"/>
       <c r="K745" s="25"/>
     </row>
-    <row r="746" spans="1:11" s="6" customFormat="1">
+    <row r="746" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A746" s="21"/>
       <c r="B746" s="22"/>
       <c r="C746" s="22"/>
@@ -11868,7 +12008,7 @@
       <c r="J746" s="25"/>
       <c r="K746" s="25"/>
     </row>
-    <row r="747" spans="1:11" s="6" customFormat="1">
+    <row r="747" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A747" s="21"/>
       <c r="B747" s="22"/>
       <c r="C747" s="22"/>
@@ -11881,7 +12021,7 @@
       <c r="J747" s="25"/>
       <c r="K747" s="25"/>
     </row>
-    <row r="748" spans="1:11" s="6" customFormat="1">
+    <row r="748" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A748" s="21"/>
       <c r="B748" s="22"/>
       <c r="C748" s="22"/>
@@ -11894,7 +12034,7 @@
       <c r="J748" s="25"/>
       <c r="K748" s="25"/>
     </row>
-    <row r="749" spans="1:11" s="6" customFormat="1">
+    <row r="749" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A749" s="21"/>
       <c r="B749" s="22"/>
       <c r="C749" s="22"/>
@@ -11907,7 +12047,7 @@
       <c r="J749" s="25"/>
       <c r="K749" s="25"/>
     </row>
-    <row r="750" spans="1:11" s="6" customFormat="1">
+    <row r="750" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A750" s="21"/>
       <c r="B750" s="22"/>
       <c r="C750" s="22"/>
@@ -11920,7 +12060,7 @@
       <c r="J750" s="25"/>
       <c r="K750" s="25"/>
     </row>
-    <row r="751" spans="1:11" s="6" customFormat="1">
+    <row r="751" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A751" s="21"/>
       <c r="B751" s="22"/>
       <c r="C751" s="22"/>
@@ -11933,7 +12073,7 @@
       <c r="J751" s="25"/>
       <c r="K751" s="25"/>
     </row>
-    <row r="752" spans="1:11" s="6" customFormat="1">
+    <row r="752" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A752" s="21"/>
       <c r="B752" s="22"/>
       <c r="C752" s="22"/>
@@ -11946,7 +12086,7 @@
       <c r="J752" s="25"/>
       <c r="K752" s="25"/>
     </row>
-    <row r="753" spans="1:11" s="6" customFormat="1">
+    <row r="753" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A753" s="21"/>
       <c r="B753" s="22"/>
       <c r="C753" s="22"/>
@@ -11959,7 +12099,7 @@
       <c r="J753" s="25"/>
       <c r="K753" s="25"/>
     </row>
-    <row r="754" spans="1:11" s="6" customFormat="1">
+    <row r="754" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A754" s="21"/>
       <c r="B754" s="22"/>
       <c r="C754" s="22"/>
@@ -11972,7 +12112,7 @@
       <c r="J754" s="25"/>
       <c r="K754" s="25"/>
     </row>
-    <row r="755" spans="1:11" s="6" customFormat="1">
+    <row r="755" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A755" s="21"/>
       <c r="B755" s="22"/>
       <c r="C755" s="22"/>
@@ -11985,7 +12125,7 @@
       <c r="J755" s="25"/>
       <c r="K755" s="25"/>
     </row>
-    <row r="756" spans="1:11" s="6" customFormat="1">
+    <row r="756" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A756" s="21"/>
       <c r="B756" s="22"/>
       <c r="C756" s="22"/>
@@ -11998,7 +12138,7 @@
       <c r="J756" s="25"/>
       <c r="K756" s="25"/>
     </row>
-    <row r="757" spans="1:11" s="6" customFormat="1">
+    <row r="757" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A757" s="21"/>
       <c r="B757" s="22"/>
       <c r="C757" s="22"/>
@@ -12011,7 +12151,7 @@
       <c r="J757" s="25"/>
       <c r="K757" s="25"/>
     </row>
-    <row r="758" spans="1:11" s="6" customFormat="1">
+    <row r="758" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A758" s="21"/>
       <c r="B758" s="22"/>
       <c r="C758" s="22"/>
@@ -12024,7 +12164,7 @@
       <c r="J758" s="25"/>
       <c r="K758" s="25"/>
     </row>
-    <row r="759" spans="1:11" s="6" customFormat="1">
+    <row r="759" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A759" s="21"/>
       <c r="B759" s="22"/>
       <c r="C759" s="22"/>
@@ -12037,7 +12177,7 @@
       <c r="J759" s="25"/>
       <c r="K759" s="25"/>
     </row>
-    <row r="760" spans="1:11" s="6" customFormat="1">
+    <row r="760" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A760" s="21"/>
       <c r="B760" s="22"/>
       <c r="C760" s="22"/>
@@ -12050,7 +12190,7 @@
       <c r="J760" s="25"/>
       <c r="K760" s="25"/>
     </row>
-    <row r="761" spans="1:11" s="6" customFormat="1">
+    <row r="761" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A761" s="21"/>
       <c r="B761" s="22"/>
       <c r="C761" s="22"/>
@@ -12063,7 +12203,7 @@
       <c r="J761" s="25"/>
       <c r="K761" s="25"/>
     </row>
-    <row r="762" spans="1:11" s="6" customFormat="1">
+    <row r="762" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A762" s="21"/>
       <c r="B762" s="22"/>
       <c r="C762" s="22"/>
@@ -12076,7 +12216,7 @@
       <c r="J762" s="25"/>
       <c r="K762" s="25"/>
     </row>
-    <row r="763" spans="1:11" s="6" customFormat="1">
+    <row r="763" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A763" s="21"/>
       <c r="B763" s="22"/>
       <c r="C763" s="22"/>
@@ -12089,7 +12229,7 @@
       <c r="J763" s="25"/>
       <c r="K763" s="25"/>
     </row>
-    <row r="764" spans="1:11" s="6" customFormat="1">
+    <row r="764" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A764" s="21"/>
       <c r="B764" s="22"/>
       <c r="C764" s="22"/>
@@ -12102,7 +12242,7 @@
       <c r="J764" s="25"/>
       <c r="K764" s="25"/>
     </row>
-    <row r="765" spans="1:11" s="6" customFormat="1">
+    <row r="765" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A765" s="21"/>
       <c r="B765" s="22"/>
       <c r="C765" s="22"/>
@@ -12115,7 +12255,7 @@
       <c r="J765" s="25"/>
       <c r="K765" s="25"/>
     </row>
-    <row r="766" spans="1:11" s="6" customFormat="1">
+    <row r="766" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A766" s="21"/>
       <c r="B766" s="22"/>
       <c r="C766" s="22"/>
@@ -12128,7 +12268,7 @@
       <c r="J766" s="25"/>
       <c r="K766" s="25"/>
     </row>
-    <row r="767" spans="1:11" s="6" customFormat="1">
+    <row r="767" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A767" s="21"/>
       <c r="B767" s="22"/>
       <c r="C767" s="22"/>
@@ -12141,7 +12281,7 @@
       <c r="J767" s="25"/>
       <c r="K767" s="25"/>
     </row>
-    <row r="768" spans="1:11" s="6" customFormat="1">
+    <row r="768" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A768" s="21"/>
       <c r="B768" s="22"/>
       <c r="C768" s="22"/>
@@ -12154,7 +12294,7 @@
       <c r="J768" s="25"/>
       <c r="K768" s="25"/>
     </row>
-    <row r="769" spans="1:11" s="6" customFormat="1">
+    <row r="769" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A769" s="21"/>
       <c r="B769" s="22"/>
       <c r="C769" s="22"/>
@@ -12167,7 +12307,7 @@
       <c r="J769" s="25"/>
       <c r="K769" s="25"/>
     </row>
-    <row r="770" spans="1:11" s="6" customFormat="1">
+    <row r="770" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A770" s="21"/>
       <c r="B770" s="22"/>
       <c r="C770" s="22"/>
@@ -12180,7 +12320,7 @@
       <c r="J770" s="25"/>
       <c r="K770" s="25"/>
     </row>
-    <row r="771" spans="1:11" s="6" customFormat="1">
+    <row r="771" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A771" s="21"/>
       <c r="B771" s="22"/>
       <c r="C771" s="22"/>
@@ -12193,7 +12333,7 @@
       <c r="J771" s="25"/>
       <c r="K771" s="25"/>
     </row>
-    <row r="772" spans="1:11" s="6" customFormat="1">
+    <row r="772" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A772" s="21"/>
       <c r="B772" s="22"/>
       <c r="C772" s="22"/>
@@ -12206,7 +12346,7 @@
       <c r="J772" s="25"/>
       <c r="K772" s="25"/>
     </row>
-    <row r="773" spans="1:11" s="6" customFormat="1">
+    <row r="773" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A773" s="21"/>
       <c r="B773" s="22"/>
       <c r="C773" s="22"/>
@@ -12219,7 +12359,7 @@
       <c r="J773" s="25"/>
       <c r="K773" s="25"/>
     </row>
-    <row r="774" spans="1:11" s="6" customFormat="1">
+    <row r="774" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A774" s="21"/>
       <c r="B774" s="22"/>
       <c r="C774" s="22"/>
@@ -12232,7 +12372,7 @@
       <c r="J774" s="25"/>
       <c r="K774" s="25"/>
     </row>
-    <row r="775" spans="1:11" s="6" customFormat="1">
+    <row r="775" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A775" s="21"/>
       <c r="B775" s="22"/>
       <c r="C775" s="22"/>
@@ -12245,7 +12385,7 @@
       <c r="J775" s="25"/>
       <c r="K775" s="25"/>
     </row>
-    <row r="776" spans="1:11" s="6" customFormat="1">
+    <row r="776" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A776" s="21"/>
       <c r="B776" s="22"/>
       <c r="C776" s="22"/>
@@ -12258,7 +12398,7 @@
       <c r="J776" s="25"/>
       <c r="K776" s="25"/>
     </row>
-    <row r="777" spans="1:11" s="6" customFormat="1">
+    <row r="777" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A777" s="21"/>
       <c r="B777" s="22"/>
       <c r="C777" s="22"/>
@@ -12271,7 +12411,7 @@
       <c r="J777" s="25"/>
       <c r="K777" s="25"/>
     </row>
-    <row r="778" spans="1:11" s="6" customFormat="1">
+    <row r="778" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A778" s="21"/>
       <c r="B778" s="22"/>
       <c r="C778" s="22"/>
@@ -12284,7 +12424,7 @@
       <c r="J778" s="25"/>
       <c r="K778" s="25"/>
     </row>
-    <row r="779" spans="1:11" s="6" customFormat="1">
+    <row r="779" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A779" s="21"/>
       <c r="B779" s="22"/>
       <c r="C779" s="22"/>
@@ -12297,7 +12437,7 @@
       <c r="J779" s="25"/>
       <c r="K779" s="25"/>
     </row>
-    <row r="780" spans="1:11" s="6" customFormat="1">
+    <row r="780" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A780" s="21"/>
       <c r="B780" s="22"/>
       <c r="C780" s="22"/>
@@ -12310,7 +12450,7 @@
       <c r="J780" s="25"/>
       <c r="K780" s="25"/>
     </row>
-    <row r="781" spans="1:11" s="6" customFormat="1">
+    <row r="781" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A781" s="21"/>
       <c r="B781" s="22"/>
       <c r="C781" s="22"/>
@@ -12323,7 +12463,7 @@
       <c r="J781" s="25"/>
       <c r="K781" s="25"/>
     </row>
-    <row r="782" spans="1:11" s="6" customFormat="1">
+    <row r="782" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A782" s="21"/>
       <c r="B782" s="22"/>
       <c r="C782" s="22"/>
@@ -12336,7 +12476,7 @@
       <c r="J782" s="25"/>
       <c r="K782" s="25"/>
     </row>
-    <row r="783" spans="1:11" s="6" customFormat="1">
+    <row r="783" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A783" s="21"/>
       <c r="B783" s="22"/>
       <c r="C783" s="22"/>
@@ -12349,7 +12489,7 @@
       <c r="J783" s="25"/>
       <c r="K783" s="25"/>
     </row>
-    <row r="784" spans="1:11" s="6" customFormat="1">
+    <row r="784" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A784" s="21"/>
       <c r="B784" s="22"/>
       <c r="C784" s="22"/>
@@ -12362,7 +12502,7 @@
       <c r="J784" s="25"/>
       <c r="K784" s="25"/>
     </row>
-    <row r="785" spans="1:11" s="6" customFormat="1">
+    <row r="785" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A785" s="21"/>
       <c r="B785" s="22"/>
       <c r="C785" s="22"/>
@@ -12375,7 +12515,7 @@
       <c r="J785" s="25"/>
       <c r="K785" s="25"/>
     </row>
-    <row r="786" spans="1:11" s="6" customFormat="1">
+    <row r="786" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A786" s="21"/>
       <c r="B786" s="22"/>
       <c r="C786" s="22"/>
@@ -12388,7 +12528,7 @@
       <c r="J786" s="25"/>
       <c r="K786" s="25"/>
     </row>
-    <row r="787" spans="1:11" s="6" customFormat="1">
+    <row r="787" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A787" s="21"/>
       <c r="B787" s="22"/>
       <c r="C787" s="22"/>
@@ -12401,7 +12541,7 @@
       <c r="J787" s="25"/>
       <c r="K787" s="25"/>
     </row>
-    <row r="788" spans="1:11" s="6" customFormat="1">
+    <row r="788" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A788" s="21"/>
       <c r="B788" s="22"/>
       <c r="C788" s="22"/>
@@ -12414,7 +12554,7 @@
       <c r="J788" s="25"/>
       <c r="K788" s="25"/>
     </row>
-    <row r="789" spans="1:11" s="6" customFormat="1">
+    <row r="789" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A789" s="21"/>
       <c r="B789" s="22"/>
       <c r="C789" s="22"/>
@@ -12427,7 +12567,7 @@
       <c r="J789" s="25"/>
       <c r="K789" s="25"/>
     </row>
-    <row r="790" spans="1:11" s="6" customFormat="1">
+    <row r="790" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A790" s="21"/>
       <c r="B790" s="22"/>
       <c r="C790" s="22"/>
@@ -12440,7 +12580,7 @@
       <c r="J790" s="25"/>
       <c r="K790" s="25"/>
     </row>
-    <row r="791" spans="1:11" s="6" customFormat="1">
+    <row r="791" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A791" s="21"/>
       <c r="B791" s="22"/>
       <c r="C791" s="22"/>
@@ -12453,7 +12593,7 @@
       <c r="J791" s="25"/>
       <c r="K791" s="25"/>
     </row>
-    <row r="792" spans="1:11" s="6" customFormat="1">
+    <row r="792" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A792" s="21"/>
       <c r="B792" s="22"/>
       <c r="C792" s="22"/>
@@ -12466,7 +12606,7 @@
       <c r="J792" s="25"/>
       <c r="K792" s="25"/>
     </row>
-    <row r="793" spans="1:11" s="6" customFormat="1">
+    <row r="793" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A793" s="21"/>
       <c r="B793" s="22"/>
       <c r="C793" s="22"/>
@@ -12479,7 +12619,7 @@
       <c r="J793" s="25"/>
       <c r="K793" s="25"/>
     </row>
-    <row r="794" spans="1:11" s="6" customFormat="1">
+    <row r="794" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A794" s="21"/>
       <c r="B794" s="22"/>
       <c r="C794" s="22"/>
@@ -12492,7 +12632,7 @@
       <c r="J794" s="25"/>
       <c r="K794" s="25"/>
     </row>
-    <row r="795" spans="1:11" s="6" customFormat="1">
+    <row r="795" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A795" s="21"/>
       <c r="B795" s="22"/>
       <c r="C795" s="22"/>
@@ -12505,7 +12645,7 @@
       <c r="J795" s="25"/>
       <c r="K795" s="25"/>
     </row>
-    <row r="796" spans="1:11" s="6" customFormat="1">
+    <row r="796" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A796" s="21"/>
       <c r="B796" s="22"/>
       <c r="C796" s="22"/>
@@ -12518,7 +12658,7 @@
       <c r="J796" s="25"/>
       <c r="K796" s="25"/>
     </row>
-    <row r="797" spans="1:11" s="6" customFormat="1">
+    <row r="797" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A797" s="21"/>
       <c r="B797" s="22"/>
       <c r="C797" s="22"/>
@@ -12531,7 +12671,7 @@
       <c r="J797" s="25"/>
       <c r="K797" s="25"/>
     </row>
-    <row r="798" spans="1:11" s="6" customFormat="1">
+    <row r="798" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A798" s="21"/>
       <c r="B798" s="22"/>
       <c r="C798" s="22"/>
@@ -12544,7 +12684,7 @@
       <c r="J798" s="25"/>
       <c r="K798" s="25"/>
     </row>
-    <row r="799" spans="1:11" s="6" customFormat="1">
+    <row r="799" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A799" s="21"/>
       <c r="B799" s="22"/>
       <c r="C799" s="22"/>
@@ -12557,7 +12697,7 @@
       <c r="J799" s="25"/>
       <c r="K799" s="25"/>
     </row>
-    <row r="800" spans="1:11" s="6" customFormat="1">
+    <row r="800" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A800" s="21"/>
       <c r="B800" s="22"/>
       <c r="C800" s="22"/>
@@ -12570,7 +12710,7 @@
       <c r="J800" s="25"/>
       <c r="K800" s="25"/>
     </row>
-    <row r="801" spans="1:11" s="6" customFormat="1">
+    <row r="801" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A801" s="21"/>
       <c r="B801" s="22"/>
       <c r="C801" s="22"/>
@@ -12583,7 +12723,7 @@
       <c r="J801" s="25"/>
       <c r="K801" s="25"/>
     </row>
-    <row r="802" spans="1:11" s="6" customFormat="1">
+    <row r="802" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A802" s="21"/>
       <c r="B802" s="22"/>
       <c r="C802" s="22"/>
@@ -12596,7 +12736,7 @@
       <c r="J802" s="25"/>
       <c r="K802" s="25"/>
     </row>
-    <row r="803" spans="1:11" s="6" customFormat="1">
+    <row r="803" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A803" s="21"/>
       <c r="B803" s="22"/>
       <c r="C803" s="22"/>
@@ -12609,7 +12749,7 @@
       <c r="J803" s="25"/>
       <c r="K803" s="25"/>
     </row>
-    <row r="804" spans="1:11" s="6" customFormat="1">
+    <row r="804" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A804" s="21"/>
       <c r="B804" s="22"/>
       <c r="C804" s="22"/>
@@ -12622,7 +12762,7 @@
       <c r="J804" s="25"/>
       <c r="K804" s="25"/>
     </row>
-    <row r="805" spans="1:11" s="6" customFormat="1">
+    <row r="805" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A805" s="21"/>
       <c r="B805" s="22"/>
       <c r="C805" s="22"/>
@@ -12635,7 +12775,7 @@
       <c r="J805" s="25"/>
       <c r="K805" s="25"/>
     </row>
-    <row r="806" spans="1:11" s="6" customFormat="1">
+    <row r="806" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A806" s="21"/>
       <c r="B806" s="22"/>
       <c r="C806" s="22"/>
@@ -12648,7 +12788,7 @@
       <c r="J806" s="25"/>
       <c r="K806" s="25"/>
     </row>
-    <row r="807" spans="1:11" s="6" customFormat="1">
+    <row r="807" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A807" s="21"/>
       <c r="B807" s="22"/>
       <c r="C807" s="22"/>
@@ -12661,7 +12801,7 @@
       <c r="J807" s="25"/>
       <c r="K807" s="25"/>
     </row>
-    <row r="808" spans="1:11" s="6" customFormat="1">
+    <row r="808" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A808" s="21"/>
       <c r="B808" s="22"/>
       <c r="C808" s="22"/>
@@ -12674,7 +12814,7 @@
       <c r="J808" s="25"/>
       <c r="K808" s="25"/>
     </row>
-    <row r="809" spans="1:11" s="6" customFormat="1">
+    <row r="809" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A809" s="21"/>
       <c r="B809" s="22"/>
       <c r="C809" s="22"/>
@@ -12687,7 +12827,7 @@
       <c r="J809" s="25"/>
       <c r="K809" s="25"/>
     </row>
-    <row r="810" spans="1:11" s="6" customFormat="1">
+    <row r="810" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A810" s="21"/>
       <c r="B810" s="22"/>
       <c r="C810" s="22"/>
@@ -12700,7 +12840,7 @@
       <c r="J810" s="25"/>
       <c r="K810" s="25"/>
     </row>
-    <row r="811" spans="1:11" s="6" customFormat="1">
+    <row r="811" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A811" s="21"/>
       <c r="B811" s="22"/>
       <c r="C811" s="22"/>
@@ -12713,7 +12853,7 @@
       <c r="J811" s="25"/>
       <c r="K811" s="25"/>
     </row>
-    <row r="812" spans="1:11" s="6" customFormat="1">
+    <row r="812" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A812" s="21"/>
       <c r="B812" s="22"/>
       <c r="C812" s="22"/>
@@ -12726,7 +12866,7 @@
       <c r="J812" s="25"/>
       <c r="K812" s="25"/>
     </row>
-    <row r="813" spans="1:11" s="6" customFormat="1">
+    <row r="813" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A813" s="21"/>
       <c r="B813" s="22"/>
       <c r="C813" s="22"/>
@@ -12739,7 +12879,7 @@
       <c r="J813" s="25"/>
       <c r="K813" s="25"/>
     </row>
-    <row r="814" spans="1:11" s="6" customFormat="1">
+    <row r="814" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A814" s="21"/>
       <c r="B814" s="22"/>
       <c r="C814" s="22"/>
@@ -12752,7 +12892,7 @@
       <c r="J814" s="25"/>
       <c r="K814" s="25"/>
     </row>
-    <row r="815" spans="1:11" s="6" customFormat="1">
+    <row r="815" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A815" s="21"/>
       <c r="B815" s="22"/>
       <c r="C815" s="22"/>
@@ -12765,7 +12905,7 @@
       <c r="J815" s="25"/>
       <c r="K815" s="25"/>
     </row>
-    <row r="816" spans="1:11" s="6" customFormat="1">
+    <row r="816" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A816" s="21"/>
       <c r="B816" s="22"/>
       <c r="C816" s="22"/>
@@ -12778,7 +12918,7 @@
       <c r="J816" s="25"/>
       <c r="K816" s="25"/>
     </row>
-    <row r="817" spans="1:11" s="6" customFormat="1">
+    <row r="817" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A817" s="21"/>
       <c r="B817" s="22"/>
       <c r="C817" s="22"/>
@@ -12791,7 +12931,7 @@
       <c r="J817" s="25"/>
       <c r="K817" s="25"/>
     </row>
-    <row r="818" spans="1:11" s="6" customFormat="1">
+    <row r="818" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A818" s="21"/>
       <c r="B818" s="22"/>
       <c r="C818" s="22"/>
@@ -12804,7 +12944,7 @@
       <c r="J818" s="25"/>
       <c r="K818" s="25"/>
     </row>
-    <row r="819" spans="1:11" s="6" customFormat="1">
+    <row r="819" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A819" s="21"/>
       <c r="B819" s="22"/>
       <c r="C819" s="22"/>
@@ -12817,7 +12957,7 @@
       <c r="J819" s="25"/>
       <c r="K819" s="25"/>
     </row>
-    <row r="820" spans="1:11" s="6" customFormat="1">
+    <row r="820" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A820" s="21"/>
       <c r="B820" s="22"/>
       <c r="C820" s="22"/>
@@ -12830,7 +12970,7 @@
       <c r="J820" s="25"/>
       <c r="K820" s="25"/>
     </row>
-    <row r="821" spans="1:11" s="6" customFormat="1">
+    <row r="821" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A821" s="21"/>
       <c r="B821" s="22"/>
       <c r="C821" s="22"/>
@@ -12843,7 +12983,7 @@
       <c r="J821" s="25"/>
       <c r="K821" s="25"/>
     </row>
-    <row r="822" spans="1:11" s="6" customFormat="1">
+    <row r="822" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A822" s="21"/>
       <c r="B822" s="22"/>
       <c r="C822" s="22"/>
@@ -12856,7 +12996,7 @@
       <c r="J822" s="25"/>
       <c r="K822" s="25"/>
     </row>
-    <row r="823" spans="1:11" s="6" customFormat="1">
+    <row r="823" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A823" s="21"/>
       <c r="B823" s="22"/>
       <c r="C823" s="22"/>
@@ -12869,7 +13009,7 @@
       <c r="J823" s="25"/>
       <c r="K823" s="25"/>
     </row>
-    <row r="824" spans="1:11" s="6" customFormat="1">
+    <row r="824" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A824" s="21"/>
       <c r="B824" s="22"/>
       <c r="C824" s="22"/>
@@ -12882,7 +13022,7 @@
       <c r="J824" s="25"/>
       <c r="K824" s="25"/>
     </row>
-    <row r="825" spans="1:11" s="6" customFormat="1">
+    <row r="825" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A825" s="21"/>
       <c r="B825" s="22"/>
       <c r="C825" s="22"/>
@@ -12895,7 +13035,7 @@
       <c r="J825" s="25"/>
       <c r="K825" s="25"/>
     </row>
-    <row r="826" spans="1:11" s="6" customFormat="1">
+    <row r="826" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A826" s="21"/>
       <c r="B826" s="22"/>
       <c r="C826" s="22"/>
@@ -12908,7 +13048,7 @@
       <c r="J826" s="25"/>
       <c r="K826" s="25"/>
     </row>
-    <row r="827" spans="1:11" s="6" customFormat="1">
+    <row r="827" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A827" s="21"/>
       <c r="B827" s="22"/>
       <c r="C827" s="22"/>
@@ -12921,7 +13061,7 @@
       <c r="J827" s="25"/>
       <c r="K827" s="25"/>
     </row>
-    <row r="828" spans="1:11" s="6" customFormat="1">
+    <row r="828" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A828" s="21"/>
       <c r="B828" s="22"/>
       <c r="C828" s="22"/>
@@ -12934,7 +13074,7 @@
       <c r="J828" s="25"/>
       <c r="K828" s="25"/>
     </row>
-    <row r="829" spans="1:11" s="6" customFormat="1">
+    <row r="829" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A829" s="21"/>
       <c r="B829" s="22"/>
       <c r="C829" s="22"/>
@@ -12947,7 +13087,7 @@
       <c r="J829" s="25"/>
       <c r="K829" s="25"/>
     </row>
-    <row r="830" spans="1:11" s="6" customFormat="1">
+    <row r="830" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A830" s="21"/>
       <c r="B830" s="22"/>
       <c r="C830" s="22"/>
@@ -12960,7 +13100,7 @@
       <c r="J830" s="25"/>
       <c r="K830" s="25"/>
     </row>
-    <row r="831" spans="1:11" s="6" customFormat="1">
+    <row r="831" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A831" s="21"/>
       <c r="B831" s="22"/>
       <c r="C831" s="22"/>
@@ -12973,7 +13113,7 @@
       <c r="J831" s="25"/>
       <c r="K831" s="25"/>
     </row>
-    <row r="832" spans="1:11" s="6" customFormat="1">
+    <row r="832" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A832" s="21"/>
       <c r="B832" s="22"/>
       <c r="C832" s="22"/>
@@ -12986,7 +13126,7 @@
       <c r="J832" s="25"/>
       <c r="K832" s="25"/>
     </row>
-    <row r="833" spans="1:11" s="6" customFormat="1">
+    <row r="833" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A833" s="21"/>
       <c r="B833" s="22"/>
       <c r="C833" s="22"/>
@@ -12999,7 +13139,7 @@
       <c r="J833" s="25"/>
       <c r="K833" s="25"/>
     </row>
-    <row r="834" spans="1:11" s="6" customFormat="1">
+    <row r="834" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A834" s="21"/>
       <c r="B834" s="22"/>
       <c r="C834" s="22"/>
@@ -13012,7 +13152,7 @@
       <c r="J834" s="25"/>
       <c r="K834" s="25"/>
     </row>
-    <row r="835" spans="1:11" s="6" customFormat="1">
+    <row r="835" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A835" s="21"/>
       <c r="B835" s="22"/>
       <c r="C835" s="22"/>
@@ -13025,7 +13165,7 @@
       <c r="J835" s="25"/>
       <c r="K835" s="25"/>
     </row>
-    <row r="836" spans="1:11" s="6" customFormat="1">
+    <row r="836" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A836" s="21"/>
       <c r="B836" s="22"/>
       <c r="C836" s="22"/>
@@ -13038,7 +13178,7 @@
       <c r="J836" s="25"/>
       <c r="K836" s="25"/>
     </row>
-    <row r="837" spans="1:11" s="6" customFormat="1">
+    <row r="837" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A837" s="21"/>
       <c r="B837" s="22"/>
       <c r="C837" s="22"/>
@@ -13051,7 +13191,7 @@
       <c r="J837" s="25"/>
       <c r="K837" s="25"/>
     </row>
-    <row r="838" spans="1:11" s="6" customFormat="1">
+    <row r="838" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A838" s="21"/>
       <c r="B838" s="22"/>
       <c r="C838" s="22"/>
@@ -13064,7 +13204,7 @@
       <c r="J838" s="25"/>
       <c r="K838" s="25"/>
     </row>
-    <row r="839" spans="1:11" s="6" customFormat="1">
+    <row r="839" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A839" s="21"/>
       <c r="B839" s="22"/>
       <c r="C839" s="22"/>
@@ -13077,7 +13217,7 @@
       <c r="J839" s="25"/>
       <c r="K839" s="25"/>
     </row>
-    <row r="840" spans="1:11" s="6" customFormat="1">
+    <row r="840" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A840" s="21"/>
       <c r="B840" s="22"/>
       <c r="C840" s="22"/>
@@ -13090,7 +13230,7 @@
       <c r="J840" s="25"/>
       <c r="K840" s="25"/>
     </row>
-    <row r="841" spans="1:11" s="6" customFormat="1">
+    <row r="841" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A841" s="21"/>
       <c r="B841" s="22"/>
       <c r="C841" s="22"/>
@@ -13103,7 +13243,7 @@
       <c r="J841" s="25"/>
       <c r="K841" s="25"/>
     </row>
-    <row r="842" spans="1:11" s="6" customFormat="1">
+    <row r="842" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A842" s="21"/>
       <c r="B842" s="22"/>
       <c r="C842" s="22"/>
@@ -13116,7 +13256,7 @@
       <c r="J842" s="25"/>
       <c r="K842" s="25"/>
     </row>
-    <row r="843" spans="1:11" s="6" customFormat="1">
+    <row r="843" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A843" s="21"/>
       <c r="B843" s="22"/>
       <c r="C843" s="22"/>
@@ -13129,7 +13269,7 @@
       <c r="J843" s="25"/>
       <c r="K843" s="25"/>
     </row>
-    <row r="844" spans="1:11" s="6" customFormat="1">
+    <row r="844" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A844" s="21"/>
       <c r="B844" s="22"/>
       <c r="C844" s="22"/>
@@ -13142,7 +13282,7 @@
       <c r="J844" s="25"/>
       <c r="K844" s="25"/>
     </row>
-    <row r="845" spans="1:11" s="6" customFormat="1">
+    <row r="845" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A845" s="21"/>
       <c r="B845" s="22"/>
       <c r="C845" s="22"/>
@@ -13155,7 +13295,7 @@
       <c r="J845" s="25"/>
       <c r="K845" s="25"/>
     </row>
-    <row r="846" spans="1:11" s="6" customFormat="1">
+    <row r="846" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A846" s="21"/>
       <c r="B846" s="22"/>
       <c r="C846" s="22"/>
@@ -13168,7 +13308,7 @@
       <c r="J846" s="25"/>
       <c r="K846" s="25"/>
     </row>
-    <row r="847" spans="1:11" s="6" customFormat="1">
+    <row r="847" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A847" s="21"/>
       <c r="B847" s="22"/>
       <c r="C847" s="22"/>
@@ -13181,7 +13321,7 @@
       <c r="J847" s="25"/>
       <c r="K847" s="25"/>
     </row>
-    <row r="848" spans="1:11" s="6" customFormat="1">
+    <row r="848" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A848" s="21"/>
       <c r="B848" s="22"/>
       <c r="C848" s="22"/>
@@ -13194,7 +13334,7 @@
       <c r="J848" s="25"/>
       <c r="K848" s="25"/>
     </row>
-    <row r="849" spans="1:11" s="6" customFormat="1">
+    <row r="849" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A849" s="21"/>
       <c r="B849" s="22"/>
       <c r="C849" s="22"/>
@@ -13207,7 +13347,7 @@
       <c r="J849" s="25"/>
       <c r="K849" s="25"/>
     </row>
-    <row r="850" spans="1:11" s="6" customFormat="1">
+    <row r="850" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A850" s="21"/>
       <c r="B850" s="22"/>
       <c r="C850" s="22"/>
@@ -13220,7 +13360,7 @@
       <c r="J850" s="25"/>
       <c r="K850" s="25"/>
     </row>
-    <row r="851" spans="1:11" s="6" customFormat="1">
+    <row r="851" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A851" s="21"/>
       <c r="B851" s="22"/>
       <c r="C851" s="22"/>
@@ -13233,7 +13373,7 @@
       <c r="J851" s="25"/>
       <c r="K851" s="25"/>
     </row>
-    <row r="852" spans="1:11" s="6" customFormat="1">
+    <row r="852" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A852" s="21"/>
       <c r="B852" s="22"/>
       <c r="C852" s="22"/>
@@ -13246,7 +13386,7 @@
       <c r="J852" s="25"/>
       <c r="K852" s="25"/>
     </row>
-    <row r="853" spans="1:11" s="6" customFormat="1">
+    <row r="853" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A853" s="21"/>
       <c r="B853" s="22"/>
       <c r="C853" s="22"/>
@@ -13259,7 +13399,7 @@
       <c r="J853" s="25"/>
       <c r="K853" s="25"/>
     </row>
-    <row r="854" spans="1:11" s="6" customFormat="1">
+    <row r="854" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A854" s="21"/>
       <c r="B854" s="22"/>
       <c r="C854" s="22"/>
@@ -13272,7 +13412,7 @@
       <c r="J854" s="25"/>
       <c r="K854" s="25"/>
     </row>
-    <row r="855" spans="1:11" s="6" customFormat="1">
+    <row r="855" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A855" s="21"/>
       <c r="B855" s="22"/>
       <c r="C855" s="22"/>
@@ -13285,7 +13425,7 @@
       <c r="J855" s="25"/>
       <c r="K855" s="25"/>
     </row>
-    <row r="856" spans="1:11" s="6" customFormat="1">
+    <row r="856" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A856" s="21"/>
       <c r="B856" s="22"/>
       <c r="C856" s="22"/>
@@ -13298,7 +13438,7 @@
       <c r="J856" s="25"/>
       <c r="K856" s="25"/>
     </row>
-    <row r="857" spans="1:11" s="6" customFormat="1">
+    <row r="857" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A857" s="21"/>
       <c r="B857" s="22"/>
       <c r="C857" s="22"/>
@@ -13311,7 +13451,7 @@
       <c r="J857" s="25"/>
       <c r="K857" s="25"/>
     </row>
-    <row r="858" spans="1:11" s="6" customFormat="1">
+    <row r="858" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A858" s="21"/>
       <c r="B858" s="22"/>
       <c r="C858" s="22"/>
@@ -13324,7 +13464,7 @@
       <c r="J858" s="25"/>
       <c r="K858" s="25"/>
     </row>
-    <row r="859" spans="1:11" s="6" customFormat="1">
+    <row r="859" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A859" s="21"/>
       <c r="B859" s="22"/>
       <c r="C859" s="22"/>
@@ -13337,7 +13477,7 @@
       <c r="J859" s="25"/>
       <c r="K859" s="25"/>
     </row>
-    <row r="860" spans="1:11" s="6" customFormat="1">
+    <row r="860" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A860" s="21"/>
       <c r="B860" s="22"/>
       <c r="C860" s="22"/>
@@ -13350,7 +13490,7 @@
       <c r="J860" s="25"/>
       <c r="K860" s="25"/>
     </row>
-    <row r="861" spans="1:11" s="6" customFormat="1">
+    <row r="861" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A861" s="21"/>
       <c r="B861" s="22"/>
       <c r="C861" s="22"/>
@@ -13363,7 +13503,7 @@
       <c r="J861" s="25"/>
       <c r="K861" s="25"/>
     </row>
-    <row r="862" spans="1:11" s="6" customFormat="1">
+    <row r="862" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A862" s="21"/>
       <c r="B862" s="22"/>
       <c r="C862" s="22"/>
@@ -13376,7 +13516,7 @@
       <c r="J862" s="25"/>
       <c r="K862" s="25"/>
     </row>
-    <row r="863" spans="1:11" s="6" customFormat="1">
+    <row r="863" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A863" s="21"/>
       <c r="B863" s="22"/>
       <c r="C863" s="22"/>
@@ -13389,7 +13529,7 @@
       <c r="J863" s="25"/>
       <c r="K863" s="25"/>
     </row>
-    <row r="864" spans="1:11" s="6" customFormat="1">
+    <row r="864" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A864" s="21"/>
       <c r="B864" s="22"/>
       <c r="C864" s="22"/>
@@ -13402,7 +13542,7 @@
       <c r="J864" s="25"/>
       <c r="K864" s="25"/>
     </row>
-    <row r="865" spans="1:11" s="6" customFormat="1">
+    <row r="865" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A865" s="21"/>
       <c r="B865" s="22"/>
       <c r="C865" s="22"/>
@@ -13415,7 +13555,7 @@
       <c r="J865" s="25"/>
       <c r="K865" s="25"/>
     </row>
-    <row r="866" spans="1:11" s="6" customFormat="1">
+    <row r="866" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A866" s="21"/>
       <c r="B866" s="22"/>
       <c r="C866" s="22"/>
@@ -13428,7 +13568,7 @@
       <c r="J866" s="25"/>
       <c r="K866" s="25"/>
     </row>
-    <row r="867" spans="1:11" s="6" customFormat="1">
+    <row r="867" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A867" s="21"/>
       <c r="B867" s="22"/>
       <c r="C867" s="22"/>
@@ -13441,7 +13581,7 @@
       <c r="J867" s="25"/>
       <c r="K867" s="25"/>
     </row>
-    <row r="868" spans="1:11" s="6" customFormat="1">
+    <row r="868" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A868" s="21"/>
       <c r="B868" s="22"/>
       <c r="C868" s="22"/>
@@ -13454,7 +13594,7 @@
       <c r="J868" s="25"/>
       <c r="K868" s="25"/>
     </row>
-    <row r="869" spans="1:11" s="6" customFormat="1">
+    <row r="869" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A869" s="21"/>
       <c r="B869" s="22"/>
       <c r="C869" s="22"/>
@@ -13467,7 +13607,7 @@
       <c r="J869" s="25"/>
       <c r="K869" s="25"/>
     </row>
-    <row r="870" spans="1:11" s="6" customFormat="1">
+    <row r="870" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A870" s="21"/>
       <c r="B870" s="22"/>
       <c r="C870" s="22"/>
@@ -13480,7 +13620,7 @@
       <c r="J870" s="25"/>
       <c r="K870" s="25"/>
     </row>
-    <row r="871" spans="1:11" s="6" customFormat="1">
+    <row r="871" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A871" s="21"/>
       <c r="B871" s="22"/>
       <c r="C871" s="22"/>
@@ -13493,7 +13633,7 @@
       <c r="J871" s="25"/>
       <c r="K871" s="25"/>
     </row>
-    <row r="872" spans="1:11" s="6" customFormat="1">
+    <row r="872" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A872" s="21"/>
       <c r="B872" s="22"/>
       <c r="C872" s="22"/>
@@ -13506,7 +13646,7 @@
       <c r="J872" s="25"/>
       <c r="K872" s="25"/>
     </row>
-    <row r="873" spans="1:11" s="6" customFormat="1">
+    <row r="873" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A873" s="21"/>
       <c r="B873" s="22"/>
       <c r="C873" s="22"/>
@@ -13519,7 +13659,7 @@
       <c r="J873" s="25"/>
       <c r="K873" s="25"/>
     </row>
-    <row r="874" spans="1:11" s="6" customFormat="1">
+    <row r="874" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A874" s="21"/>
       <c r="B874" s="22"/>
       <c r="C874" s="22"/>
@@ -13532,7 +13672,7 @@
       <c r="J874" s="25"/>
       <c r="K874" s="25"/>
     </row>
-    <row r="875" spans="1:11" s="6" customFormat="1">
+    <row r="875" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A875" s="21"/>
       <c r="B875" s="22"/>
       <c r="C875" s="22"/>
@@ -13545,7 +13685,7 @@
       <c r="J875" s="25"/>
       <c r="K875" s="25"/>
     </row>
-    <row r="876" spans="1:11" s="6" customFormat="1">
+    <row r="876" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A876" s="21"/>
       <c r="B876" s="22"/>
       <c r="C876" s="22"/>
@@ -13558,7 +13698,7 @@
       <c r="J876" s="25"/>
       <c r="K876" s="25"/>
     </row>
-    <row r="877" spans="1:11" s="6" customFormat="1">
+    <row r="877" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A877" s="21"/>
       <c r="B877" s="22"/>
       <c r="C877" s="22"/>
@@ -13571,7 +13711,7 @@
       <c r="J877" s="25"/>
       <c r="K877" s="25"/>
     </row>
-    <row r="878" spans="1:11" s="6" customFormat="1">
+    <row r="878" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A878" s="21"/>
       <c r="B878" s="22"/>
       <c r="C878" s="22"/>
@@ -13584,7 +13724,7 @@
       <c r="J878" s="25"/>
       <c r="K878" s="25"/>
     </row>
-    <row r="879" spans="1:11" s="6" customFormat="1">
+    <row r="879" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A879" s="21"/>
       <c r="B879" s="22"/>
       <c r="C879" s="22"/>
@@ -13597,7 +13737,7 @@
       <c r="J879" s="25"/>
       <c r="K879" s="25"/>
     </row>
-    <row r="880" spans="1:11" s="6" customFormat="1">
+    <row r="880" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A880" s="21"/>
       <c r="B880" s="22"/>
       <c r="C880" s="22"/>
@@ -13610,7 +13750,7 @@
       <c r="J880" s="25"/>
       <c r="K880" s="25"/>
     </row>
-    <row r="881" spans="1:11" s="6" customFormat="1">
+    <row r="881" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A881" s="21"/>
       <c r="B881" s="22"/>
       <c r="C881" s="22"/>
@@ -13623,7 +13763,7 @@
       <c r="J881" s="25"/>
       <c r="K881" s="25"/>
     </row>
-    <row r="882" spans="1:11" s="6" customFormat="1">
+    <row r="882" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A882" s="21"/>
       <c r="B882" s="22"/>
       <c r="C882" s="22"/>
@@ -13636,7 +13776,7 @@
       <c r="J882" s="25"/>
       <c r="K882" s="25"/>
     </row>
-    <row r="883" spans="1:11" s="6" customFormat="1">
+    <row r="883" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A883" s="21"/>
       <c r="B883" s="22"/>
       <c r="C883" s="22"/>
@@ -13649,7 +13789,7 @@
       <c r="J883" s="25"/>
       <c r="K883" s="25"/>
     </row>
-    <row r="884" spans="1:11" s="6" customFormat="1">
+    <row r="884" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A884" s="21"/>
       <c r="B884" s="22"/>
       <c r="C884" s="22"/>
@@ -13662,7 +13802,7 @@
       <c r="J884" s="25"/>
       <c r="K884" s="25"/>
     </row>
-    <row r="885" spans="1:11" s="6" customFormat="1">
+    <row r="885" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A885" s="21"/>
       <c r="B885" s="22"/>
       <c r="C885" s="22"/>
@@ -13675,7 +13815,7 @@
       <c r="J885" s="25"/>
       <c r="K885" s="25"/>
     </row>
-    <row r="886" spans="1:11" s="6" customFormat="1">
+    <row r="886" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A886" s="21"/>
       <c r="B886" s="22"/>
       <c r="C886" s="22"/>
@@ -13688,7 +13828,7 @@
       <c r="J886" s="25"/>
       <c r="K886" s="25"/>
     </row>
-    <row r="887" spans="1:11" s="6" customFormat="1">
+    <row r="887" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A887" s="21"/>
       <c r="B887" s="22"/>
       <c r="C887" s="22"/>
@@ -13701,7 +13841,7 @@
       <c r="J887" s="25"/>
       <c r="K887" s="25"/>
     </row>
-    <row r="888" spans="1:11" s="6" customFormat="1">
+    <row r="888" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A888" s="21"/>
       <c r="B888" s="22"/>
       <c r="C888" s="22"/>
@@ -13714,7 +13854,7 @@
       <c r="J888" s="25"/>
       <c r="K888" s="25"/>
     </row>
-    <row r="889" spans="1:11" s="6" customFormat="1">
+    <row r="889" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A889" s="21"/>
       <c r="B889" s="22"/>
       <c r="C889" s="22"/>
@@ -13727,7 +13867,7 @@
       <c r="J889" s="25"/>
       <c r="K889" s="25"/>
     </row>
-    <row r="890" spans="1:11" s="6" customFormat="1">
+    <row r="890" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A890" s="21"/>
       <c r="B890" s="22"/>
       <c r="C890" s="22"/>
@@ -13740,7 +13880,7 @@
       <c r="J890" s="25"/>
       <c r="K890" s="25"/>
     </row>
-    <row r="891" spans="1:11" s="6" customFormat="1">
+    <row r="891" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A891" s="21"/>
       <c r="B891" s="22"/>
       <c r="C891" s="22"/>
@@ -13753,7 +13893,7 @@
       <c r="J891" s="25"/>
       <c r="K891" s="25"/>
     </row>
-    <row r="892" spans="1:11" s="6" customFormat="1">
+    <row r="892" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A892" s="21"/>
       <c r="B892" s="22"/>
       <c r="C892" s="22"/>
@@ -13766,7 +13906,7 @@
       <c r="J892" s="25"/>
       <c r="K892" s="25"/>
     </row>
-    <row r="893" spans="1:11" s="6" customFormat="1">
+    <row r="893" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A893" s="21"/>
       <c r="B893" s="22"/>
       <c r="C893" s="22"/>
@@ -13779,7 +13919,7 @@
       <c r="J893" s="25"/>
       <c r="K893" s="25"/>
     </row>
-    <row r="894" spans="1:11" s="6" customFormat="1">
+    <row r="894" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A894" s="21"/>
       <c r="B894" s="22"/>
       <c r="C894" s="22"/>
@@ -13792,7 +13932,7 @@
       <c r="J894" s="25"/>
       <c r="K894" s="25"/>
     </row>
-    <row r="895" spans="1:11" s="6" customFormat="1">
+    <row r="895" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A895" s="21"/>
       <c r="B895" s="22"/>
       <c r="C895" s="22"/>
@@ -13805,7 +13945,7 @@
       <c r="J895" s="25"/>
       <c r="K895" s="25"/>
     </row>
-    <row r="896" spans="1:11" s="6" customFormat="1">
+    <row r="896" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A896" s="21"/>
       <c r="B896" s="22"/>
       <c r="C896" s="22"/>
@@ -13818,7 +13958,7 @@
       <c r="J896" s="25"/>
       <c r="K896" s="25"/>
     </row>
-    <row r="897" spans="1:11" s="6" customFormat="1">
+    <row r="897" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A897" s="21"/>
       <c r="B897" s="22"/>
       <c r="C897" s="22"/>
@@ -13831,7 +13971,7 @@
       <c r="J897" s="25"/>
       <c r="K897" s="25"/>
     </row>
-    <row r="898" spans="1:11" s="6" customFormat="1">
+    <row r="898" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A898" s="21"/>
       <c r="B898" s="22"/>
       <c r="C898" s="22"/>
@@ -13844,7 +13984,7 @@
       <c r="J898" s="25"/>
       <c r="K898" s="25"/>
     </row>
-    <row r="899" spans="1:11" s="6" customFormat="1">
+    <row r="899" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A899" s="21"/>
       <c r="B899" s="22"/>
       <c r="C899" s="22"/>
@@ -13857,7 +13997,7 @@
       <c r="J899" s="25"/>
       <c r="K899" s="25"/>
     </row>
-    <row r="900" spans="1:11" s="6" customFormat="1">
+    <row r="900" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A900" s="21"/>
       <c r="B900" s="22"/>
       <c r="C900" s="22"/>
@@ -13870,7 +14010,7 @@
       <c r="J900" s="25"/>
       <c r="K900" s="25"/>
     </row>
-    <row r="901" spans="1:11" s="6" customFormat="1">
+    <row r="901" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A901" s="21"/>
       <c r="B901" s="22"/>
       <c r="C901" s="22"/>
@@ -13883,7 +14023,7 @@
       <c r="J901" s="25"/>
       <c r="K901" s="25"/>
     </row>
-    <row r="902" spans="1:11" s="6" customFormat="1">
+    <row r="902" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A902" s="21"/>
       <c r="B902" s="22"/>
       <c r="C902" s="22"/>
@@ -13896,7 +14036,7 @@
       <c r="J902" s="25"/>
       <c r="K902" s="25"/>
     </row>
-    <row r="903" spans="1:11" s="6" customFormat="1">
+    <row r="903" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A903" s="21"/>
       <c r="B903" s="22"/>
       <c r="C903" s="22"/>
@@ -13909,7 +14049,7 @@
       <c r="J903" s="25"/>
       <c r="K903" s="25"/>
     </row>
-    <row r="904" spans="1:11" s="6" customFormat="1">
+    <row r="904" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A904" s="21"/>
       <c r="B904" s="22"/>
       <c r="C904" s="22"/>
@@ -13922,7 +14062,7 @@
       <c r="J904" s="25"/>
       <c r="K904" s="25"/>
     </row>
-    <row r="905" spans="1:11" s="6" customFormat="1">
+    <row r="905" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A905" s="21"/>
       <c r="B905" s="22"/>
       <c r="C905" s="22"/>
@@ -13935,7 +14075,7 @@
       <c r="J905" s="25"/>
       <c r="K905" s="25"/>
     </row>
-    <row r="906" spans="1:11" s="6" customFormat="1">
+    <row r="906" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A906" s="21"/>
       <c r="B906" s="22"/>
       <c r="C906" s="22"/>
@@ -13948,7 +14088,7 @@
       <c r="J906" s="25"/>
       <c r="K906" s="25"/>
     </row>
-    <row r="907" spans="1:11" s="6" customFormat="1">
+    <row r="907" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A907" s="21"/>
       <c r="B907" s="22"/>
       <c r="C907" s="22"/>
@@ -13961,7 +14101,7 @@
       <c r="J907" s="25"/>
       <c r="K907" s="25"/>
     </row>
-    <row r="908" spans="1:11" s="6" customFormat="1">
+    <row r="908" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A908" s="21"/>
       <c r="B908" s="22"/>
       <c r="C908" s="22"/>
@@ -13974,7 +14114,7 @@
       <c r="J908" s="25"/>
       <c r="K908" s="25"/>
     </row>
-    <row r="909" spans="1:11" s="6" customFormat="1">
+    <row r="909" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A909" s="21"/>
       <c r="B909" s="22"/>
       <c r="C909" s="22"/>
@@ -13987,7 +14127,7 @@
       <c r="J909" s="25"/>
       <c r="K909" s="25"/>
     </row>
-    <row r="910" spans="1:11" s="6" customFormat="1">
+    <row r="910" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A910" s="21"/>
       <c r="B910" s="22"/>
       <c r="C910" s="22"/>
@@ -14000,7 +14140,7 @@
       <c r="J910" s="25"/>
       <c r="K910" s="25"/>
     </row>
-    <row r="911" spans="1:11" s="6" customFormat="1">
+    <row r="911" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A911" s="21"/>
       <c r="B911" s="22"/>
       <c r="C911" s="22"/>
@@ -14013,7 +14153,7 @@
       <c r="J911" s="25"/>
       <c r="K911" s="25"/>
     </row>
-    <row r="912" spans="1:11" s="6" customFormat="1">
+    <row r="912" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A912" s="21"/>
       <c r="B912" s="22"/>
       <c r="C912" s="22"/>
@@ -14026,7 +14166,7 @@
       <c r="J912" s="25"/>
       <c r="K912" s="25"/>
     </row>
-    <row r="913" spans="1:11" s="6" customFormat="1">
+    <row r="913" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A913" s="21"/>
       <c r="B913" s="22"/>
       <c r="C913" s="22"/>
@@ -14039,7 +14179,7 @@
       <c r="J913" s="25"/>
       <c r="K913" s="25"/>
     </row>
-    <row r="914" spans="1:11" s="6" customFormat="1">
+    <row r="914" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A914" s="21"/>
       <c r="B914" s="22"/>
       <c r="C914" s="22"/>
@@ -14052,7 +14192,7 @@
       <c r="J914" s="25"/>
       <c r="K914" s="25"/>
     </row>
-    <row r="915" spans="1:11" s="6" customFormat="1">
+    <row r="915" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A915" s="21"/>
       <c r="B915" s="22"/>
       <c r="C915" s="22"/>
@@ -14065,7 +14205,7 @@
       <c r="J915" s="25"/>
       <c r="K915" s="25"/>
     </row>
-    <row r="916" spans="1:11" s="6" customFormat="1">
+    <row r="916" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A916" s="21"/>
       <c r="B916" s="22"/>
       <c r="C916" s="22"/>
@@ -14078,7 +14218,7 @@
       <c r="J916" s="25"/>
       <c r="K916" s="25"/>
     </row>
-    <row r="917" spans="1:11" s="6" customFormat="1">
+    <row r="917" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A917" s="21"/>
       <c r="B917" s="22"/>
       <c r="C917" s="22"/>
@@ -14091,7 +14231,7 @@
       <c r="J917" s="25"/>
       <c r="K917" s="25"/>
     </row>
-    <row r="918" spans="1:11" s="6" customFormat="1">
+    <row r="918" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A918" s="21"/>
       <c r="B918" s="22"/>
       <c r="C918" s="22"/>
@@ -14104,7 +14244,7 @@
       <c r="J918" s="25"/>
       <c r="K918" s="25"/>
     </row>
-    <row r="919" spans="1:11" s="6" customFormat="1">
+    <row r="919" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A919" s="21"/>
       <c r="B919" s="22"/>
       <c r="C919" s="22"/>
@@ -14117,7 +14257,7 @@
       <c r="J919" s="25"/>
       <c r="K919" s="25"/>
     </row>
-    <row r="920" spans="1:11" s="6" customFormat="1">
+    <row r="920" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A920" s="21"/>
       <c r="B920" s="22"/>
       <c r="C920" s="22"/>
@@ -14130,7 +14270,7 @@
       <c r="J920" s="25"/>
       <c r="K920" s="25"/>
     </row>
-    <row r="921" spans="1:11" s="6" customFormat="1">
+    <row r="921" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A921" s="21"/>
       <c r="B921" s="22"/>
       <c r="C921" s="22"/>
@@ -14143,7 +14283,7 @@
       <c r="J921" s="25"/>
       <c r="K921" s="25"/>
     </row>
-    <row r="922" spans="1:11" s="6" customFormat="1">
+    <row r="922" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A922" s="21"/>
       <c r="B922" s="22"/>
       <c r="C922" s="22"/>
@@ -14156,7 +14296,7 @@
       <c r="J922" s="25"/>
       <c r="K922" s="25"/>
     </row>
-    <row r="923" spans="1:11" s="6" customFormat="1">
+    <row r="923" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A923" s="21"/>
       <c r="B923" s="22"/>
       <c r="C923" s="22"/>
@@ -14169,7 +14309,7 @@
       <c r="J923" s="25"/>
       <c r="K923" s="25"/>
     </row>
-    <row r="924" spans="1:11" s="6" customFormat="1">
+    <row r="924" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A924" s="21"/>
       <c r="B924" s="22"/>
       <c r="C924" s="22"/>
@@ -14182,7 +14322,7 @@
       <c r="J924" s="25"/>
       <c r="K924" s="25"/>
     </row>
-    <row r="925" spans="1:11" s="6" customFormat="1">
+    <row r="925" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A925" s="21"/>
       <c r="B925" s="22"/>
       <c r="C925" s="22"/>
@@ -14195,7 +14335,7 @@
       <c r="J925" s="25"/>
       <c r="K925" s="25"/>
     </row>
-    <row r="926" spans="1:11" s="6" customFormat="1">
+    <row r="926" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A926" s="21"/>
       <c r="B926" s="22"/>
       <c r="C926" s="22"/>
@@ -14208,7 +14348,7 @@
       <c r="J926" s="25"/>
       <c r="K926" s="25"/>
     </row>
-    <row r="927" spans="1:11" s="6" customFormat="1">
+    <row r="927" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A927" s="21"/>
       <c r="B927" s="22"/>
       <c r="C927" s="22"/>
@@ -14221,7 +14361,7 @@
       <c r="J927" s="25"/>
       <c r="K927" s="25"/>
     </row>
-    <row r="928" spans="1:11" s="6" customFormat="1">
+    <row r="928" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A928" s="21"/>
       <c r="B928" s="22"/>
       <c r="C928" s="22"/>
@@ -14234,7 +14374,7 @@
       <c r="J928" s="25"/>
       <c r="K928" s="25"/>
     </row>
-    <row r="929" spans="1:11" s="6" customFormat="1">
+    <row r="929" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A929" s="21"/>
       <c r="B929" s="22"/>
       <c r="C929" s="22"/>
@@ -14247,7 +14387,7 @@
       <c r="J929" s="25"/>
       <c r="K929" s="25"/>
     </row>
-    <row r="930" spans="1:11" s="6" customFormat="1">
+    <row r="930" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A930" s="21"/>
       <c r="B930" s="22"/>
       <c r="C930" s="22"/>
@@ -14260,7 +14400,7 @@
       <c r="J930" s="25"/>
       <c r="K930" s="25"/>
     </row>
-    <row r="931" spans="1:11" s="6" customFormat="1">
+    <row r="931" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A931" s="21"/>
       <c r="B931" s="22"/>
       <c r="C931" s="22"/>
@@ -14273,7 +14413,7 @@
       <c r="J931" s="25"/>
       <c r="K931" s="25"/>
     </row>
-    <row r="932" spans="1:11" s="6" customFormat="1">
+    <row r="932" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A932" s="21"/>
       <c r="B932" s="22"/>
       <c r="C932" s="22"/>
@@ -14286,7 +14426,7 @@
       <c r="J932" s="25"/>
       <c r="K932" s="25"/>
     </row>
-    <row r="933" spans="1:11" s="6" customFormat="1">
+    <row r="933" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A933" s="21"/>
       <c r="B933" s="22"/>
       <c r="C933" s="22"/>
@@ -14299,7 +14439,7 @@
       <c r="J933" s="25"/>
       <c r="K933" s="25"/>
     </row>
-    <row r="934" spans="1:11" s="6" customFormat="1">
+    <row r="934" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A934" s="21"/>
       <c r="B934" s="22"/>
       <c r="C934" s="22"/>
@@ -14312,7 +14452,7 @@
       <c r="J934" s="25"/>
       <c r="K934" s="25"/>
     </row>
-    <row r="935" spans="1:11" s="6" customFormat="1">
+    <row r="935" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A935" s="21"/>
       <c r="B935" s="22"/>
       <c r="C935" s="22"/>
@@ -14325,7 +14465,7 @@
       <c r="J935" s="25"/>
       <c r="K935" s="25"/>
     </row>
-    <row r="936" spans="1:11" s="6" customFormat="1">
+    <row r="936" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A936" s="21"/>
       <c r="B936" s="22"/>
       <c r="C936" s="22"/>
@@ -14338,7 +14478,7 @@
       <c r="J936" s="25"/>
       <c r="K936" s="25"/>
     </row>
-    <row r="937" spans="1:11" s="6" customFormat="1">
+    <row r="937" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A937" s="21"/>
       <c r="B937" s="22"/>
       <c r="C937" s="22"/>
@@ -14351,7 +14491,7 @@
       <c r="J937" s="25"/>
       <c r="K937" s="25"/>
     </row>
-    <row r="938" spans="1:11" s="6" customFormat="1">
+    <row r="938" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A938" s="21"/>
       <c r="B938" s="22"/>
       <c r="C938" s="22"/>
@@ -14364,7 +14504,7 @@
       <c r="J938" s="25"/>
       <c r="K938" s="25"/>
     </row>
-    <row r="939" spans="1:11" s="6" customFormat="1">
+    <row r="939" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A939" s="21"/>
       <c r="B939" s="22"/>
       <c r="C939" s="22"/>
@@ -14377,7 +14517,7 @@
       <c r="J939" s="25"/>
       <c r="K939" s="25"/>
     </row>
-    <row r="940" spans="1:11" s="6" customFormat="1">
+    <row r="940" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A940" s="21"/>
       <c r="B940" s="22"/>
       <c r="C940" s="22"/>
@@ -14390,7 +14530,7 @@
       <c r="J940" s="25"/>
       <c r="K940" s="25"/>
     </row>
-    <row r="941" spans="1:11" s="6" customFormat="1">
+    <row r="941" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A941" s="21"/>
       <c r="B941" s="22"/>
       <c r="C941" s="22"/>
@@ -14403,7 +14543,7 @@
       <c r="J941" s="25"/>
       <c r="K941" s="25"/>
     </row>
-    <row r="942" spans="1:11" s="6" customFormat="1">
+    <row r="942" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A942" s="21"/>
       <c r="B942" s="22"/>
       <c r="C942" s="22"/>
@@ -14416,7 +14556,7 @@
       <c r="J942" s="25"/>
       <c r="K942" s="25"/>
     </row>
-    <row r="943" spans="1:11" s="6" customFormat="1">
+    <row r="943" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A943" s="21"/>
       <c r="B943" s="22"/>
       <c r="C943" s="22"/>
@@ -14429,7 +14569,7 @@
       <c r="J943" s="25"/>
       <c r="K943" s="25"/>
     </row>
-    <row r="944" spans="1:11" s="6" customFormat="1">
+    <row r="944" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A944" s="21"/>
       <c r="B944" s="22"/>
       <c r="C944" s="22"/>
@@ -14442,7 +14582,7 @@
       <c r="J944" s="25"/>
       <c r="K944" s="25"/>
     </row>
-    <row r="945" spans="1:11" s="6" customFormat="1">
+    <row r="945" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A945" s="21"/>
       <c r="B945" s="22"/>
       <c r="C945" s="22"/>
@@ -14455,7 +14595,7 @@
       <c r="J945" s="25"/>
       <c r="K945" s="25"/>
     </row>
-    <row r="946" spans="1:11" s="6" customFormat="1">
+    <row r="946" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A946" s="21"/>
       <c r="B946" s="22"/>
       <c r="C946" s="22"/>
@@ -14468,7 +14608,7 @@
       <c r="J946" s="25"/>
       <c r="K946" s="25"/>
     </row>
-    <row r="947" spans="1:11" s="6" customFormat="1">
+    <row r="947" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A947" s="21"/>
       <c r="B947" s="22"/>
       <c r="C947" s="22"/>
@@ -14481,7 +14621,7 @@
       <c r="J947" s="25"/>
       <c r="K947" s="25"/>
     </row>
-    <row r="948" spans="1:11" s="6" customFormat="1">
+    <row r="948" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A948" s="21"/>
       <c r="B948" s="22"/>
       <c r="C948" s="22"/>
@@ -14494,7 +14634,7 @@
       <c r="J948" s="25"/>
       <c r="K948" s="25"/>
     </row>
-    <row r="949" spans="1:11" s="6" customFormat="1">
+    <row r="949" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A949" s="21"/>
       <c r="B949" s="22"/>
       <c r="C949" s="22"/>
@@ -14507,7 +14647,7 @@
       <c r="J949" s="25"/>
       <c r="K949" s="25"/>
     </row>
-    <row r="950" spans="1:11" s="6" customFormat="1">
+    <row r="950" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A950" s="21"/>
       <c r="B950" s="22"/>
       <c r="C950" s="22"/>
@@ -14520,7 +14660,7 @@
       <c r="J950" s="25"/>
       <c r="K950" s="25"/>
     </row>
-    <row r="951" spans="1:11" s="6" customFormat="1">
+    <row r="951" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A951" s="21"/>
       <c r="B951" s="22"/>
       <c r="C951" s="22"/>
@@ -14533,7 +14673,7 @@
       <c r="J951" s="25"/>
       <c r="K951" s="25"/>
     </row>
-    <row r="952" spans="1:11" s="6" customFormat="1">
+    <row r="952" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A952" s="21"/>
       <c r="B952" s="22"/>
       <c r="C952" s="22"/>
@@ -14546,7 +14686,7 @@
       <c r="J952" s="25"/>
       <c r="K952" s="25"/>
     </row>
-    <row r="953" spans="1:11" s="6" customFormat="1">
+    <row r="953" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A953" s="21"/>
       <c r="B953" s="22"/>
       <c r="C953" s="22"/>
@@ -14559,7 +14699,7 @@
       <c r="J953" s="25"/>
       <c r="K953" s="25"/>
     </row>
-    <row r="954" spans="1:11" s="6" customFormat="1">
+    <row r="954" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A954" s="21"/>
       <c r="B954" s="22"/>
       <c r="C954" s="22"/>
@@ -14572,7 +14712,7 @@
       <c r="J954" s="25"/>
       <c r="K954" s="25"/>
     </row>
-    <row r="955" spans="1:11" s="6" customFormat="1">
+    <row r="955" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A955" s="21"/>
       <c r="B955" s="22"/>
       <c r="C955" s="22"/>
@@ -14585,7 +14725,7 @@
       <c r="J955" s="25"/>
       <c r="K955" s="25"/>
     </row>
-    <row r="956" spans="1:11" s="6" customFormat="1">
+    <row r="956" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A956" s="21"/>
       <c r="B956" s="22"/>
       <c r="C956" s="22"/>
@@ -14598,7 +14738,7 @@
       <c r="J956" s="25"/>
       <c r="K956" s="25"/>
     </row>
-    <row r="957" spans="1:11" s="6" customFormat="1">
+    <row r="957" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A957" s="21"/>
       <c r="B957" s="22"/>
       <c r="C957" s="22"/>
@@ -14611,7 +14751,7 @@
       <c r="J957" s="25"/>
       <c r="K957" s="25"/>
     </row>
-    <row r="958" spans="1:11" s="6" customFormat="1">
+    <row r="958" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A958" s="21"/>
       <c r="B958" s="22"/>
       <c r="C958" s="22"/>
@@ -14624,7 +14764,7 @@
       <c r="J958" s="25"/>
       <c r="K958" s="25"/>
     </row>
-    <row r="959" spans="1:11" s="6" customFormat="1">
+    <row r="959" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A959" s="21"/>
       <c r="B959" s="22"/>
       <c r="C959" s="22"/>
@@ -14637,7 +14777,7 @@
       <c r="J959" s="25"/>
       <c r="K959" s="25"/>
     </row>
-    <row r="960" spans="1:11" s="6" customFormat="1">
+    <row r="960" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A960" s="21"/>
       <c r="B960" s="22"/>
       <c r="C960" s="22"/>
@@ -14650,7 +14790,7 @@
       <c r="J960" s="25"/>
       <c r="K960" s="25"/>
     </row>
-    <row r="961" spans="1:11" s="6" customFormat="1">
+    <row r="961" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A961" s="21"/>
       <c r="B961" s="22"/>
       <c r="C961" s="22"/>
@@ -14663,7 +14803,7 @@
       <c r="J961" s="25"/>
       <c r="K961" s="25"/>
     </row>
-    <row r="962" spans="1:11" s="6" customFormat="1">
+    <row r="962" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A962" s="21"/>
       <c r="B962" s="22"/>
       <c r="C962" s="22"/>
@@ -14676,7 +14816,7 @@
       <c r="J962" s="25"/>
       <c r="K962" s="25"/>
     </row>
-    <row r="963" spans="1:11" s="6" customFormat="1">
+    <row r="963" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A963" s="21"/>
       <c r="B963" s="22"/>
       <c r="C963" s="22"/>
@@ -14689,7 +14829,7 @@
       <c r="J963" s="25"/>
       <c r="K963" s="25"/>
     </row>
-    <row r="964" spans="1:11" s="6" customFormat="1">
+    <row r="964" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A964" s="21"/>
       <c r="B964" s="22"/>
       <c r="C964" s="22"/>
@@ -14702,7 +14842,7 @@
       <c r="J964" s="25"/>
       <c r="K964" s="25"/>
     </row>
-    <row r="965" spans="1:11" s="6" customFormat="1">
+    <row r="965" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A965" s="21"/>
       <c r="B965" s="22"/>
       <c r="C965" s="22"/>
@@ -14715,7 +14855,7 @@
       <c r="J965" s="25"/>
       <c r="K965" s="25"/>
     </row>
-    <row r="966" spans="1:11" s="6" customFormat="1">
+    <row r="966" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A966" s="21"/>
       <c r="B966" s="22"/>
       <c r="C966" s="22"/>
@@ -14728,7 +14868,7 @@
       <c r="J966" s="25"/>
       <c r="K966" s="25"/>
     </row>
-    <row r="967" spans="1:11" s="6" customFormat="1">
+    <row r="967" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A967" s="21"/>
       <c r="B967" s="22"/>
       <c r="C967" s="22"/>
@@ -14741,7 +14881,7 @@
       <c r="J967" s="25"/>
       <c r="K967" s="25"/>
     </row>
-    <row r="968" spans="1:11" s="6" customFormat="1">
+    <row r="968" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A968" s="21"/>
       <c r="B968" s="22"/>
       <c r="C968" s="22"/>
@@ -14754,7 +14894,7 @@
       <c r="J968" s="25"/>
       <c r="K968" s="25"/>
     </row>
-    <row r="969" spans="1:11" s="6" customFormat="1">
+    <row r="969" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A969" s="21"/>
       <c r="B969" s="22"/>
       <c r="C969" s="22"/>
@@ -14767,7 +14907,7 @@
       <c r="J969" s="25"/>
       <c r="K969" s="25"/>
     </row>
-    <row r="970" spans="1:11" s="6" customFormat="1">
+    <row r="970" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A970" s="21"/>
       <c r="B970" s="22"/>
       <c r="C970" s="22"/>
@@ -14780,7 +14920,7 @@
       <c r="J970" s="25"/>
       <c r="K970" s="25"/>
     </row>
-    <row r="971" spans="1:11" s="6" customFormat="1">
+    <row r="971" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A971" s="21"/>
       <c r="B971" s="22"/>
       <c r="C971" s="22"/>
@@ -14793,7 +14933,7 @@
       <c r="J971" s="25"/>
       <c r="K971" s="25"/>
     </row>
-    <row r="972" spans="1:11" s="6" customFormat="1">
+    <row r="972" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A972" s="21"/>
       <c r="B972" s="22"/>
       <c r="C972" s="22"/>
@@ -14806,7 +14946,7 @@
       <c r="J972" s="25"/>
       <c r="K972" s="25"/>
     </row>
-    <row r="973" spans="1:11" s="6" customFormat="1">
+    <row r="973" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A973" s="21"/>
       <c r="B973" s="22"/>
       <c r="C973" s="22"/>
@@ -14819,7 +14959,7 @@
       <c r="J973" s="25"/>
       <c r="K973" s="25"/>
     </row>
-    <row r="974" spans="1:11" s="6" customFormat="1">
+    <row r="974" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A974" s="21"/>
       <c r="B974" s="22"/>
       <c r="C974" s="22"/>
@@ -14832,7 +14972,7 @@
       <c r="J974" s="25"/>
       <c r="K974" s="25"/>
     </row>
-    <row r="975" spans="1:11" s="6" customFormat="1">
+    <row r="975" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A975" s="21"/>
       <c r="B975" s="22"/>
       <c r="C975" s="22"/>
@@ -14845,7 +14985,7 @@
       <c r="J975" s="25"/>
       <c r="K975" s="25"/>
     </row>
-    <row r="976" spans="1:11" s="6" customFormat="1">
+    <row r="976" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A976" s="21"/>
       <c r="B976" s="22"/>
       <c r="C976" s="22"/>
@@ -14858,7 +14998,7 @@
       <c r="J976" s="25"/>
       <c r="K976" s="25"/>
     </row>
-    <row r="977" spans="1:11" s="6" customFormat="1">
+    <row r="977" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A977" s="21"/>
       <c r="B977" s="22"/>
       <c r="C977" s="22"/>
@@ -14871,7 +15011,7 @@
       <c r="J977" s="25"/>
       <c r="K977" s="25"/>
     </row>
-    <row r="978" spans="1:11" s="6" customFormat="1">
+    <row r="978" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A978" s="21"/>
       <c r="B978" s="22"/>
       <c r="C978" s="22"/>
@@ -14884,7 +15024,7 @@
       <c r="J978" s="25"/>
       <c r="K978" s="25"/>
     </row>
-    <row r="979" spans="1:11" s="6" customFormat="1">
+    <row r="979" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A979" s="21"/>
       <c r="B979" s="22"/>
       <c r="C979" s="22"/>
@@ -14897,7 +15037,7 @@
       <c r="J979" s="25"/>
       <c r="K979" s="25"/>
     </row>
-    <row r="980" spans="1:11" s="6" customFormat="1">
+    <row r="980" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A980" s="21"/>
       <c r="B980" s="22"/>
       <c r="C980" s="22"/>
@@ -14910,7 +15050,7 @@
       <c r="J980" s="25"/>
       <c r="K980" s="25"/>
     </row>
-    <row r="981" spans="1:11" s="6" customFormat="1">
+    <row r="981" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A981" s="21"/>
       <c r="B981" s="22"/>
       <c r="C981" s="22"/>
@@ -14923,7 +15063,7 @@
       <c r="J981" s="25"/>
       <c r="K981" s="25"/>
     </row>
-    <row r="982" spans="1:11" s="6" customFormat="1">
+    <row r="982" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A982" s="21"/>
       <c r="B982" s="22"/>
       <c r="C982" s="22"/>
@@ -14936,7 +15076,7 @@
       <c r="J982" s="25"/>
       <c r="K982" s="25"/>
     </row>
-    <row r="983" spans="1:11" s="6" customFormat="1">
+    <row r="983" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A983" s="21"/>
       <c r="B983" s="22"/>
       <c r="C983" s="22"/>
@@ -14949,7 +15089,7 @@
       <c r="J983" s="25"/>
       <c r="K983" s="25"/>
     </row>
-    <row r="984" spans="1:11" s="6" customFormat="1">
+    <row r="984" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A984" s="21"/>
       <c r="B984" s="22"/>
       <c r="C984" s="22"/>
@@ -14962,7 +15102,7 @@
       <c r="J984" s="25"/>
       <c r="K984" s="25"/>
     </row>
-    <row r="985" spans="1:11" s="6" customFormat="1">
+    <row r="985" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A985" s="21"/>
       <c r="B985" s="22"/>
       <c r="C985" s="22"/>
@@ -14975,7 +15115,7 @@
       <c r="J985" s="25"/>
       <c r="K985" s="25"/>
     </row>
-    <row r="986" spans="1:11" s="6" customFormat="1">
+    <row r="986" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A986" s="21"/>
       <c r="B986" s="22"/>
       <c r="C986" s="22"/>
@@ -14988,7 +15128,7 @@
       <c r="J986" s="25"/>
       <c r="K986" s="25"/>
     </row>
-    <row r="987" spans="1:11" s="6" customFormat="1">
+    <row r="987" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A987" s="21"/>
       <c r="B987" s="22"/>
       <c r="C987" s="22"/>
@@ -15001,7 +15141,7 @@
       <c r="J987" s="25"/>
       <c r="K987" s="25"/>
     </row>
-    <row r="988" spans="1:11" s="6" customFormat="1">
+    <row r="988" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A988" s="21"/>
       <c r="B988" s="22"/>
       <c r="C988" s="22"/>
@@ -15014,7 +15154,7 @@
       <c r="J988" s="25"/>
       <c r="K988" s="25"/>
     </row>
-    <row r="989" spans="1:11" s="6" customFormat="1">
+    <row r="989" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A989" s="21"/>
       <c r="B989" s="22"/>
       <c r="C989" s="22"/>
@@ -15027,7 +15167,7 @@
       <c r="J989" s="25"/>
       <c r="K989" s="25"/>
     </row>
-    <row r="990" spans="1:11" s="6" customFormat="1">
+    <row r="990" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A990" s="21"/>
       <c r="B990" s="22"/>
       <c r="C990" s="22"/>
@@ -15040,7 +15180,7 @@
       <c r="J990" s="25"/>
       <c r="K990" s="25"/>
     </row>
-    <row r="991" spans="1:11" s="6" customFormat="1">
+    <row r="991" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A991" s="21"/>
       <c r="B991" s="22"/>
       <c r="C991" s="22"/>
@@ -15053,7 +15193,7 @@
       <c r="J991" s="25"/>
       <c r="K991" s="25"/>
     </row>
-    <row r="992" spans="1:11" s="6" customFormat="1">
+    <row r="992" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A992" s="21"/>
       <c r="B992" s="22"/>
       <c r="C992" s="22"/>
@@ -15066,7 +15206,7 @@
       <c r="J992" s="25"/>
       <c r="K992" s="25"/>
     </row>
-    <row r="993" spans="1:11" s="6" customFormat="1">
+    <row r="993" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A993" s="21"/>
       <c r="B993" s="22"/>
       <c r="C993" s="22"/>
@@ -15079,7 +15219,7 @@
       <c r="J993" s="25"/>
       <c r="K993" s="25"/>
     </row>
-    <row r="994" spans="1:11" s="6" customFormat="1">
+    <row r="994" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A994" s="21"/>
       <c r="B994" s="22"/>
       <c r="C994" s="22"/>
@@ -15092,7 +15232,7 @@
       <c r="J994" s="25"/>
       <c r="K994" s="25"/>
     </row>
-    <row r="995" spans="1:11" s="6" customFormat="1">
+    <row r="995" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A995" s="21"/>
       <c r="B995" s="22"/>
       <c r="C995" s="22"/>
@@ -15105,7 +15245,7 @@
       <c r="J995" s="25"/>
       <c r="K995" s="25"/>
     </row>
-    <row r="996" spans="1:11" s="6" customFormat="1">
+    <row r="996" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A996" s="21"/>
       <c r="B996" s="22"/>
       <c r="C996" s="22"/>
@@ -15118,7 +15258,7 @@
       <c r="J996" s="25"/>
       <c r="K996" s="25"/>
     </row>
-    <row r="997" spans="1:11" s="6" customFormat="1">
+    <row r="997" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A997" s="21"/>
       <c r="B997" s="22"/>
       <c r="C997" s="22"/>
@@ -15131,7 +15271,7 @@
       <c r="J997" s="25"/>
       <c r="K997" s="25"/>
     </row>
-    <row r="998" spans="1:11" s="6" customFormat="1">
+    <row r="998" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A998" s="21"/>
       <c r="B998" s="22"/>
       <c r="C998" s="22"/>
@@ -15144,7 +15284,7 @@
       <c r="J998" s="25"/>
       <c r="K998" s="25"/>
     </row>
-    <row r="999" spans="1:11" s="6" customFormat="1">
+    <row r="999" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A999" s="21"/>
       <c r="B999" s="22"/>
       <c r="C999" s="22"/>
@@ -15157,7 +15297,7 @@
       <c r="J999" s="25"/>
       <c r="K999" s="25"/>
     </row>
-    <row r="1000" spans="1:11" s="6" customFormat="1">
+    <row r="1000" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="21"/>
       <c r="B1000" s="22"/>
       <c r="C1000" s="22"/>
@@ -15170,7 +15310,7 @@
       <c r="J1000" s="25"/>
       <c r="K1000" s="25"/>
     </row>
-    <row r="1001" spans="1:11" s="6" customFormat="1">
+    <row r="1001" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="21"/>
       <c r="B1001" s="22"/>
       <c r="C1001" s="22"/>
@@ -15183,7 +15323,7 @@
       <c r="J1001" s="25"/>
       <c r="K1001" s="25"/>
     </row>
-    <row r="1002" spans="1:11" s="6" customFormat="1">
+    <row r="1002" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="21"/>
       <c r="B1002" s="22"/>
       <c r="C1002" s="22"/>
@@ -15196,7 +15336,7 @@
       <c r="J1002" s="25"/>
       <c r="K1002" s="25"/>
     </row>
-    <row r="1003" spans="1:11" s="6" customFormat="1">
+    <row r="1003" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1003" s="21"/>
       <c r="B1003" s="22"/>
       <c r="C1003" s="22"/>
@@ -15209,7 +15349,7 @@
       <c r="J1003" s="25"/>
       <c r="K1003" s="25"/>
     </row>
-    <row r="1004" spans="1:11" s="6" customFormat="1">
+    <row r="1004" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="21"/>
       <c r="B1004" s="22"/>
       <c r="C1004" s="22"/>
@@ -15222,7 +15362,7 @@
       <c r="J1004" s="25"/>
       <c r="K1004" s="25"/>
     </row>
-    <row r="1005" spans="1:11" s="6" customFormat="1">
+    <row r="1005" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1005" s="21"/>
       <c r="B1005" s="22"/>
       <c r="C1005" s="22"/>
@@ -15235,7 +15375,7 @@
       <c r="J1005" s="25"/>
       <c r="K1005" s="25"/>
     </row>
-    <row r="1006" spans="1:11" s="6" customFormat="1">
+    <row r="1006" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="21"/>
       <c r="B1006" s="22"/>
       <c r="C1006" s="22"/>
@@ -15254,7 +15394,7 @@
     <protectedRange sqref="L352:L371" name="Intervalo1_1_2_1_1_1_1_1_2_2"/>
   </protectedRanges>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C46 D2:D1048576" xr:uid="{0BB20F06-E19E-4A2F-A123-F076DB508809}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C52 D2:D1048576" xr:uid="{0BB20F06-E19E-4A2F-A123-F076DB508809}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
